--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
-    <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
+    <sheet name="요구사항정의서 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="조원 역할 분배" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$A$7:$G$38</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="169">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -260,10 +262,6 @@
   <si>
     <t>KB – P – 026
 KB – P – 027</t>
-  </si>
-  <si>
-    <t>커뮤니티 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>대관 시설 설명 업데이트</t>
@@ -611,6 +609,125 @@
     <t>세미나존 관리</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>세미나존 정보
+세미나존 예약
+ 세미나 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 확인
+및 세미나 예약</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>e-Zone 서비스 이용후 세미나존 후기 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 상세 내용 확인, 및 세미나 검색</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 및 결제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 문의사항 및 답변</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 등록 (마이페이지)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 후기 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는 주제에 관해 지식 및 정보를 공유할 수 있도록 모아줌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 및 결제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 내용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면
+컨텐츠 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 예약
+및 세미나 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 참가 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 관련 알림 사항</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존에 대한 문의</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원가입 페이지로 이동
+세미나존 정보, 추천 세미나 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 상세 내용을 확인, 후기 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 참가 예약 관리
+및 결제 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 예약
+및 세미나 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약, 주최 세미나 정보, 신청 세미나 정보 확인,
+세미나 문의 확인, 이용 후기 남기기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 아이디, 비밀번호, 주소, 이메일, 닉네임,
+관심 세미나 카테고리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 예약, 날짜 선택, 시간대 선택하여 예약
+및 결제, 세미나 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나(행사) 문의 답변</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -619,7 +736,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -724,8 +841,48 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,6 +922,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,7 +1182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1325,6 +1488,139 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1542,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -1840,11 +2136,11 @@
       </c>
       <c r="C8" s="96"/>
       <c r="D8" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1888,11 +2184,11 @@
         <v>19</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="52"/>
       <c r="F9" s="53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1934,11 +2230,11 @@
         <v>20</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1980,11 +2276,11 @@
         <v>23</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2026,10 +2322,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="4"/>
@@ -2062,17 +2358,17 @@
     <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A13" s="90"/>
       <c r="B13" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="51" t="s">
         <v>98</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>99</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2111,14 +2407,14 @@
       <c r="A14" s="90"/>
       <c r="B14" s="101"/>
       <c r="C14" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>100</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>101</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2151,14 +2447,14 @@
       <c r="A15" s="90"/>
       <c r="B15" s="101"/>
       <c r="C15" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2191,14 +2487,14 @@
       <c r="A16" s="90"/>
       <c r="B16" s="102"/>
       <c r="C16" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="51" t="s">
         <v>114</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>115</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2230,17 +2526,17 @@
     <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A17" s="90"/>
       <c r="B17" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="D17" s="58" t="s">
         <v>87</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>88</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2279,14 +2575,14 @@
       <c r="A18" s="90"/>
       <c r="B18" s="92"/>
       <c r="C18" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2325,14 +2621,14 @@
       <c r="A19" s="90"/>
       <c r="B19" s="92"/>
       <c r="C19" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="60" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="61"/>
       <c r="F19" s="62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -2371,14 +2667,14 @@
       <c r="A20" s="90"/>
       <c r="B20" s="92"/>
       <c r="C20" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="60" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>68</v>
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -2417,14 +2713,14 @@
       <c r="A21" s="90"/>
       <c r="B21" s="92"/>
       <c r="C21" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="60" t="s">
         <v>116</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>117</v>
       </c>
       <c r="E21" s="62"/>
       <c r="F21" s="62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -2460,10 +2756,10 @@
         <v>33</v>
       </c>
       <c r="D22" s="81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" s="75"/>
       <c r="G22" s="14"/>
@@ -2496,13 +2792,13 @@
     <row r="23" spans="1:32" ht="28.9" customHeight="1">
       <c r="A23" s="90"/>
       <c r="B23" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="63" t="s">
-        <v>82</v>
-      </c>
       <c r="D23" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="57"/>
@@ -2537,10 +2833,10 @@
       <c r="A24" s="90"/>
       <c r="B24" s="98"/>
       <c r="C24" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="57"/>
@@ -2575,10 +2871,10 @@
       <c r="A25" s="90"/>
       <c r="B25" s="98"/>
       <c r="C25" s="63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="57"/>
@@ -2613,10 +2909,10 @@
       <c r="A26" s="90"/>
       <c r="B26" s="99"/>
       <c r="C26" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="64" t="s">
         <v>112</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>113</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="57"/>
@@ -2650,17 +2946,17 @@
     <row r="27" spans="1:32" ht="28.9" customHeight="1">
       <c r="A27" s="90"/>
       <c r="B27" s="89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2699,14 +2995,14 @@
       <c r="A28" s="91"/>
       <c r="B28" s="95"/>
       <c r="C28" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="77" t="s">
         <v>119</v>
-      </c>
-      <c r="D28" s="77" t="s">
-        <v>120</v>
       </c>
       <c r="E28" s="67"/>
       <c r="F28" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -2746,7 +3042,7 @@
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -2796,7 +3092,7 @@
       </c>
       <c r="E30" s="62"/>
       <c r="F30" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -2838,7 +3134,7 @@
       </c>
       <c r="E31" s="62"/>
       <c r="F31" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -2884,7 +3180,7 @@
       </c>
       <c r="E32" s="62"/>
       <c r="F32" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -2920,17 +3216,17 @@
     <row r="33" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A33" s="90"/>
       <c r="B33" s="89" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
@@ -2963,14 +3259,14 @@
       <c r="A34" s="90"/>
       <c r="B34" s="89"/>
       <c r="C34" s="71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="72"/>
       <c r="F34" s="72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
@@ -3003,14 +3299,14 @@
       <c r="A35" s="90"/>
       <c r="B35" s="89"/>
       <c r="C35" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="69" t="s">
         <v>124</v>
-      </c>
-      <c r="D35" s="69" t="s">
-        <v>125</v>
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
@@ -3042,17 +3338,17 @@
     <row r="36" spans="1:32" ht="45.75" customHeight="1">
       <c r="A36" s="90"/>
       <c r="B36" s="94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="62"/>
       <c r="F36" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
@@ -3085,14 +3381,14 @@
       <c r="A37" s="90"/>
       <c r="B37" s="94"/>
       <c r="C37" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
@@ -3124,17 +3420,17 @@
     <row r="38" spans="1:32" ht="52.5" customHeight="1">
       <c r="A38" s="90"/>
       <c r="B38" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="59" t="s">
-        <v>92</v>
-      </c>
       <c r="D38" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="62"/>
       <c r="F38" s="62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -3201,7 +3497,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3209,7 +3505,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="1"/>
@@ -3237,7 +3533,7 @@
     <row r="41" spans="1:32" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3245,7 +3541,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="1"/>
@@ -3279,7 +3575,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="1"/>
@@ -3313,7 +3609,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="1"/>
@@ -3347,7 +3643,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="1"/>
@@ -3442,7 +3738,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
@@ -3477,10 +3773,10 @@
     <row r="48" spans="1:32" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -3515,10 +3811,10 @@
     <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
@@ -3553,10 +3849,10 @@
     <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
@@ -3591,10 +3887,10 @@
     <row r="51" spans="1:32" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
@@ -3629,10 +3925,10 @@
     <row r="52" spans="1:32" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
@@ -10709,6 +11005,7226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:X997"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.5" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="19.5" hidden="1" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" ht="50.25" hidden="1" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="12">
+        <v>43860</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="19.5" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" ht="27.75" customHeight="1">
+      <c r="A7" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A8" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="108">
+        <v>1</v>
+      </c>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+    </row>
+    <row r="9" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A9" s="103"/>
+      <c r="B9" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="108">
+        <v>2</v>
+      </c>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+    </row>
+    <row r="10" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A10" s="103"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="115"/>
+      <c r="F10" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="117">
+        <v>3</v>
+      </c>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+    </row>
+    <row r="11" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A11" s="103"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="117">
+        <v>2</v>
+      </c>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="109"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+    </row>
+    <row r="12" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A12" s="103"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="116"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
+      <c r="T12" s="109"/>
+      <c r="U12" s="109"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+    </row>
+    <row r="13" spans="1:24" s="110" customFormat="1" ht="48.75" hidden="1" customHeight="1">
+      <c r="A13" s="103"/>
+      <c r="B13" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="117">
+        <v>3</v>
+      </c>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+    </row>
+    <row r="14" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A14" s="103"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="117">
+        <v>4</v>
+      </c>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="109"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+    </row>
+    <row r="15" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A15" s="103"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="115"/>
+      <c r="F15" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="117">
+        <v>1</v>
+      </c>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="109"/>
+      <c r="V15" s="109"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+    </row>
+    <row r="16" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A16" s="103"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="115"/>
+      <c r="F16" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="117">
+        <v>6</v>
+      </c>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
+      <c r="T16" s="109"/>
+      <c r="U16" s="109"/>
+      <c r="V16" s="109"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+    </row>
+    <row r="17" spans="1:24" s="110" customFormat="1" ht="37.5" hidden="1" customHeight="1">
+      <c r="A17" s="103"/>
+      <c r="B17" s="122" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="117">
+        <v>1</v>
+      </c>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+    </row>
+    <row r="18" spans="1:24" s="110" customFormat="1" ht="37.5" hidden="1" customHeight="1">
+      <c r="A18" s="103"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="115"/>
+      <c r="F18" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="117">
+        <v>2</v>
+      </c>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+    </row>
+    <row r="19" spans="1:24" s="110" customFormat="1" ht="37.5" hidden="1" customHeight="1">
+      <c r="A19" s="103"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="123" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="124"/>
+      <c r="F19" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="127">
+        <v>3</v>
+      </c>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+    </row>
+    <row r="20" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A20" s="103"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="127">
+        <v>5</v>
+      </c>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="109"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+    </row>
+    <row r="21" spans="1:24" s="110" customFormat="1" ht="37.5" hidden="1" customHeight="1">
+      <c r="A21" s="103"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="127"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="109"/>
+      <c r="S21" s="109"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+    </row>
+    <row r="22" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A22" s="103"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="129"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="109"/>
+      <c r="S22" s="109"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="109"/>
+      <c r="V22" s="109"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+    </row>
+    <row r="23" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A23" s="103"/>
+      <c r="B23" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="115"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="109"/>
+      <c r="R23" s="109"/>
+      <c r="S23" s="109"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+    </row>
+    <row r="24" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A24" s="103"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="115"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="109"/>
+      <c r="S24" s="109"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="109"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+    </row>
+    <row r="25" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A25" s="103"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="105" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="115"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+    </row>
+    <row r="26" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A26" s="103"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="114" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="115"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+    </row>
+    <row r="27" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
+      <c r="A27" s="103"/>
+      <c r="B27" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="115"/>
+      <c r="F27" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="117"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+    </row>
+    <row r="28" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
+      <c r="A28" s="131"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="133" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="134" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="135"/>
+      <c r="F28" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="117"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+    </row>
+    <row r="29" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
+      <c r="A29" s="131"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="135"/>
+      <c r="F29" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="117"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+    </row>
+    <row r="30" spans="1:24" s="110" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+      <c r="A30" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="138" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="125"/>
+      <c r="F30" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="127">
+        <v>7</v>
+      </c>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+    </row>
+    <row r="31" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A31" s="103"/>
+      <c r="B31" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="144">
+        <v>4</v>
+      </c>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="109"/>
+      <c r="S31" s="109"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="109"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+    </row>
+    <row r="32" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A32" s="103"/>
+      <c r="B32" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="126">
+        <v>5</v>
+      </c>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="109"/>
+      <c r="S32" s="109"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+    </row>
+    <row r="33" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
+      <c r="A33" s="103"/>
+      <c r="B33" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="120" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="145"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="109"/>
+      <c r="S33" s="109"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="109"/>
+      <c r="V33" s="109"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+    </row>
+    <row r="34" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
+      <c r="A34" s="103"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="145"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="109"/>
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+    </row>
+    <row r="35" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
+      <c r="A35" s="103"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="113" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="145"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="109"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109"/>
+    </row>
+    <row r="36" spans="1:24" s="110" customFormat="1" ht="42.75" hidden="1" customHeight="1">
+      <c r="A36" s="103"/>
+      <c r="B36" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="141">
+        <v>6</v>
+      </c>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="109"/>
+      <c r="U36" s="109"/>
+      <c r="V36" s="109"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="109"/>
+    </row>
+    <row r="37" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A37" s="103"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="141">
+        <v>8</v>
+      </c>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="109"/>
+      <c r="O37" s="109"/>
+      <c r="P37" s="109"/>
+      <c r="Q37" s="109"/>
+      <c r="R37" s="109"/>
+      <c r="S37" s="109"/>
+      <c r="T37" s="109"/>
+      <c r="U37" s="109"/>
+      <c r="V37" s="109"/>
+      <c r="W37" s="109"/>
+      <c r="X37" s="109"/>
+    </row>
+    <row r="38" spans="1:24" s="110" customFormat="1" ht="37.5" hidden="1" customHeight="1">
+      <c r="A38" s="103"/>
+      <c r="B38" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="142" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="141">
+        <v>5</v>
+      </c>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="109"/>
+      <c r="O38" s="109"/>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="109"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="109"/>
+      <c r="U38" s="109"/>
+      <c r="V38" s="109"/>
+      <c r="W38" s="109"/>
+      <c r="X38" s="109"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+    </row>
+    <row r="73" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A73" s="1"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+    </row>
+    <row r="74" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+    </row>
+    <row r="75" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+    </row>
+    <row r="76" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+    </row>
+    <row r="80" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+    </row>
+    <row r="81" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+    </row>
+    <row r="82" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+    </row>
+    <row r="83" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+    </row>
+    <row r="84" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+    </row>
+    <row r="85" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+    </row>
+    <row r="86" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+    </row>
+    <row r="87" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+    </row>
+    <row r="88" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+    </row>
+    <row r="90" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+    </row>
+    <row r="91" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+    </row>
+    <row r="92" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+    </row>
+    <row r="93" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+    </row>
+    <row r="94" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+    </row>
+    <row r="95" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+    </row>
+    <row r="96" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+    </row>
+    <row r="97" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+    </row>
+    <row r="98" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+    </row>
+    <row r="99" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+    </row>
+    <row r="100" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+    </row>
+    <row r="101" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+    </row>
+    <row r="102" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+    </row>
+    <row r="103" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+    </row>
+    <row r="104" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+    </row>
+    <row r="105" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+    </row>
+    <row r="106" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+    </row>
+    <row r="107" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+    </row>
+    <row r="108" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+    </row>
+    <row r="109" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+    </row>
+    <row r="110" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+    </row>
+    <row r="111" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+    </row>
+    <row r="112" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+    </row>
+    <row r="113" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+    </row>
+    <row r="114" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+    </row>
+    <row r="115" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+    </row>
+    <row r="116" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+    </row>
+    <row r="117" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+    </row>
+    <row r="118" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+    </row>
+    <row r="119" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+    </row>
+    <row r="120" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+    </row>
+    <row r="121" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+    </row>
+    <row r="122" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
+    </row>
+    <row r="123" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+    </row>
+    <row r="124" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
+    </row>
+    <row r="125" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+      <c r="X125" s="1"/>
+    </row>
+    <row r="126" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+    </row>
+    <row r="127" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+    </row>
+    <row r="128" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
+    </row>
+    <row r="129" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+    </row>
+    <row r="130" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
+      <c r="X130" s="1"/>
+    </row>
+    <row r="131" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="X131" s="1"/>
+    </row>
+    <row r="132" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
+      <c r="X132" s="1"/>
+    </row>
+    <row r="133" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
+    </row>
+    <row r="134" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+    </row>
+    <row r="135" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+      <c r="X135" s="1"/>
+    </row>
+    <row r="136" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+      <c r="X136" s="1"/>
+    </row>
+    <row r="137" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
+    </row>
+    <row r="138" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+    </row>
+    <row r="139" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
+      <c r="X139" s="1"/>
+    </row>
+    <row r="140" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
+    </row>
+    <row r="141" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
+      <c r="X141" s="1"/>
+    </row>
+    <row r="142" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
+    </row>
+    <row r="143" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
+    </row>
+    <row r="144" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+    </row>
+    <row r="145" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+    </row>
+    <row r="146" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+    </row>
+    <row r="147" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+    </row>
+    <row r="148" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+    </row>
+    <row r="149" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
+    </row>
+    <row r="150" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+    </row>
+    <row r="151" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+    </row>
+    <row r="152" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+    </row>
+    <row r="153" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+    </row>
+    <row r="154" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
+      <c r="X154" s="1"/>
+    </row>
+    <row r="155" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+      <c r="X155" s="1"/>
+    </row>
+    <row r="156" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+      <c r="X156" s="1"/>
+    </row>
+    <row r="157" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+    </row>
+    <row r="158" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
+    </row>
+    <row r="159" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+    </row>
+    <row r="160" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
+    </row>
+    <row r="161" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
+      <c r="X161" s="1"/>
+    </row>
+    <row r="162" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
+      <c r="X162" s="1"/>
+    </row>
+    <row r="163" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+      <c r="X163" s="1"/>
+    </row>
+    <row r="164" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
+      <c r="X164" s="1"/>
+    </row>
+    <row r="165" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
+      <c r="U165" s="1"/>
+      <c r="V165" s="1"/>
+      <c r="W165" s="1"/>
+      <c r="X165" s="1"/>
+    </row>
+    <row r="166" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
+      <c r="W166" s="1"/>
+      <c r="X166" s="1"/>
+    </row>
+    <row r="167" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="1"/>
+      <c r="W167" s="1"/>
+      <c r="X167" s="1"/>
+    </row>
+    <row r="168" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="1"/>
+      <c r="W168" s="1"/>
+      <c r="X168" s="1"/>
+    </row>
+    <row r="169" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
+      <c r="U169" s="1"/>
+      <c r="V169" s="1"/>
+      <c r="W169" s="1"/>
+      <c r="X169" s="1"/>
+    </row>
+    <row r="170" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A170" s="1"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
+      <c r="W170" s="1"/>
+      <c r="X170" s="1"/>
+    </row>
+    <row r="171" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
+      <c r="V171" s="1"/>
+      <c r="W171" s="1"/>
+      <c r="X171" s="1"/>
+    </row>
+    <row r="172" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172" s="1"/>
+      <c r="U172" s="1"/>
+      <c r="V172" s="1"/>
+      <c r="W172" s="1"/>
+      <c r="X172" s="1"/>
+    </row>
+    <row r="173" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="1"/>
+      <c r="W173" s="1"/>
+      <c r="X173" s="1"/>
+    </row>
+    <row r="174" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+      <c r="T174" s="1"/>
+      <c r="U174" s="1"/>
+      <c r="V174" s="1"/>
+      <c r="W174" s="1"/>
+      <c r="X174" s="1"/>
+    </row>
+    <row r="175" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+      <c r="X175" s="1"/>
+    </row>
+    <row r="176" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+    </row>
+    <row r="177" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A177" s="1"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+    </row>
+    <row r="178" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A178" s="1"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="1"/>
+      <c r="W178" s="1"/>
+      <c r="X178" s="1"/>
+    </row>
+    <row r="179" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+      <c r="U179" s="1"/>
+      <c r="V179" s="1"/>
+      <c r="W179" s="1"/>
+      <c r="X179" s="1"/>
+    </row>
+    <row r="180" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A180" s="1"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+      <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+      <c r="X180" s="1"/>
+    </row>
+    <row r="181" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+      <c r="T181" s="1"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
+      <c r="X181" s="1"/>
+    </row>
+    <row r="182" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A182" s="1"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1"/>
+      <c r="U182" s="1"/>
+      <c r="V182" s="1"/>
+      <c r="W182" s="1"/>
+      <c r="X182" s="1"/>
+    </row>
+    <row r="183" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A183" s="1"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+      <c r="T183" s="1"/>
+      <c r="U183" s="1"/>
+      <c r="V183" s="1"/>
+      <c r="W183" s="1"/>
+      <c r="X183" s="1"/>
+    </row>
+    <row r="184" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A184" s="1"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="1"/>
+      <c r="W184" s="1"/>
+      <c r="X184" s="1"/>
+    </row>
+    <row r="185" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A185" s="1"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="1"/>
+      <c r="W185" s="1"/>
+      <c r="X185" s="1"/>
+    </row>
+    <row r="186" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A186" s="1"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
+      <c r="U186" s="1"/>
+      <c r="V186" s="1"/>
+      <c r="W186" s="1"/>
+      <c r="X186" s="1"/>
+    </row>
+    <row r="187" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A187" s="1"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
+      <c r="U187" s="1"/>
+      <c r="V187" s="1"/>
+      <c r="W187" s="1"/>
+      <c r="X187" s="1"/>
+    </row>
+    <row r="188" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A188" s="1"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1"/>
+      <c r="W188" s="1"/>
+      <c r="X188" s="1"/>
+    </row>
+    <row r="189" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A189" s="1"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+      <c r="T189" s="1"/>
+      <c r="U189" s="1"/>
+      <c r="V189" s="1"/>
+      <c r="W189" s="1"/>
+      <c r="X189" s="1"/>
+    </row>
+    <row r="190" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A190" s="1"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+      <c r="T190" s="1"/>
+      <c r="U190" s="1"/>
+      <c r="V190" s="1"/>
+      <c r="W190" s="1"/>
+      <c r="X190" s="1"/>
+    </row>
+    <row r="191" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A191" s="1"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
+      <c r="U191" s="1"/>
+      <c r="V191" s="1"/>
+      <c r="W191" s="1"/>
+      <c r="X191" s="1"/>
+    </row>
+    <row r="192" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A192" s="1"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
+      <c r="U192" s="1"/>
+      <c r="V192" s="1"/>
+      <c r="W192" s="1"/>
+      <c r="X192" s="1"/>
+    </row>
+    <row r="193" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A193" s="1"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
+      <c r="X193" s="1"/>
+    </row>
+    <row r="194" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+    </row>
+    <row r="195" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A195" s="1"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
+      <c r="W195" s="1"/>
+      <c r="X195" s="1"/>
+    </row>
+    <row r="196" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
+    </row>
+    <row r="197" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A197" s="1"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
+      <c r="X197" s="1"/>
+    </row>
+    <row r="198" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A198" s="1"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+      <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
+      <c r="W198" s="1"/>
+      <c r="X198" s="1"/>
+    </row>
+    <row r="199" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A199" s="1"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
+      <c r="W199" s="1"/>
+      <c r="X199" s="1"/>
+    </row>
+    <row r="200" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A200" s="1"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+      <c r="T200" s="1"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
+      <c r="W200" s="1"/>
+      <c r="X200" s="1"/>
+    </row>
+    <row r="201" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A201" s="1"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+      <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
+      <c r="W201" s="1"/>
+      <c r="X201" s="1"/>
+    </row>
+    <row r="202" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A202" s="1"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
+      <c r="W202" s="1"/>
+      <c r="X202" s="1"/>
+    </row>
+    <row r="203" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A203" s="1"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="1"/>
+      <c r="W203" s="1"/>
+      <c r="X203" s="1"/>
+    </row>
+    <row r="204" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A204" s="1"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
+      <c r="W204" s="1"/>
+      <c r="X204" s="1"/>
+    </row>
+    <row r="205" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A205" s="1"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="1"/>
+      <c r="W205" s="1"/>
+      <c r="X205" s="1"/>
+    </row>
+    <row r="206" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A206" s="1"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="1"/>
+      <c r="W206" s="1"/>
+      <c r="X206" s="1"/>
+    </row>
+    <row r="207" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A207" s="1"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+      <c r="U207" s="1"/>
+      <c r="V207" s="1"/>
+      <c r="W207" s="1"/>
+      <c r="X207" s="1"/>
+    </row>
+    <row r="208" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A208" s="1"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+      <c r="U208" s="1"/>
+      <c r="V208" s="1"/>
+      <c r="W208" s="1"/>
+      <c r="X208" s="1"/>
+    </row>
+    <row r="209" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A209" s="1"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="1"/>
+      <c r="W209" s="1"/>
+      <c r="X209" s="1"/>
+    </row>
+    <row r="210" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A210" s="1"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
+      <c r="W210" s="1"/>
+      <c r="X210" s="1"/>
+    </row>
+    <row r="211" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A211" s="1"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="1"/>
+      <c r="W211" s="1"/>
+      <c r="X211" s="1"/>
+    </row>
+    <row r="212" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A212" s="1"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+      <c r="V212" s="1"/>
+      <c r="W212" s="1"/>
+      <c r="X212" s="1"/>
+    </row>
+    <row r="213" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A213" s="1"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+      <c r="V213" s="1"/>
+      <c r="W213" s="1"/>
+      <c r="X213" s="1"/>
+    </row>
+    <row r="214" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A214" s="1"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="1"/>
+      <c r="W214" s="1"/>
+      <c r="X214" s="1"/>
+    </row>
+    <row r="215" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="1"/>
+      <c r="W215" s="1"/>
+      <c r="X215" s="1"/>
+    </row>
+    <row r="216" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A216" s="1"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="1"/>
+      <c r="W216" s="1"/>
+      <c r="X216" s="1"/>
+    </row>
+    <row r="217" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A217" s="1"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="1"/>
+      <c r="W217" s="1"/>
+      <c r="X217" s="1"/>
+    </row>
+    <row r="218" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A218" s="1"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+      <c r="V218" s="1"/>
+      <c r="W218" s="1"/>
+      <c r="X218" s="1"/>
+    </row>
+    <row r="219" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A219" s="1"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="X219" s="1"/>
+    </row>
+    <row r="220" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A220" s="1"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
+      <c r="W220" s="1"/>
+      <c r="X220" s="1"/>
+    </row>
+    <row r="221" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A221" s="1"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
+      <c r="W221" s="1"/>
+      <c r="X221" s="1"/>
+    </row>
+    <row r="222" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A222" s="1"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
+      <c r="W222" s="1"/>
+      <c r="X222" s="1"/>
+    </row>
+    <row r="223" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A223" s="1"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
+      <c r="W223" s="1"/>
+      <c r="X223" s="1"/>
+    </row>
+    <row r="224" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A224" s="1"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+      <c r="V224" s="1"/>
+      <c r="W224" s="1"/>
+      <c r="X224" s="1"/>
+    </row>
+    <row r="225" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A225" s="1"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+      <c r="U225" s="1"/>
+      <c r="V225" s="1"/>
+      <c r="W225" s="1"/>
+      <c r="X225" s="1"/>
+    </row>
+    <row r="226" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A226" s="1"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="1"/>
+      <c r="W226" s="1"/>
+      <c r="X226" s="1"/>
+    </row>
+    <row r="227" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A227" s="1"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="X227" s="1"/>
+    </row>
+    <row r="228" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A228" s="1"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+      <c r="U228" s="1"/>
+      <c r="V228" s="1"/>
+      <c r="W228" s="1"/>
+      <c r="X228" s="1"/>
+    </row>
+    <row r="229" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A229" s="1"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+      <c r="V229" s="1"/>
+      <c r="W229" s="1"/>
+      <c r="X229" s="1"/>
+    </row>
+    <row r="230" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A230" s="1"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+    </row>
+    <row r="231" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A231" s="1"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+    </row>
+    <row r="232" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A232" s="1"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+    </row>
+    <row r="233" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+    </row>
+    <row r="234" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+    </row>
+    <row r="235" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+    </row>
+    <row r="236" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="X236" s="1"/>
+    </row>
+    <row r="237" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="238" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <autoFilter ref="A7:G38">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="현태"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="11">
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="A8:A29"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B29"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10727,42 +18243,42 @@
   <sheetData>
     <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="12.75">
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="12.75">
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="12.75">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="12.75">
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="169">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -932,7 +932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1178,11 +1178,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1425,6 +1474,91 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1491,44 +1625,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,93 +1646,67 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1838,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF997"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:B37"/>
     </sheetView>
   </sheetViews>
@@ -1895,21 +1978,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="113"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1931,19 +2014,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="87"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="116"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2088,12 +2171,12 @@
       <c r="F7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -2128,13 +2211,13 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="51" t="s">
         <v>94</v>
       </c>
@@ -2176,8 +2259,8 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A9" s="90"/>
-      <c r="B9" s="93" t="s">
+      <c r="A9" s="119"/>
+      <c r="B9" s="122" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -2224,8 +2307,8 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="90"/>
-      <c r="B10" s="93"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="35" t="s">
         <v>20</v>
       </c>
@@ -2270,8 +2353,8 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="48">
-      <c r="A11" s="90"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="35" t="s">
         <v>23</v>
       </c>
@@ -2316,8 +2399,8 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" customHeight="1">
-      <c r="A12" s="90"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="80" t="s">
         <v>26</v>
       </c>
@@ -2356,8 +2439,8 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A13" s="90"/>
-      <c r="B13" s="100" t="s">
+      <c r="A13" s="119"/>
+      <c r="B13" s="129" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="35" t="s">
@@ -2404,8 +2487,8 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="90"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="35" t="s">
         <v>99</v>
       </c>
@@ -2444,8 +2527,8 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="36">
-      <c r="A15" s="90"/>
-      <c r="B15" s="101"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="34" t="s">
         <v>131</v>
       </c>
@@ -2484,8 +2567,8 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="90"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="54" t="s">
         <v>113</v>
       </c>
@@ -2524,8 +2607,8 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="92" t="s">
+      <c r="A17" s="119"/>
+      <c r="B17" s="121" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="37" t="s">
@@ -2572,8 +2655,8 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="33.6" customHeight="1">
-      <c r="A18" s="90"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="59" t="s">
         <v>88</v>
       </c>
@@ -2618,8 +2701,8 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A19" s="90"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="59" t="s">
         <v>64</v>
       </c>
@@ -2664,8 +2747,8 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="90"/>
-      <c r="B20" s="92"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="121"/>
       <c r="C20" s="59" t="s">
         <v>66</v>
       </c>
@@ -2710,8 +2793,8 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A21" s="90"/>
-      <c r="B21" s="92"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="59" t="s">
         <v>115</v>
       </c>
@@ -2750,8 +2833,8 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A22" s="90"/>
-      <c r="B22" s="92"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="121"/>
       <c r="C22" s="80" t="s">
         <v>33</v>
       </c>
@@ -2790,8 +2873,8 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A23" s="90"/>
-      <c r="B23" s="97" t="s">
+      <c r="A23" s="119"/>
+      <c r="B23" s="126" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -2830,8 +2913,8 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A24" s="90"/>
-      <c r="B24" s="98"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="63" t="s">
         <v>106</v>
       </c>
@@ -2868,8 +2951,8 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A25" s="90"/>
-      <c r="B25" s="98"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="63" t="s">
         <v>82</v>
       </c>
@@ -2906,8 +2989,8 @@
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A26" s="90"/>
-      <c r="B26" s="99"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="63" t="s">
         <v>111</v>
       </c>
@@ -2944,8 +3027,8 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A27" s="90"/>
-      <c r="B27" s="89" t="s">
+      <c r="A27" s="119"/>
+      <c r="B27" s="118" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="37" t="s">
@@ -2992,8 +3075,8 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A28" s="91"/>
-      <c r="B28" s="95"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="73" t="s">
         <v>118</v>
       </c>
@@ -3032,8 +3115,8 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="95"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="124"/>
       <c r="C29" s="65" t="s">
         <v>36</v>
       </c>
@@ -3078,7 +3161,7 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="119" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="34" t="s">
@@ -3122,7 +3205,7 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A31" s="90"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="34" t="s">
         <v>44</v>
       </c>
@@ -3168,7 +3251,7 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A32" s="90"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="35" t="s">
         <v>47</v>
       </c>
@@ -3214,8 +3297,8 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A33" s="90"/>
-      <c r="B33" s="89" t="s">
+      <c r="A33" s="119"/>
+      <c r="B33" s="118" t="s">
         <v>167</v>
       </c>
       <c r="C33" s="37" t="s">
@@ -3256,8 +3339,8 @@
       <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A34" s="90"/>
-      <c r="B34" s="89"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="71" t="s">
         <v>122</v>
       </c>
@@ -3296,8 +3379,8 @@
       <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A35" s="90"/>
-      <c r="B35" s="89"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="37" t="s">
         <v>123</v>
       </c>
@@ -3336,8 +3419,8 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" ht="45.75" customHeight="1">
-      <c r="A36" s="90"/>
-      <c r="B36" s="94" t="s">
+      <c r="A36" s="119"/>
+      <c r="B36" s="123" t="s">
         <v>101</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -3378,8 +3461,8 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A37" s="90"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="123"/>
       <c r="C37" s="34" t="s">
         <v>140</v>
       </c>
@@ -3418,7 +3501,7 @@
       <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="1:32" ht="52.5" customHeight="1">
-      <c r="A38" s="90"/>
+      <c r="A38" s="119"/>
       <c r="B38" s="59" t="s">
         <v>90</v>
       </c>
@@ -11008,8 +11091,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B35"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -11018,7 +11101,7 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
@@ -11051,14 +11134,14 @@
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="146"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -11079,12 +11162,12 @@
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -11207,7 +11290,9 @@
       <c r="G7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="143" t="s">
+        <v>10</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -11225,1051 +11310,1065 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A8" s="103" t="s">
+    <row r="8" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A8" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105" t="s">
+      <c r="C8" s="137"/>
+      <c r="D8" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107" t="s">
+      <c r="E8" s="83"/>
+      <c r="F8" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="85">
         <v>1</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-    </row>
-    <row r="9" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="111" t="s">
+      <c r="H8" s="144"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+    </row>
+    <row r="9" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A9" s="132"/>
+      <c r="B9" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="D9" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107" t="s">
+      <c r="E9" s="83"/>
+      <c r="F9" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="85">
         <v>2</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-    </row>
-    <row r="10" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="114" t="s">
+      <c r="H9" s="145"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+    </row>
+    <row r="10" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A10" s="132"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="116" t="s">
+      <c r="E10" s="91"/>
+      <c r="F10" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="117">
+      <c r="G10" s="93">
         <v>3</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
-    </row>
-    <row r="11" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114" t="s">
+      <c r="H10" s="146"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+    </row>
+    <row r="11" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A11" s="132"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="115"/>
-      <c r="F11" s="116" t="s">
+      <c r="E11" s="91"/>
+      <c r="F11" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="117">
+      <c r="G11" s="93">
         <v>2</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
-    </row>
-    <row r="12" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A12" s="103"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="114" t="s">
+      <c r="H11" s="146"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+    </row>
+    <row r="12" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A12" s="132"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="116"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-    </row>
-    <row r="13" spans="1:24" s="110" customFormat="1" ht="48.75" hidden="1" customHeight="1">
-      <c r="A13" s="103"/>
-      <c r="B13" s="118" t="s">
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+    </row>
+    <row r="13" spans="1:24" s="87" customFormat="1" ht="48.75" hidden="1" customHeight="1">
+      <c r="A13" s="132"/>
+      <c r="B13" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116" t="s">
+      <c r="E13" s="91"/>
+      <c r="F13" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="117">
+      <c r="G13" s="93">
         <v>3</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
-      <c r="W13" s="109"/>
-      <c r="X13" s="109"/>
-    </row>
-    <row r="14" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A14" s="103"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="114" t="s">
+      <c r="H13" s="147"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+    </row>
+    <row r="14" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A14" s="132"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="116" t="s">
+      <c r="E14" s="91"/>
+      <c r="F14" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="117">
+      <c r="G14" s="93">
         <v>4</v>
       </c>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109"/>
-      <c r="V14" s="109"/>
-      <c r="W14" s="109"/>
-      <c r="X14" s="109"/>
-    </row>
-    <row r="15" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A15" s="103"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="147" t="s">
+      <c r="H14" s="148"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+    </row>
+    <row r="15" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A15" s="132"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="115"/>
-      <c r="F15" s="116" t="s">
+      <c r="E15" s="91"/>
+      <c r="F15" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="93">
         <v>1</v>
       </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
-      <c r="W15" s="109"/>
-      <c r="X15" s="109"/>
-    </row>
-    <row r="16" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A16" s="103"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="120" t="s">
+      <c r="H15" s="149"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+    </row>
+    <row r="16" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A16" s="132"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="105" t="s">
+      <c r="D16" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="116" t="s">
+      <c r="E16" s="91"/>
+      <c r="F16" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="117">
+      <c r="G16" s="93">
         <v>6</v>
       </c>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="109"/>
-      <c r="U16" s="109"/>
-      <c r="V16" s="109"/>
-      <c r="W16" s="109"/>
-      <c r="X16" s="109"/>
-    </row>
-    <row r="17" spans="1:24" s="110" customFormat="1" ht="37.5" hidden="1" customHeight="1">
-      <c r="A17" s="103"/>
-      <c r="B17" s="122" t="s">
+      <c r="H16" s="150"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+    </row>
+    <row r="17" spans="1:24" s="87" customFormat="1" ht="37.5" hidden="1" customHeight="1">
+      <c r="A17" s="132"/>
+      <c r="B17" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116" t="s">
+      <c r="E17" s="91"/>
+      <c r="F17" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="117">
+      <c r="G17" s="93">
         <v>1</v>
       </c>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="109"/>
-      <c r="X17" s="109"/>
-    </row>
-    <row r="18" spans="1:24" s="110" customFormat="1" ht="37.5" hidden="1" customHeight="1">
-      <c r="A18" s="103"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="114" t="s">
+      <c r="H17" s="150"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+    </row>
+    <row r="18" spans="1:24" s="87" customFormat="1" ht="37.5" hidden="1" customHeight="1">
+      <c r="A18" s="132"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116" t="s">
+      <c r="E18" s="91"/>
+      <c r="F18" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="117">
+      <c r="G18" s="93">
         <v>2</v>
       </c>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-    </row>
-    <row r="19" spans="1:24" s="110" customFormat="1" ht="37.5" hidden="1" customHeight="1">
-      <c r="A19" s="103"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="114" t="s">
+      <c r="H18" s="151"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+    </row>
+    <row r="19" spans="1:24" s="87" customFormat="1" ht="37.5" hidden="1" customHeight="1">
+      <c r="A19" s="132"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125" t="s">
+      <c r="E19" s="96"/>
+      <c r="F19" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="127">
+      <c r="G19" s="153">
         <v>3</v>
       </c>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="109"/>
-      <c r="X19" s="109"/>
-    </row>
-    <row r="20" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A20" s="103"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="114" t="s">
+      <c r="H19" s="152"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+    </row>
+    <row r="20" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A20" s="132"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="123" t="s">
+      <c r="D20" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125" t="s">
+      <c r="E20" s="96"/>
+      <c r="F20" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="127">
+      <c r="G20" s="153">
         <v>5</v>
       </c>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
-      <c r="W20" s="109"/>
-      <c r="X20" s="109"/>
-    </row>
-    <row r="21" spans="1:24" s="110" customFormat="1" ht="37.5" hidden="1" customHeight="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="114" t="s">
+      <c r="H20" s="158"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+    </row>
+    <row r="21" spans="1:24" s="87" customFormat="1" ht="37.5" hidden="1" customHeight="1">
+      <c r="A21" s="132"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125" t="s">
+      <c r="E21" s="97"/>
+      <c r="F21" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="109"/>
-      <c r="W21" s="109"/>
-      <c r="X21" s="109"/>
-    </row>
-    <row r="22" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A22" s="103"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="114" t="s">
+      <c r="G21" s="153">
+        <v>4</v>
+      </c>
+      <c r="H21" s="158"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+    </row>
+    <row r="22" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A22" s="132"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="109"/>
-      <c r="W22" s="109"/>
-      <c r="X22" s="109"/>
-    </row>
-    <row r="23" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A23" s="103"/>
-      <c r="B23" s="118" t="s">
+      <c r="F22" s="99"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+    </row>
+    <row r="23" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A23" s="132"/>
+      <c r="B23" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-    </row>
-    <row r="24" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A24" s="103"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="114" t="s">
+      <c r="E23" s="91"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+    </row>
+    <row r="24" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A24" s="132"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-      <c r="U24" s="109"/>
-      <c r="V24" s="109"/>
-      <c r="W24" s="109"/>
-      <c r="X24" s="109"/>
-    </row>
-    <row r="25" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="114" t="s">
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+    </row>
+    <row r="25" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A25" s="132"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="109"/>
-      <c r="W25" s="109"/>
-      <c r="X25" s="109"/>
-    </row>
-    <row r="26" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="114" t="s">
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+    </row>
+    <row r="26" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A26" s="132"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="105" t="s">
+      <c r="D26" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="109"/>
-      <c r="W26" s="109"/>
-      <c r="X26" s="109"/>
-    </row>
-    <row r="27" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
-      <c r="A27" s="103"/>
-      <c r="B27" s="111" t="s">
+      <c r="E26" s="91"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+    </row>
+    <row r="27" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
+      <c r="A27" s="132"/>
+      <c r="B27" s="133" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="105" t="s">
+      <c r="D27" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="115"/>
-      <c r="F27" s="130" t="s">
+      <c r="E27" s="91"/>
+      <c r="F27" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="117"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="109"/>
-      <c r="X27" s="109"/>
-    </row>
-    <row r="28" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
-      <c r="A28" s="131"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="133" t="s">
+      <c r="G27" s="154">
+        <v>1</v>
+      </c>
+      <c r="H27" s="158"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+    </row>
+    <row r="28" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
+      <c r="A28" s="136"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="134" t="s">
+      <c r="D28" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="135"/>
-      <c r="F28" s="136" t="s">
+      <c r="E28" s="103"/>
+      <c r="F28" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="117"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="109"/>
-    </row>
-    <row r="29" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
-      <c r="A29" s="131"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="133" t="s">
+      <c r="G28" s="154">
+        <v>2</v>
+      </c>
+      <c r="H28" s="158"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+    </row>
+    <row r="29" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
+      <c r="A29" s="136"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="137" t="s">
+      <c r="D29" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="135"/>
-      <c r="F29" s="136" t="s">
+      <c r="E29" s="103"/>
+      <c r="F29" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="117"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="109"/>
-    </row>
-    <row r="30" spans="1:24" s="110" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A30" s="103" t="s">
+      <c r="G29" s="154">
+        <v>3</v>
+      </c>
+      <c r="H29" s="158"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+    </row>
+    <row r="30" spans="1:24" s="87" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+      <c r="A30" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="138" t="s">
+      <c r="D30" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="125"/>
-      <c r="F30" s="139" t="s">
+      <c r="E30" s="97"/>
+      <c r="F30" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="127">
+      <c r="G30" s="153">
         <v>7</v>
       </c>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
-      <c r="V30" s="109"/>
-      <c r="W30" s="109"/>
-      <c r="X30" s="109"/>
-    </row>
-    <row r="31" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A31" s="103"/>
-      <c r="B31" s="120" t="s">
+      <c r="H30" s="158"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+    </row>
+    <row r="31" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A31" s="132"/>
+      <c r="B31" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125" t="s">
+      <c r="E31" s="97"/>
+      <c r="F31" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="144">
+      <c r="G31" s="155">
         <v>4</v>
       </c>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="109"/>
-      <c r="V31" s="109"/>
-      <c r="W31" s="109"/>
-      <c r="X31" s="109"/>
-    </row>
-    <row r="32" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A32" s="103"/>
-      <c r="B32" s="142" t="s">
+      <c r="H31" s="158"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+    </row>
+    <row r="32" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A32" s="132"/>
+      <c r="B32" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="123" t="s">
+      <c r="D32" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125" t="s">
+      <c r="E32" s="97"/>
+      <c r="F32" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="126">
+      <c r="G32" s="156">
         <v>5</v>
       </c>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="109"/>
-      <c r="W32" s="109"/>
-      <c r="X32" s="109"/>
-    </row>
-    <row r="33" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
-      <c r="A33" s="103"/>
-      <c r="B33" s="111" t="s">
+      <c r="H32" s="158"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+    </row>
+    <row r="33" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
+      <c r="A33" s="132"/>
+      <c r="B33" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="113" t="s">
+      <c r="D33" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139" t="s">
+      <c r="E33" s="107"/>
+      <c r="F33" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="145"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-    </row>
-    <row r="34" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
-      <c r="A34" s="103"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="120" t="s">
+      <c r="G33" s="156">
+        <v>4</v>
+      </c>
+      <c r="H33" s="108"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="86"/>
+      <c r="X33" s="86"/>
+    </row>
+    <row r="34" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
+      <c r="A34" s="132"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="113" t="s">
+      <c r="D34" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139" t="s">
+      <c r="E34" s="107"/>
+      <c r="F34" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="145"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
-      <c r="U34" s="109"/>
-      <c r="V34" s="109"/>
-      <c r="W34" s="109"/>
-      <c r="X34" s="109"/>
-    </row>
-    <row r="35" spans="1:24" s="110" customFormat="1" ht="33" customHeight="1">
-      <c r="A35" s="103"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="120" t="s">
+      <c r="G34" s="156">
+        <v>5</v>
+      </c>
+      <c r="H34" s="108"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="86"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="86"/>
+    </row>
+    <row r="35" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
+      <c r="A35" s="132"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="113" t="s">
+      <c r="D35" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139" t="s">
+      <c r="E35" s="107"/>
+      <c r="F35" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="145"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
-      <c r="U35" s="109"/>
-      <c r="V35" s="109"/>
-      <c r="W35" s="109"/>
-      <c r="X35" s="109"/>
-    </row>
-    <row r="36" spans="1:24" s="110" customFormat="1" ht="42.75" hidden="1" customHeight="1">
-      <c r="A36" s="103"/>
-      <c r="B36" s="143" t="s">
+      <c r="G35" s="156">
+        <v>6</v>
+      </c>
+      <c r="H35" s="108"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="86"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86"/>
+    </row>
+    <row r="36" spans="1:24" s="87" customFormat="1" ht="42.75" hidden="1" customHeight="1">
+      <c r="A36" s="132"/>
+      <c r="B36" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="138" t="s">
+      <c r="D36" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125" t="s">
+      <c r="E36" s="97"/>
+      <c r="F36" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="141">
+      <c r="G36" s="157">
         <v>6</v>
       </c>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="109"/>
-      <c r="O36" s="109"/>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="109"/>
-      <c r="U36" s="109"/>
-      <c r="V36" s="109"/>
-      <c r="W36" s="109"/>
-      <c r="X36" s="109"/>
-    </row>
-    <row r="37" spans="1:24" s="110" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A37" s="103"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="120" t="s">
+      <c r="H36" s="158"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="86"/>
+      <c r="V36" s="86"/>
+      <c r="W36" s="86"/>
+      <c r="X36" s="86"/>
+    </row>
+    <row r="37" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
+      <c r="A37" s="132"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="138" t="s">
+      <c r="D37" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125" t="s">
+      <c r="E37" s="97"/>
+      <c r="F37" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="141">
+      <c r="G37" s="157">
         <v>8</v>
       </c>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="109"/>
-      <c r="O37" s="109"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="109"/>
-      <c r="T37" s="109"/>
-      <c r="U37" s="109"/>
-      <c r="V37" s="109"/>
-      <c r="W37" s="109"/>
-      <c r="X37" s="109"/>
-    </row>
-    <row r="38" spans="1:24" s="110" customFormat="1" ht="37.5" hidden="1" customHeight="1">
-      <c r="A38" s="103"/>
-      <c r="B38" s="114" t="s">
+      <c r="H37" s="158"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="86"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="86"/>
+      <c r="R37" s="86"/>
+      <c r="S37" s="86"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="86"/>
+      <c r="V37" s="86"/>
+      <c r="W37" s="86"/>
+      <c r="X37" s="86"/>
+    </row>
+    <row r="38" spans="1:24" s="87" customFormat="1" ht="37.5" hidden="1" customHeight="1">
+      <c r="A38" s="132"/>
+      <c r="B38" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C38" s="142" t="s">
+      <c r="C38" s="109" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="138" t="s">
+      <c r="D38" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125" t="s">
+      <c r="E38" s="97"/>
+      <c r="F38" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="141">
+      <c r="G38" s="157">
         <v>5</v>
       </c>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="109"/>
-      <c r="N38" s="109"/>
-      <c r="O38" s="109"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109"/>
-      <c r="U38" s="109"/>
-      <c r="V38" s="109"/>
-      <c r="W38" s="109"/>
-      <c r="X38" s="109"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
+      <c r="W38" s="86"/>
+      <c r="X38" s="86"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
@@ -18208,7 +18307,6 @@
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B2:F3"/>
     <mergeCell ref="A8:A29"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:B12"/>
@@ -18216,6 +18314,7 @@
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B2:G3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -11,14 +11,14 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -468,10 +468,6 @@
     <t>로그인하여 세미나존 예약 및 세미나 참여, 등록</t>
   </si>
   <si>
-    <t>내가 예약한 세미나존, 신청 및 주최한 세미나 정보 확인 이전에 예약했던 목록도 확인, 세미나존 문의, 세미나 문의 확인 가능
-이용 이후 후기 남기기</t>
-  </si>
-  <si>
     <t>세미나존 정보, 세미나존 예약, 세미나 등록</t>
   </si>
   <si>
@@ -525,6 +521,37 @@
   </si>
   <si>
     <t>커뮤니티</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 예약한 세미나존, 신청 및 주최한 세미나 정보 확인 이전에 예약했던 목록도 확인, 세미나존 문의, 세미나 문의 확인 가능
+이용 이후 후기(세미나 호스트가 남기는 세미나존에 대한 후기, 세미나 게스트가 남기는 세미나에 대한 후기, MEET UP 참가자가 남기는 MEET UP에 대한 후기) 남기기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEET UP 후기 남기기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기 제목, 상세 내용 입력하여 후기 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 호스트 후기 남기기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>e-Zone 서비스 이용후 이용한 세미나존에 대한 후기 등록
+이용한 세미나존, 제목, 후기 내용 등록 (마이페이지에서 등록가능)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 게스트 후기 남기기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 참석 후 세미나에 대한 후기 등록
+참석한 세미나, 제목, 후기 내용 등록 (마이페이지에서 등록 가능)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1045,39 +1072,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,9 +1106,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,9 +1128,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,23 +1142,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,12 +1163,81 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF993"/>
+  <dimension ref="A1:AF996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -1468,21 +1513,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="74"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1504,19 +1549,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1643,30 +1688,30 @@
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="1:32" ht="27.75" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -1701,18 +1746,18 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="63" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1747,18 +1792,18 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="66" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="65"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1793,16 +1838,16 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="69"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1836,17 +1881,17 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="42.75" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="66"/>
+    <row r="11" spans="1:32" ht="48">
+      <c r="A11" s="80"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
+      <c r="D11" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1881,16 +1926,16 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1919,18 +1964,18 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1965,16 +2010,16 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2003,16 +2048,16 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2041,16 +2086,16 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2079,35 +2124,25 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69" t="s">
-        <v>82</v>
-      </c>
+      <c r="A17" s="80"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="18"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="L17" s="9"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2126,33 +2161,35 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" ht="33.6" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69" t="s">
-        <v>83</v>
+    <row r="18" spans="1:32" ht="33.200000000000003" customHeight="1">
+      <c r="A18" s="80"/>
+      <c r="B18" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57" t="s">
+        <v>82</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="26"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="18"/>
       <c r="K18" s="20"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2172,33 +2209,33 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="25">
-        <v>1</v>
+    <row r="19" spans="1:32" ht="33.6" customHeight="1">
+      <c r="A19" s="80"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7">
+        <v>2</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2219,32 +2256,32 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75" t="s">
-        <v>83</v>
+      <c r="A20" s="80"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62" t="s">
+        <v>84</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="26"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="31"/>
       <c r="L20" s="16"/>
       <c r="M20" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2265,27 +2302,33 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="25">
+        <v>2</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2305,25 +2348,23 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="25"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="1"/>
@@ -2345,22 +2386,24 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="7"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="95"/>
       <c r="M23" s="7"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -2383,16 +2426,18 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="27"/>
@@ -2421,35 +2466,25 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="A25" s="80"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2468,34 +2503,26 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
     </row>
-    <row r="26" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A26" s="81"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="7">
-        <v>2</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>41</v>
-      </c>
+    <row r="26" spans="1:32" ht="28.9" customHeight="1">
+      <c r="A26" s="80"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2514,29 +2541,25 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
     </row>
-    <row r="27" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A27" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="2"/>
+    <row r="27" spans="1:32" ht="28.9" customHeight="1">
+      <c r="A27" s="80"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2556,32 +2579,36 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
     </row>
-    <row r="28" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A28" s="62"/>
-      <c r="B28" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="25">
-        <v>3</v>
+    <row r="28" spans="1:32" ht="28.9" customHeight="1">
+      <c r="A28" s="80"/>
+      <c r="B28" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="7">
+        <v>1</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2601,31 +2628,33 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A29" s="62"/>
-      <c r="B29" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="25">
-        <v>3</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O29" s="3"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="67"/>
+      <c r="F29" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="7">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2645,29 +2674,29 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
+      <c r="A30" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="62"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="45"/>
       <c r="L30" s="36"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="5"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2687,27 +2716,31 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="25">
+        <v>3</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="5"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -2726,28 +2759,32 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
     </row>
-    <row r="32" spans="1:32" ht="45.75" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="87" t="s">
-        <v>115</v>
+    <row r="32" spans="1:32" ht="33.200000000000003" customHeight="1">
+      <c r="A32" s="80"/>
+      <c r="B32" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="25">
+        <v>3</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O32" s="3"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -2766,26 +2803,30 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
     </row>
-    <row r="33" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+    <row r="33" spans="1:32" ht="33.200000000000003" customHeight="1">
+      <c r="A33" s="80"/>
+      <c r="B33" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2804,30 +2845,28 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
     </row>
-    <row r="34" spans="1:32" ht="52.5" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+    <row r="34" spans="1:32" ht="33.200000000000003" customHeight="1">
+      <c r="A34" s="80"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2846,18 +2885,25 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
     </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="1"/>
+    <row r="35" spans="1:32" ht="45.75" customHeight="1">
+      <c r="A35" s="80"/>
+      <c r="B35" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="62"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="15"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -2879,23 +2925,23 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="1"/>
+    <row r="36" spans="1:32" ht="44.1" customHeight="1">
+      <c r="A36" s="80"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="62"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="15"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -2917,21 +2963,27 @@
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
     </row>
-    <row r="37" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="1" t="s">
+    <row r="37" spans="1:32" ht="52.5" customHeight="1">
+      <c r="A37" s="80"/>
+      <c r="B37" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="1"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="48"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2955,16 +3007,15 @@
     </row>
     <row r="38" spans="1:32" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="2"/>
+      <c r="K38" s="10"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -2989,14 +3040,18 @@
     </row>
     <row r="39" spans="1:32" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="1"/>
@@ -3023,14 +3078,16 @@
     </row>
     <row r="40" spans="1:32" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="1"/>
@@ -3063,8 +3120,10 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K41" s="2"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3089,16 +3148,16 @@
     </row>
     <row r="42" spans="1:32" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3123,18 +3182,16 @@
     </row>
     <row r="43" spans="1:32" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K43" s="2"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3159,12 +3216,6 @@
     </row>
     <row r="44" spans="1:32" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3197,12 +3248,8 @@
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3235,11 +3282,9 @@
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="32" t="s">
-        <v>117</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
@@ -3273,11 +3318,11 @@
     </row>
     <row r="47" spans="1:32" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="2" t="s">
-        <v>103</v>
+      <c r="B47" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
@@ -3312,10 +3357,10 @@
     <row r="48" spans="1:32" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -3349,8 +3394,12 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3383,8 +3432,12 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3417,8 +3470,12 @@
     </row>
     <row r="51" spans="1:32" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -9603,9 +9660,108 @@
       <c r="AE232" s="1"/>
       <c r="AF232" s="1"/>
     </row>
-    <row r="233" spans="1:32" ht="15.75" customHeight="1"/>
-    <row r="234" spans="1:32" ht="15.75" customHeight="1"/>
-    <row r="235" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="233" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A233" s="1"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
+      <c r="AD233" s="1"/>
+      <c r="AE233" s="1"/>
+      <c r="AF233" s="1"/>
+    </row>
+    <row r="234" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A234" s="1"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+      <c r="AE234" s="1"/>
+      <c r="AF234" s="1"/>
+    </row>
+    <row r="235" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A235" s="1"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+      <c r="Y235" s="1"/>
+      <c r="Z235" s="1"/>
+      <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
+      <c r="AC235" s="1"/>
+      <c r="AD235" s="1"/>
+      <c r="AE235" s="1"/>
+      <c r="AF235" s="1"/>
+    </row>
     <row r="236" spans="1:32" ht="15.75" customHeight="1"/>
     <row r="237" spans="1:32" ht="15.75" customHeight="1"/>
     <row r="238" spans="1:32" ht="15.75" customHeight="1"/>
@@ -10364,8 +10520,11 @@
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:O29">
+  <autoFilter ref="A7:O32">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
@@ -10373,16 +10532,16 @@
   <mergeCells count="12">
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A8:A26"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A8:A29"/>
+    <mergeCell ref="B18:B23"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -11,14 +11,14 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -205,14 +205,6 @@
     <t>신고하기</t>
   </si>
   <si>
-    <t>공지사항 및 FAQ</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 및 FAQ 확인</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>YS – P – 014
 YS – P – 015</t>
   </si>
@@ -271,14 +263,6 @@
   </si>
   <si>
     <t>커뮤니티 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 및 FAQ 등록, 수정, 삭제</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용자가 등록한 Q&amp;A에 대한 답변 등록</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -552,6 +536,49 @@
   <si>
     <t>세미나 참석 후 세미나에 대한 후기 등록
 참석한 세미나, 제목, 후기 내용 등록 (마이페이지에서 등록 가능)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공지사항 및 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용자가 등록한 Q&amp;A에 대한 답변 등록, 수정, 삭제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ 등록, 수정, 삭제</t>
+  </si>
+  <si>
+    <t>공지사항 등록, 수정, 삭제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -956,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1167,6 +1194,24 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1230,14 +1275,14 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1454,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF996"/>
+  <dimension ref="A1:AF998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -1513,21 +1558,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="74"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1549,19 +1594,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="83"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1706,12 +1751,12 @@
       <c r="F7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -1746,15 +1791,15 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="53"/>
@@ -1792,15 +1837,15 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="83" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="89" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E9" s="52"/>
       <c r="F9" s="53"/>
@@ -1838,13 +1883,13 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="57"/>
@@ -1882,13 +1927,13 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="48">
-      <c r="A11" s="80"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="57"/>
@@ -1926,13 +1971,13 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" customHeight="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="57"/>
@@ -1964,15 +2009,15 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="90" t="s">
-        <v>107</v>
+      <c r="A13" s="86"/>
+      <c r="B13" s="96" t="s">
+        <v>103</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
@@ -2010,13 +2055,13 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="91"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="57"/>
@@ -2048,13 +2093,13 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="91"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="34" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
@@ -2086,13 +2131,13 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="80"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="57"/>
@@ -2124,13 +2169,13 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="57"/>
@@ -2162,19 +2207,19 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="82" t="s">
-        <v>95</v>
+      <c r="A18" s="86"/>
+      <c r="B18" s="88" t="s">
+        <v>91</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="57" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2210,17 +2255,17 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="33.6" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="59" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="57" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2256,17 +2301,17 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="62" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -2302,17 +2347,17 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="59" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" s="61"/>
       <c r="F21" s="62" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -2348,13 +2393,13 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="59" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E22" s="62"/>
       <c r="F22" s="62"/>
@@ -2386,24 +2431,24 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="59" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76" t="s">
+        <v>81</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="27"/>
       <c r="J23" s="17"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="95"/>
+      <c r="L23" s="77"/>
       <c r="M23" s="7"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -2426,15 +2471,15 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="87" t="s">
-        <v>88</v>
+      <c r="A24" s="86"/>
+      <c r="B24" s="93" t="s">
+        <v>84</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="57"/>
@@ -2466,13 +2511,13 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="63" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="57"/>
@@ -2504,13 +2549,13 @@
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="63" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="57"/>
@@ -2542,13 +2587,13 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="57"/>
@@ -2580,19 +2625,19 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="79" t="s">
-        <v>122</v>
+      <c r="A28" s="86"/>
+      <c r="B28" s="85" t="s">
+        <v>118</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2604,10 +2649,10 @@
         <v>1</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2627,34 +2672,28 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
     </row>
-    <row r="29" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A29" s="81"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="66" t="s">
-        <v>39</v>
+    <row r="29" spans="1:32" ht="28.9" customHeight="1">
+      <c r="A29" s="87"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="99" t="s">
+        <v>128</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="39" t="s">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="41"/>
       <c r="K29" s="42"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="7">
-        <v>2</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="L29" s="100"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="6"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2674,29 +2713,33 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="5"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="67"/>
+      <c r="F30" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="7">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2716,30 +2759,28 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A31" s="80"/>
+      <c r="A31" s="86" t="s">
+        <v>40</v>
+      </c>
       <c r="B31" s="34" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>43</v>
       </c>
       <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="25">
-        <v>3</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="L31" s="36"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="5"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2760,15 +2801,15 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A32" s="80"/>
-      <c r="B32" s="35" t="s">
-        <v>49</v>
+      <c r="A32" s="86"/>
+      <c r="B32" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>45</v>
       </c>
       <c r="E32" s="62"/>
       <c r="F32" s="62"/>
@@ -2777,14 +2818,14 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="45"/>
-      <c r="L32" s="36"/>
+      <c r="L32" s="46"/>
       <c r="M32" s="25">
         <v>3</v>
       </c>
-      <c r="N32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O32" s="3"/>
+      <c r="N32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="5"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -2804,29 +2845,31 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="45"/>
       <c r="L33" s="36"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="M33" s="25">
+        <v>3</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O33" s="3"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2846,17 +2889,19 @@
       <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A34" s="80"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="85" t="s">
+        <v>50</v>
+      </c>
       <c r="C34" s="37" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
@@ -2885,28 +2930,28 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
     </row>
-    <row r="35" spans="1:32" ht="45.75" customHeight="1">
-      <c r="A35" s="80"/>
-      <c r="B35" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+    <row r="35" spans="1:32" ht="33.200000000000003" customHeight="1">
+      <c r="A35" s="86"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -2925,26 +2970,28 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A36" s="80"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+    <row r="36" spans="1:32" ht="33.200000000000003" customHeight="1">
+      <c r="A36" s="86"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -2963,27 +3010,25 @@
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
     </row>
-    <row r="37" spans="1:32" ht="52.5" customHeight="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="71" t="s">
-        <v>102</v>
+    <row r="37" spans="1:32" ht="45.75" customHeight="1">
+      <c r="A37" s="86"/>
+      <c r="B37" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>52</v>
       </c>
       <c r="E37" s="62"/>
-      <c r="F37" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
       <c r="J37" s="47"/>
       <c r="K37" s="47"/>
-      <c r="L37" s="48"/>
+      <c r="L37" s="15"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -3005,18 +3050,23 @@
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
     </row>
-    <row r="38" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="1"/>
+    <row r="38" spans="1:32" ht="44.1" customHeight="1">
+      <c r="A38" s="86"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="62"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="15"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3038,23 +3088,27 @@
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
     </row>
-    <row r="39" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="1"/>
+    <row r="39" spans="1:32" ht="52.5" customHeight="1">
+      <c r="A39" s="86"/>
+      <c r="B39" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="48"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3078,18 +3132,15 @@
     </row>
     <row r="40" spans="1:32" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K40" s="2"/>
+      <c r="K40" s="10"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3114,14 +3165,18 @@
     </row>
     <row r="41" spans="1:32" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="1"/>
@@ -3148,14 +3203,16 @@
     </row>
     <row r="42" spans="1:32" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="1"/>
@@ -3189,7 +3246,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="1"/>
@@ -3222,8 +3279,10 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3248,16 +3307,16 @@
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="2"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3282,10 +3341,6 @@
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3318,12 +3373,8 @@
     </row>
     <row r="47" spans="1:32" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3356,11 +3407,9 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -3394,11 +3443,11 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="32" t="s">
-        <v>116</v>
+      <c r="B49" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
@@ -3433,10 +3482,10 @@
     <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
@@ -3470,11 +3519,11 @@
     </row>
     <row r="51" spans="1:32" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
-        <v>104</v>
+      <c r="B51" s="32" t="s">
+        <v>112</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
@@ -3508,8 +3557,12 @@
     </row>
     <row r="52" spans="1:32" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -3542,8 +3595,12 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -9762,8 +9819,74 @@
       <c r="AE235" s="1"/>
       <c r="AF235" s="1"/>
     </row>
-    <row r="236" spans="1:32" ht="15.75" customHeight="1"/>
-    <row r="237" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="236" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A236" s="1"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="X236" s="1"/>
+      <c r="Y236" s="1"/>
+      <c r="Z236" s="1"/>
+      <c r="AA236" s="1"/>
+      <c r="AB236" s="1"/>
+      <c r="AC236" s="1"/>
+      <c r="AD236" s="1"/>
+      <c r="AE236" s="1"/>
+      <c r="AF236" s="1"/>
+    </row>
+    <row r="237" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A237" s="1"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+      <c r="Y237" s="1"/>
+      <c r="Z237" s="1"/>
+      <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
+      <c r="AC237" s="1"/>
+      <c r="AD237" s="1"/>
+      <c r="AE237" s="1"/>
+      <c r="AF237" s="1"/>
+    </row>
     <row r="238" spans="1:32" ht="15.75" customHeight="1"/>
     <row r="239" spans="1:32" ht="15.75" customHeight="1"/>
     <row r="240" spans="1:32" ht="15.75" customHeight="1"/>
@@ -10523,8 +10646,10 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:O32">
+  <autoFilter ref="A7:O33">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
@@ -10532,13 +10657,13 @@
   <mergeCells count="12">
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A8:A29"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A8:A30"/>
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B13:B17"/>
@@ -10569,42 +10694,42 @@
   <sheetData>
     <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="12.75">
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="12.75">
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="12.75">
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="12.75">
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="131">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -351,10 +356,6 @@
     <t>세미나(행사) 문의에 답변하기</t>
   </si>
   <si>
-    <t>세미나(행사)주최 회원은 마이페이지에서 답변 등록 가능</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>통일할 이름</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -417,9 +418,6 @@
   <si>
     <t>참가하고 싶은 모임 참가 신청</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름, 아이디, 비밀번호, 주소, 이메일, 닉네임, 관심 세미나 카테고리 정보를 받아서 회원가입</t>
   </si>
   <si>
     <t>등록된 관심 카테고리의 세미나가 개설되면 알림, 알림 클릭 시 해당 세미나 페이지로 이동</t>
@@ -552,6 +550,18 @@
   <si>
     <t>세미나 참석 후 세미나에 대한 후기 등록
 참석한 세미나, 제목, 후기 내용 등록 (마이페이지에서 등록 가능)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나(행사)주최 회원은 마이페이지에서 답변 등록 가능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 아이디, 비밀번호, 주소, 이메일, 닉네임, 관심 세미나 카테고리 정보를 받아서 회원가입</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +678,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,6 +712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1167,6 +1183,24 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1229,15 +1263,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1456,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -1513,21 +1538,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="74"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1549,19 +1574,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="83"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1706,12 +1731,12 @@
       <c r="F7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -1746,15 +1771,15 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="53"/>
@@ -1792,15 +1817,15 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="83" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="89" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="52"/>
       <c r="F9" s="53"/>
@@ -1838,13 +1863,13 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="57"/>
@@ -1882,13 +1907,13 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="48">
-      <c r="A11" s="80"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="57"/>
@@ -1926,13 +1951,13 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" customHeight="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="57"/>
@@ -1964,15 +1989,15 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="90" t="s">
+      <c r="A13" s="86"/>
+      <c r="B13" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>107</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>109</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
@@ -2010,13 +2035,13 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="91"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="57"/>
@@ -2048,13 +2073,13 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="91"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
@@ -2086,13 +2111,13 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="80"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="57"/>
@@ -2124,13 +2149,13 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A17" s="80"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="57"/>
@@ -2162,19 +2187,19 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="82" t="s">
+      <c r="A18" s="86"/>
+      <c r="B18" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="58" t="s">
         <v>95</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>97</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2210,17 +2235,17 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="33.6" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -2256,8 +2281,8 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="59" t="s">
         <v>71</v>
       </c>
@@ -2266,7 +2291,7 @@
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -2302,17 +2327,17 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="59" t="s">
+      <c r="A21" s="86"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="61"/>
+      <c r="D21" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="77"/>
       <c r="F21" s="62" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -2348,13 +2373,13 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E22" s="62"/>
       <c r="F22" s="62"/>
@@ -2386,24 +2411,24 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="59" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73" t="s">
+        <v>84</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="27"/>
       <c r="J23" s="17"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="95"/>
+      <c r="L23" s="74"/>
       <c r="M23" s="7"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -2426,15 +2451,15 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="87" t="s">
+      <c r="A24" s="86"/>
+      <c r="B24" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>89</v>
-      </c>
       <c r="D24" s="64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="57"/>
@@ -2466,13 +2491,13 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="88"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="64" t="s">
         <v>119</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>121</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="57"/>
@@ -2504,13 +2529,13 @@
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="57"/>
@@ -2542,13 +2567,13 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="57"/>
@@ -2580,9 +2605,9 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="79" t="s">
-        <v>122</v>
+      <c r="A28" s="86"/>
+      <c r="B28" s="85" t="s">
+        <v>120</v>
       </c>
       <c r="C28" s="37" t="s">
         <v>34</v>
@@ -2592,7 +2617,7 @@
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2628,8 +2653,8 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A29" s="81"/>
-      <c r="B29" s="85"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="65" t="s">
         <v>38</v>
       </c>
@@ -2674,7 +2699,7 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="86" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="34" t="s">
@@ -2716,7 +2741,7 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A31" s="80"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="34" t="s">
         <v>46</v>
       </c>
@@ -2760,7 +2785,7 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A32" s="80"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="35" t="s">
         <v>49</v>
       </c>
@@ -2804,8 +2829,8 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="79" t="s">
+      <c r="A33" s="86"/>
+      <c r="B33" s="85" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="37" t="s">
@@ -2816,7 +2841,7 @@
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
@@ -2846,8 +2871,8 @@
       <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A34" s="80"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="37" t="s">
         <v>38</v>
       </c>
@@ -2856,7 +2881,7 @@
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
@@ -2886,9 +2911,9 @@
       <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="1:32" ht="45.75" customHeight="1">
-      <c r="A35" s="80"/>
-      <c r="B35" s="84" t="s">
-        <v>114</v>
+      <c r="A35" s="86"/>
+      <c r="B35" s="90" t="s">
+        <v>112</v>
       </c>
       <c r="C35" s="34" t="s">
         <v>55</v>
@@ -2926,8 +2951,8 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A36" s="80"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="34" t="s">
         <v>68</v>
       </c>
@@ -2964,15 +2989,15 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" ht="52.5" customHeight="1">
-      <c r="A37" s="80"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="71" t="s">
         <v>100</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="71" t="s">
-        <v>102</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="62" t="s">
@@ -3284,7 +3309,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
@@ -3319,10 +3344,10 @@
     <row r="47" spans="1:32" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
@@ -3357,10 +3382,10 @@
     <row r="48" spans="1:32" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -3395,10 +3420,10 @@
     <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
@@ -3433,10 +3458,10 @@
     <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
@@ -3471,10 +3496,10 @@
     <row r="51" spans="1:32" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="139">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -379,10 +384,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>서희</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>현태</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -579,6 +580,18 @@
   </si>
   <si>
     <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>차후 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서희+형준</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +708,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +742,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1212,6 +1231,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,14 +1303,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -1558,21 +1583,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1594,19 +1619,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1751,12 +1776,12 @@
       <c r="F7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -1791,15 +1816,15 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="53"/>
@@ -1837,15 +1862,15 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="89" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="92" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="52"/>
       <c r="F9" s="53"/>
@@ -1883,13 +1908,13 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="57"/>
@@ -1927,13 +1952,13 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="48">
-      <c r="A11" s="86"/>
-      <c r="B11" s="89"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="57"/>
@@ -1971,13 +1996,13 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" customHeight="1">
-      <c r="A12" s="86"/>
-      <c r="B12" s="89"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="57"/>
@@ -2009,15 +2034,15 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A13" s="86"/>
-      <c r="B13" s="96" t="s">
+      <c r="A13" s="89"/>
+      <c r="B13" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="51" t="s">
         <v>104</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>105</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
@@ -2055,13 +2080,13 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>106</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>107</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="57"/>
@@ -2093,13 +2118,13 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="97"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="51" t="s">
         <v>108</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>109</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
@@ -2131,13 +2156,13 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="86"/>
-      <c r="B16" s="97"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="51" t="s">
         <v>89</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>90</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="57"/>
@@ -2169,13 +2194,13 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A17" s="86"/>
-      <c r="B17" s="98"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="51" t="s">
         <v>122</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>123</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="57"/>
@@ -2207,15 +2232,15 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A18" s="86"/>
-      <c r="B18" s="88" t="s">
+      <c r="A18" s="89"/>
+      <c r="B18" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="D18" s="58" t="s">
         <v>92</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>93</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="57" t="s">
@@ -2255,13 +2280,13 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="33.6" customHeight="1">
-      <c r="A19" s="86"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="57" t="s">
@@ -2301,8 +2326,8 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="86"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="59" t="s">
         <v>67</v>
       </c>
@@ -2347,8 +2372,8 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A21" s="86"/>
-      <c r="B21" s="88"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="59" t="s">
         <v>69</v>
       </c>
@@ -2357,7 +2382,7 @@
       </c>
       <c r="E21" s="61"/>
       <c r="F21" s="62" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -2393,16 +2418,18 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A22" s="86"/>
-      <c r="B22" s="88"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="60" t="s">
-        <v>125</v>
-      </c>
       <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="F22" s="62" t="s">
+        <v>138</v>
+      </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="26"/>
@@ -2431,18 +2458,18 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="59" t="s">
+      <c r="A23" s="89"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76" t="s">
-        <v>81</v>
-      </c>
+      <c r="D23" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="76"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="27"/>
@@ -2471,15 +2498,15 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A24" s="86"/>
-      <c r="B24" s="93" t="s">
+      <c r="A24" s="89"/>
+      <c r="B24" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>85</v>
-      </c>
       <c r="D24" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="57"/>
@@ -2511,13 +2538,13 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A25" s="86"/>
-      <c r="B25" s="94"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="57"/>
@@ -2549,13 +2576,13 @@
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A26" s="86"/>
-      <c r="B26" s="94"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="57"/>
@@ -2587,13 +2614,13 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A27" s="86"/>
-      <c r="B27" s="95"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="64" t="s">
         <v>120</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>121</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="57"/>
@@ -2625,19 +2652,19 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A28" s="86"/>
-      <c r="B28" s="85" t="s">
-        <v>118</v>
+      <c r="A28" s="89"/>
+      <c r="B28" s="88" t="s">
+        <v>117</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2673,26 +2700,26 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A29" s="87"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="78" t="s">
         <v>127</v>
-      </c>
-      <c r="D29" s="99" t="s">
-        <v>128</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="41"/>
       <c r="K29" s="42"/>
-      <c r="L29" s="100"/>
+      <c r="L29" s="79"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="101"/>
+      <c r="N29" s="80"/>
       <c r="O29" s="6"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2713,8 +2740,8 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="87"/>
-      <c r="B30" s="91"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="65" t="s">
         <v>36</v>
       </c>
@@ -2759,7 +2786,7 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="89" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="34" t="s">
@@ -2801,7 +2828,7 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A32" s="86"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="34" t="s">
         <v>44</v>
       </c>
@@ -2845,7 +2872,7 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A33" s="86"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="35" t="s">
         <v>47</v>
       </c>
@@ -2889,19 +2916,19 @@
       <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A34" s="86"/>
-      <c r="B34" s="85" t="s">
+      <c r="A34" s="89"/>
+      <c r="B34" s="88" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E34" s="44"/>
       <c r="F34" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
@@ -2931,17 +2958,17 @@
       <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A35" s="86"/>
-      <c r="B35" s="85"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" s="73"/>
       <c r="F35" s="73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
@@ -2971,17 +2998,17 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A36" s="86"/>
-      <c r="B36" s="85"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="69" t="s">
         <v>132</v>
-      </c>
-      <c r="D36" s="69" t="s">
-        <v>133</v>
       </c>
       <c r="E36" s="44"/>
       <c r="F36" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G36" s="36"/>
       <c r="H36" s="36"/>
@@ -3011,9 +3038,9 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" ht="45.75" customHeight="1">
-      <c r="A37" s="86"/>
-      <c r="B37" s="90" t="s">
-        <v>110</v>
+      <c r="A37" s="89"/>
+      <c r="B37" s="93" t="s">
+        <v>109</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>51</v>
@@ -3051,8 +3078,8 @@
       <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A38" s="86"/>
-      <c r="B38" s="90"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="93"/>
       <c r="C38" s="34" t="s">
         <v>64</v>
       </c>
@@ -3089,15 +3116,15 @@
       <c r="AF38" s="1"/>
     </row>
     <row r="39" spans="1:32" ht="52.5" customHeight="1">
-      <c r="A39" s="86"/>
+      <c r="A39" s="89"/>
       <c r="B39" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="D39" s="71" t="s">
         <v>97</v>
-      </c>
-      <c r="D39" s="71" t="s">
-        <v>98</v>
       </c>
       <c r="E39" s="62"/>
       <c r="F39" s="62" t="s">
@@ -3482,7 +3509,7 @@
     <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>74</v>
@@ -3520,7 +3547,7 @@
     <row r="51" spans="1:32" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>75</v>
@@ -3558,7 +3585,7 @@
     <row r="52" spans="1:32" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>76</v>
@@ -3596,7 +3623,7 @@
     <row r="53" spans="1:32" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>77</v>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\e-Zone\2 기능 정의 취합, 요구사항 정의서, USE FLOW\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
@@ -16,14 +11,14 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="140">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -410,12 +405,6 @@
     <t>등록된 관심 카테고리의 세미나가 개설되면 알림, 알림 클릭 시 해당 세미나 페이지로 이동</t>
   </si>
   <si>
-    <t>세미나 주최</t>
-  </si>
-  <si>
-    <t>세미나 이름, 내용 등 정보 입력하여 세미나 등록</t>
-  </si>
-  <si>
     <t>세미나확인 및 세미나 예약</t>
   </si>
   <si>
@@ -467,12 +456,6 @@
   </si>
   <si>
     <t>세미나존에 대한 문의 가능, 문의에 대한 답변은 관리자가 작성하며 마이페이지에서 확인 가능</t>
-  </si>
-  <si>
-    <t>세미나존 예약</t>
-  </si>
-  <si>
-    <t>세미나존 정보 확인 페이지에서 해당 세미나존 링크를 클릭하여 세미나존 예약 가능, 날짜 선택, 시간대 선택하여 예약 및 결제, 결제 상태 확인</t>
   </si>
   <si>
     <t>세미나존 예약 및 주최 세미나 관련</t>
@@ -592,6 +575,27 @@
   </si>
   <si>
     <t>서희+형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 정보 확인 페이지에서 해당 세미나존 링크를 클릭하여 세미나존 예약 가능, 날짜 선택, 시간대 선택하여 예약 및 결제, 결제 상태 확인
+세미나 이름, 내용 등 정보 입력하여 세미나 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 예약 및 세미나 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>형준</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF998"/>
+  <dimension ref="A1:AF997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -1824,10 +1828,12 @@
       </c>
       <c r="C8" s="95"/>
       <c r="D8" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>137</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1870,10 +1876,12 @@
         <v>19</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
+      <c r="F9" s="53" t="s">
+        <v>137</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1917,7 +1925,9 @@
         <v>86</v>
       </c>
       <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="F10" s="57" t="s">
+        <v>138</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1958,10 +1968,12 @@
         <v>23</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
+      <c r="F11" s="57" t="s">
+        <v>138</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1998,10 +2010,10 @@
     <row r="12" spans="1:32" ht="33.75" customHeight="1">
       <c r="A12" s="89"/>
       <c r="B12" s="92"/>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="103" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="56"/>
@@ -2036,16 +2048,18 @@
     <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A13" s="89"/>
       <c r="B13" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>104</v>
-      </c>
       <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="F13" s="57" t="s">
+        <v>137</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2083,13 +2097,15 @@
       <c r="A14" s="89"/>
       <c r="B14" s="100"/>
       <c r="C14" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
+      <c r="F14" s="57" t="s">
+        <v>138</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2117,17 +2133,19 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="1:32" ht="33.200000000000003" customHeight="1">
+    <row r="15" spans="1:32" ht="36">
       <c r="A15" s="89"/>
       <c r="B15" s="100"/>
       <c r="C15" s="34" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
+      <c r="F15" s="57" t="s">
+        <v>138</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2157,15 +2175,17 @@
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A16" s="89"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="34" t="s">
-        <v>88</v>
+      <c r="B16" s="101"/>
+      <c r="C16" s="54" t="s">
+        <v>117</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
+      <c r="F16" s="57" t="s">
+        <v>138</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2195,24 +2215,34 @@
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A17" s="89"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>122</v>
+      <c r="B17" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>90</v>
       </c>
       <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
+      <c r="F17" s="57" t="s">
+        <v>78</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="18"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2231,35 +2261,33 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" ht="33.200000000000003" customHeight="1">
+    <row r="18" spans="1:32" ht="33.6" customHeight="1">
       <c r="A18" s="89"/>
-      <c r="B18" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="91"/>
+      <c r="C18" s="59" t="s">
         <v>91</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="18"/>
       <c r="K18" s="20"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2279,33 +2307,33 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="1:32" ht="33.6" customHeight="1">
+    <row r="19" spans="1:32" ht="28.9" customHeight="1">
       <c r="A19" s="89"/>
       <c r="B19" s="91"/>
       <c r="C19" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="25">
+        <v>1</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2329,29 +2357,29 @@
       <c r="A20" s="89"/>
       <c r="B20" s="91"/>
       <c r="C20" s="59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="62" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="22"/>
       <c r="K20" s="31"/>
       <c r="L20" s="16"/>
       <c r="M20" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2375,30 +2403,24 @@
       <c r="A21" s="89"/>
       <c r="B21" s="91"/>
       <c r="C21" s="59" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="61"/>
+        <v>120</v>
+      </c>
+      <c r="E21" s="62"/>
       <c r="F21" s="62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="26"/>
       <c r="J21" s="22"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="25">
-        <v>2</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="L21" s="36"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2420,23 +2442,23 @@
     <row r="22" spans="1:32" ht="28.9" customHeight="1">
       <c r="A22" s="89"/>
       <c r="B22" s="91"/>
-      <c r="C22" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="25"/>
+      <c r="C22" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="76"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="7"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="1"/>
@@ -2459,23 +2481,23 @@
     </row>
     <row r="23" spans="1:32" ht="28.9" customHeight="1">
       <c r="A23" s="89"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="76"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="B23" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="77"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -2499,14 +2521,12 @@
     </row>
     <row r="24" spans="1:32" ht="28.9" customHeight="1">
       <c r="A24" s="89"/>
-      <c r="B24" s="96" t="s">
-        <v>83</v>
-      </c>
+      <c r="B24" s="97"/>
       <c r="C24" s="63" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="57"/>
@@ -2541,10 +2561,10 @@
       <c r="A25" s="89"/>
       <c r="B25" s="97"/>
       <c r="C25" s="63" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="57"/>
@@ -2577,12 +2597,12 @@
     </row>
     <row r="26" spans="1:32" ht="28.9" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="97"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="63" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="57"/>
@@ -2615,24 +2635,34 @@
     </row>
     <row r="27" spans="1:32" ht="28.9" customHeight="1">
       <c r="A27" s="89"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>120</v>
+      <c r="B27" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>124</v>
       </c>
       <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
+      <c r="F27" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="27"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="7">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2652,35 +2682,27 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A28" s="89"/>
-      <c r="B28" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="7">
-        <v>1</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A28" s="90"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="67"/>
+      <c r="F28" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="6"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2699,28 +2721,34 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
     </row>
-    <row r="29" spans="1:32" ht="28.9" customHeight="1">
+    <row r="29" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A29" s="90"/>
       <c r="B29" s="94"/>
-      <c r="C29" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="78" t="s">
-        <v>127</v>
+      <c r="C29" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>37</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="39" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="41"/>
       <c r="K29" s="42"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="6"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="7">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2740,33 +2768,31 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="7">
-        <v>2</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A30" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="62"/>
+      <c r="F30" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="5"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2786,28 +2812,30 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A31" s="89" t="s">
-        <v>40</v>
-      </c>
+      <c r="A31" s="89"/>
       <c r="B31" s="34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>45</v>
       </c>
       <c r="E31" s="62"/>
-      <c r="F31" s="44"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="45"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="2"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="25">
+        <v>3</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="O31" s="5"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2829,14 +2857,14 @@
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A32" s="89"/>
-      <c r="B32" s="34" t="s">
-        <v>44</v>
+      <c r="B32" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>48</v>
       </c>
       <c r="E32" s="62"/>
       <c r="F32" s="62"/>
@@ -2845,14 +2873,14 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="25">
         <v>3</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O32" s="5"/>
+      <c r="N32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="3"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -2873,30 +2901,28 @@
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A33" s="89"/>
-      <c r="B33" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="45"/>
+      <c r="B33" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="36"/>
-      <c r="M33" s="25">
-        <v>3</v>
-      </c>
-      <c r="N33" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O33" s="3"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2917,18 +2943,16 @@
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A34" s="89"/>
-      <c r="B34" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="37" t="s">
+      <c r="B34" s="88"/>
+      <c r="C34" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44" t="s">
-        <v>82</v>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73" t="s">
+        <v>131</v>
       </c>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
@@ -2960,15 +2984,15 @@
     <row r="35" spans="1:32" ht="33.200000000000003" customHeight="1">
       <c r="A35" s="89"/>
       <c r="B35" s="88"/>
-      <c r="C35" s="72" t="s">
-        <v>130</v>
+      <c r="C35" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44" t="s">
+        <v>82</v>
       </c>
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
@@ -2997,28 +3021,28 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="1:32" ht="33.200000000000003" customHeight="1">
+    <row r="36" spans="1:32" ht="45.75" customHeight="1">
       <c r="A36" s="89"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+      <c r="B36" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="62"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -3037,19 +3061,19 @@
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
     </row>
-    <row r="37" spans="1:32" ht="45.75" customHeight="1">
+    <row r="37" spans="1:32" ht="44.1" customHeight="1">
       <c r="A37" s="89"/>
-      <c r="B37" s="93" t="s">
-        <v>109</v>
-      </c>
+      <c r="B37" s="93"/>
       <c r="C37" s="34" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E37" s="62"/>
-      <c r="F37" s="70"/>
+      <c r="F37" s="62" t="s">
+        <v>139</v>
+      </c>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
       <c r="I37" s="48"/>
@@ -3077,23 +3101,27 @@
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
     </row>
-    <row r="38" spans="1:32" ht="44.1" customHeight="1">
+    <row r="38" spans="1:32" ht="52.5" customHeight="1">
       <c r="A38" s="89"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>65</v>
+      <c r="B38" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>95</v>
       </c>
       <c r="E38" s="62"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
+      <c r="F38" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="47"/>
       <c r="K38" s="47"/>
-      <c r="L38" s="15"/>
+      <c r="L38" s="48"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3115,27 +3143,18 @@
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
     </row>
-    <row r="39" spans="1:32" ht="52.5" customHeight="1">
-      <c r="A39" s="89"/>
-      <c r="B39" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="48"/>
+    <row r="39" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3161,13 +3180,18 @@
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="K40" s="10"/>
+      <c r="J40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3192,10 +3216,8 @@
     </row>
     <row r="41" spans="1:32" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3203,7 +3225,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="1"/>
@@ -3230,16 +3252,14 @@
     </row>
     <row r="42" spans="1:32" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="D42" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="1"/>
@@ -3273,7 +3293,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="1"/>
@@ -3307,7 +3327,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="1"/>
@@ -3340,10 +3360,8 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3368,6 +3386,8 @@
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3401,7 +3421,9 @@
     <row r="47" spans="1:32" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3434,9 +3456,11 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="33" t="s">
+        <v>73</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -3470,11 +3494,11 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="33" t="s">
-        <v>73</v>
+      <c r="B49" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
@@ -3508,11 +3532,11 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
-        <v>110</v>
+      <c r="B50" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
@@ -3546,11 +3570,11 @@
     </row>
     <row r="51" spans="1:32" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="32" t="s">
-        <v>111</v>
+      <c r="B51" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
@@ -3585,10 +3609,10 @@
     <row r="52" spans="1:32" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
@@ -3622,12 +3646,8 @@
     </row>
     <row r="53" spans="1:32" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -9880,40 +9900,7 @@
       <c r="AE236" s="1"/>
       <c r="AF236" s="1"/>
     </row>
-    <row r="237" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A237" s="1"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
-      <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
-      <c r="P237" s="1"/>
-      <c r="Q237" s="1"/>
-      <c r="R237" s="1"/>
-      <c r="S237" s="1"/>
-      <c r="T237" s="1"/>
-      <c r="U237" s="1"/>
-      <c r="V237" s="1"/>
-      <c r="W237" s="1"/>
-      <c r="X237" s="1"/>
-      <c r="Y237" s="1"/>
-      <c r="Z237" s="1"/>
-      <c r="AA237" s="1"/>
-      <c r="AB237" s="1"/>
-      <c r="AC237" s="1"/>
-      <c r="AD237" s="1"/>
-      <c r="AE237" s="1"/>
-      <c r="AF237" s="1"/>
-    </row>
+    <row r="237" spans="1:32" ht="15.75" customHeight="1"/>
     <row r="238" spans="1:32" ht="15.75" customHeight="1"/>
     <row r="239" spans="1:32" ht="15.75" customHeight="1"/>
     <row r="240" spans="1:32" ht="15.75" customHeight="1"/>
@@ -10674,9 +10661,8 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:O33">
+  <autoFilter ref="A7:O32">
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
@@ -10684,16 +10670,16 @@
   <mergeCells count="12">
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A8:A30"/>
-    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A8:A29"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="143">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -266,10 +266,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>대관 시설 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>대관 시설 설명 업데이트</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -313,10 +309,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>대관 시설 예약 및 결제 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>시설 예약자 확인 및 수정, 결제 상태 확인</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -424,9 +416,6 @@
   </si>
   <si>
     <t>세미나 참가 예약 관리 및 결제 관리</t>
-  </si>
-  <si>
-    <t>특정 세미나 예약자 및 좌석확인, 결제 상태 확인</t>
   </si>
   <si>
     <t>세미나 주최자</t>
@@ -570,10 +559,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>차후 구현</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>서희+형준</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -596,6 +581,34 @@
   </si>
   <si>
     <t>형준</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기범</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>차후 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>차후 구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 세미나 예약자, 결제 상태 확인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 예약 및 결제 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 관리</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1213,7 +1226,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1243,6 +1255,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,12 +1324,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1530,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -1587,21 +1599,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1623,19 +1635,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="86"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1780,12 +1792,12 @@
       <c r="F7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -1820,19 +1832,19 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="53" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1868,19 +1880,19 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="92" t="s">
+      <c r="A9" s="90"/>
+      <c r="B9" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E9" s="52"/>
       <c r="F9" s="53" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1916,17 +1928,17 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1962,17 +1974,17 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="48">
-      <c r="A11" s="89"/>
-      <c r="B11" s="92"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2008,15 +2020,17 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="102" t="s">
+      <c r="A12" s="90"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="56"/>
+      <c r="D12" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>139</v>
+      </c>
       <c r="F12" s="57"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2046,19 +2060,19 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="99" t="s">
-        <v>100</v>
+      <c r="A13" s="90"/>
+      <c r="B13" s="100" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2094,17 +2108,17 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="89"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="35" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2134,17 +2148,17 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="36">
-      <c r="A15" s="89"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2174,17 +2188,17 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="89"/>
-      <c r="B16" s="101"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2214,19 +2228,19 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91" t="s">
+      <c r="A17" s="90"/>
+      <c r="B17" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="58" t="s">
         <v>88</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>90</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2262,17 +2276,17 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="33.6" customHeight="1">
-      <c r="A18" s="89"/>
-      <c r="B18" s="91"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2308,17 +2322,17 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A19" s="89"/>
-      <c r="B19" s="91"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="61"/>
       <c r="F19" s="62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -2354,17 +2368,17 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="89"/>
-      <c r="B20" s="91"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -2400,17 +2414,17 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="91"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="59" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" s="62"/>
       <c r="F21" s="62" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -2440,24 +2454,24 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A22" s="89"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="102" t="s">
+      <c r="A22" s="90"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="76"/>
+      <c r="D22" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="75"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27"/>
       <c r="J22" s="17"/>
       <c r="K22" s="19"/>
-      <c r="L22" s="77"/>
+      <c r="L22" s="76"/>
       <c r="M22" s="7"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -2480,15 +2494,15 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A23" s="89"/>
-      <c r="B23" s="96" t="s">
-        <v>83</v>
+      <c r="A23" s="90"/>
+      <c r="B23" s="97" t="s">
+        <v>81</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="57"/>
@@ -2520,13 +2534,13 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A24" s="89"/>
-      <c r="B24" s="97"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="57"/>
@@ -2558,13 +2572,13 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="97"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="57"/>
@@ -2596,13 +2610,13 @@
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A26" s="89"/>
-      <c r="B26" s="98"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="57"/>
@@ -2634,19 +2648,19 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A27" s="89"/>
-      <c r="B27" s="88" t="s">
-        <v>113</v>
+      <c r="A27" s="90"/>
+      <c r="B27" s="89" t="s">
+        <v>110</v>
       </c>
       <c r="C27" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="58" t="s">
         <v>121</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>124</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2682,26 +2696,26 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A28" s="90"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="78" t="s">
-        <v>123</v>
+      <c r="A28" s="91"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="77" t="s">
+        <v>120</v>
       </c>
       <c r="E28" s="67"/>
       <c r="F28" s="39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="41"/>
       <c r="K28" s="42"/>
-      <c r="L28" s="79"/>
+      <c r="L28" s="78"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="80"/>
+      <c r="N28" s="79"/>
       <c r="O28" s="6"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2722,8 +2736,8 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A29" s="90"/>
-      <c r="B29" s="94"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="65" t="s">
         <v>36</v>
       </c>
@@ -2732,7 +2746,7 @@
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -2768,7 +2782,7 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="90" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="34" t="s">
@@ -2782,7 +2796,7 @@
       </c>
       <c r="E30" s="62"/>
       <c r="F30" s="44" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -2812,7 +2826,7 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A31" s="89"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="34" t="s">
         <v>44</v>
       </c>
@@ -2823,7 +2837,9 @@
         <v>45</v>
       </c>
       <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
+      <c r="F31" s="62" t="s">
+        <v>136</v>
+      </c>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
@@ -2856,7 +2872,7 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A32" s="89"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="35" t="s">
         <v>47</v>
       </c>
@@ -2867,7 +2883,9 @@
         <v>48</v>
       </c>
       <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="F32" s="62" t="s">
+        <v>137</v>
+      </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
@@ -2900,19 +2918,19 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A33" s="89"/>
-      <c r="B33" s="88" t="s">
+      <c r="A33" s="90"/>
+      <c r="B33" s="89" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
@@ -2942,17 +2960,17 @@
       <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A34" s="89"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="72" t="s">
+      <c r="A34" s="90"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73" t="s">
-        <v>131</v>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72" t="s">
+        <v>128</v>
       </c>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
@@ -2982,17 +3000,17 @@
       <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A35" s="89"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
@@ -3022,18 +3040,20 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" ht="45.75" customHeight="1">
-      <c r="A36" s="89"/>
-      <c r="B36" s="93" t="s">
-        <v>105</v>
+      <c r="A36" s="90"/>
+      <c r="B36" s="94" t="s">
+        <v>102</v>
       </c>
       <c r="C36" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="49" t="s">
-        <v>52</v>
-      </c>
       <c r="E36" s="62"/>
-      <c r="F36" s="70"/>
+      <c r="F36" s="62" t="s">
+        <v>137</v>
+      </c>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
       <c r="I36" s="48"/>
@@ -3062,17 +3082,17 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A37" s="89"/>
-      <c r="B37" s="93"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="34" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="62" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
@@ -3102,19 +3122,19 @@
       <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="1:32" ht="52.5" customHeight="1">
-      <c r="A38" s="89"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="71" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>140</v>
       </c>
       <c r="E38" s="62"/>
       <c r="F38" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -3181,7 +3201,7 @@
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3189,7 +3209,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="1"/>
@@ -3217,7 +3237,7 @@
     <row r="41" spans="1:32" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3225,7 +3245,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="1"/>
@@ -3259,7 +3279,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="1"/>
@@ -3293,7 +3313,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="1"/>
@@ -3327,7 +3347,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="1"/>
@@ -3422,7 +3442,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
@@ -3457,10 +3477,10 @@
     <row r="48" spans="1:32" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
@@ -3495,10 +3515,10 @@
     <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
@@ -3533,10 +3553,10 @@
     <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
@@ -3571,10 +3591,10 @@
     <row r="51" spans="1:32" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
@@ -3609,10 +3629,10 @@
     <row r="52" spans="1:32" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
@@ -10707,42 +10727,42 @@
   <sheetData>
     <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="12.75">
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="12.75">
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="12.75">
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="12.75">
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$A$7:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$A$7:$E$38</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="152">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -610,110 +610,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>세미나존 정보
-세미나존 예약
- 세미나 등록</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>세미나 확인
 및 세미나 예약</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>e-Zone 서비스 이용후 세미나존 후기 등록</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나 상세 내용 확인, 및 세미나 검색</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 및 결제</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나 문의사항 및 답변</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 등록 (마이페이지)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나 후기 등록</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>원하는 주제에 관해 지식 및 정보를 공유할 수 있도록 모아줌</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 및 결제</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 내용</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>후기 등록</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면
-컨텐츠 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나존 예약
-및 세미나 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>세미나 참가 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정 관련 알림 사항</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나존에 대한 문의</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인, 회원가입 페이지로 이동
-세미나존 정보, 추천 세미나 확인</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나존 상세 내용을 확인, 후기 확인</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나 참가 예약 관리
-및 결제 관리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나존 예약
-및 세미나 등록</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약, 주최 세미나 정보, 신청 세미나 정보 확인,
-세미나 문의 확인, 이용 후기 남기기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름, 아이디, 비밀번호, 주소, 이메일, 닉네임,
-관심 세미나 카테고리</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나존 예약, 날짜 선택, 시간대 선택하여 예약
-및 결제, 세미나 등록</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -728,6 +630,26 @@
     <t>게시판</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>세미나존 예약 및 세미나 등록</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 참가 예약 관리 및 결제 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메인화면 컨텐츠 관리 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 정보 세미나존 예약</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 예약</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -736,7 +658,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -843,34 +765,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Dotum"/>
       <family val="3"/>
       <charset val="129"/>
@@ -880,6 +775,40 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="9">
@@ -932,7 +861,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1179,21 +1108,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1231,7 +1145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1474,91 +1388,10 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1622,86 +1455,107 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1921,7 +1775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:B37"/>
     </sheetView>
   </sheetViews>
@@ -1978,21 +1832,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="113"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2014,19 +1868,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2171,12 +2025,12 @@
       <c r="F7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -2211,13 +2065,13 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="125"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="51" t="s">
         <v>94</v>
       </c>
@@ -2259,8 +2113,8 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="122" t="s">
+      <c r="A9" s="92"/>
+      <c r="B9" s="95" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -2307,8 +2161,8 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="122"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="35" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2207,8 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="48">
-      <c r="A11" s="119"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="35" t="s">
         <v>23</v>
       </c>
@@ -2399,8 +2253,8 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" customHeight="1">
-      <c r="A12" s="119"/>
-      <c r="B12" s="122"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="80" t="s">
         <v>26</v>
       </c>
@@ -2439,8 +2293,8 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A13" s="119"/>
-      <c r="B13" s="129" t="s">
+      <c r="A13" s="92"/>
+      <c r="B13" s="102" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="35" t="s">
@@ -2487,8 +2341,8 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="119"/>
-      <c r="B14" s="130"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="35" t="s">
         <v>99</v>
       </c>
@@ -2527,8 +2381,8 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="36">
-      <c r="A15" s="119"/>
-      <c r="B15" s="130"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="34" t="s">
         <v>131</v>
       </c>
@@ -2567,8 +2421,8 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="119"/>
-      <c r="B16" s="131"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="54" t="s">
         <v>113</v>
       </c>
@@ -2607,8 +2461,8 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="121" t="s">
+      <c r="A17" s="92"/>
+      <c r="B17" s="94" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="37" t="s">
@@ -2655,8 +2509,8 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="33.6" customHeight="1">
-      <c r="A18" s="119"/>
-      <c r="B18" s="121"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="59" t="s">
         <v>88</v>
       </c>
@@ -2701,8 +2555,8 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="121"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="59" t="s">
         <v>64</v>
       </c>
@@ -2747,8 +2601,8 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="119"/>
-      <c r="B20" s="121"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="59" t="s">
         <v>66</v>
       </c>
@@ -2793,8 +2647,8 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="121"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="59" t="s">
         <v>115</v>
       </c>
@@ -2833,8 +2687,8 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A22" s="119"/>
-      <c r="B22" s="121"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="80" t="s">
         <v>33</v>
       </c>
@@ -2873,8 +2727,8 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A23" s="119"/>
-      <c r="B23" s="126" t="s">
+      <c r="A23" s="92"/>
+      <c r="B23" s="99" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -2913,8 +2767,8 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A24" s="119"/>
-      <c r="B24" s="127"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="63" t="s">
         <v>106</v>
       </c>
@@ -2951,8 +2805,8 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A25" s="119"/>
-      <c r="B25" s="127"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="63" t="s">
         <v>82</v>
       </c>
@@ -2989,8 +2843,8 @@
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A26" s="119"/>
-      <c r="B26" s="128"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="63" t="s">
         <v>111</v>
       </c>
@@ -3027,8 +2881,8 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A27" s="119"/>
-      <c r="B27" s="118" t="s">
+      <c r="A27" s="92"/>
+      <c r="B27" s="91" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="37" t="s">
@@ -3075,8 +2929,8 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A28" s="120"/>
-      <c r="B28" s="124"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="73" t="s">
         <v>118</v>
       </c>
@@ -3115,8 +2969,8 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A29" s="120"/>
-      <c r="B29" s="124"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="65" t="s">
         <v>36</v>
       </c>
@@ -3161,7 +3015,7 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="119" t="s">
+      <c r="A30" s="92" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="34" t="s">
@@ -3205,7 +3059,7 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A31" s="119"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="34" t="s">
         <v>44</v>
       </c>
@@ -3251,7 +3105,7 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A32" s="119"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="35" t="s">
         <v>47</v>
       </c>
@@ -3297,9 +3151,9 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A33" s="119"/>
-      <c r="B33" s="118" t="s">
-        <v>167</v>
+      <c r="A33" s="92"/>
+      <c r="B33" s="91" t="s">
+        <v>145</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>121</v>
@@ -3339,8 +3193,8 @@
       <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A34" s="119"/>
-      <c r="B34" s="118"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="71" t="s">
         <v>122</v>
       </c>
@@ -3379,8 +3233,8 @@
       <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="118"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="37" t="s">
         <v>123</v>
       </c>
@@ -3419,8 +3273,8 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" ht="45.75" customHeight="1">
-      <c r="A36" s="119"/>
-      <c r="B36" s="123" t="s">
+      <c r="A36" s="92"/>
+      <c r="B36" s="96" t="s">
         <v>101</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -3461,8 +3315,8 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A37" s="119"/>
-      <c r="B37" s="123"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="34" t="s">
         <v>140</v>
       </c>
@@ -3501,7 +3355,7 @@
       <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="1:32" ht="52.5" customHeight="1">
-      <c r="A38" s="119"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="59" t="s">
         <v>90</v>
       </c>
@@ -11089,30 +10943,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:X997"/>
+  <dimension ref="A1:U997"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -11128,20 +10980,17 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="19.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="113"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -11156,18 +11005,15 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="3" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="116"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -11182,17 +11028,14 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" ht="19.5" hidden="1" customHeight="1">
+    </row>
+    <row r="4" spans="1:21" ht="19.5" hidden="1" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -11208,11 +11051,8 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" ht="50.25" hidden="1" customHeight="1">
+    </row>
+    <row r="5" spans="1:21" ht="50.25" hidden="1" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="12">
         <v>43860</v>
@@ -11220,9 +11060,9 @@
       <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -11238,17 +11078,14 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" ht="19.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:21" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -11264,11 +11101,8 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" ht="27.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:21" ht="27.75" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>2</v>
       </c>
@@ -11279,20 +11113,14 @@
         <v>4</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="143" t="s">
-        <v>10</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -11306,1077 +11134,915 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A8" s="132" t="s">
+    </row>
+    <row r="8" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A8" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84" t="s">
+      <c r="C8" s="106"/>
+      <c r="D8" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="85">
+      <c r="E8" s="108">
         <v>1</v>
       </c>
-      <c r="H8" s="144"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-    </row>
-    <row r="9" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A9" s="132"/>
-      <c r="B9" s="133" t="s">
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+    </row>
+    <row r="9" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A9" s="105"/>
+      <c r="B9" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="84" t="s">
+      <c r="D9" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="85">
+      <c r="E9" s="108">
         <v>2</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-    </row>
-    <row r="10" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A10" s="132"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="90" t="s">
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+    </row>
+    <row r="10" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A10" s="105"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92" t="s">
+      <c r="D10" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="93">
+      <c r="E10" s="112">
         <v>3</v>
       </c>
-      <c r="H10" s="146"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-    </row>
-    <row r="11" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A11" s="132"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="90" t="s">
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+    </row>
+    <row r="11" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A11" s="105"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92" t="s">
+      <c r="D11" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="93">
+      <c r="E11" s="112">
         <v>2</v>
       </c>
-      <c r="H11" s="146"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-    </row>
-    <row r="12" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A12" s="132"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="90" t="s">
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+    </row>
+    <row r="12" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A12" s="105"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-    </row>
-    <row r="13" spans="1:24" s="87" customFormat="1" ht="48.75" hidden="1" customHeight="1">
-      <c r="A13" s="132"/>
-      <c r="B13" s="138" t="s">
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+    </row>
+    <row r="13" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A13" s="105"/>
+      <c r="B13" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="112">
+        <v>3</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+    </row>
+    <row r="14" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A14" s="105"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="134" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="112">
+        <v>4</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+    </row>
+    <row r="15" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A15" s="105"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="135" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="112">
+        <v>1</v>
+      </c>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+    </row>
+    <row r="16" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A16" s="105"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="136" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="112">
+        <v>6</v>
+      </c>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+    </row>
+    <row r="17" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A17" s="105"/>
+      <c r="B17" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92" t="s">
+      <c r="C17" s="136" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="112">
+        <v>1</v>
+      </c>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+    </row>
+    <row r="18" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A18" s="105"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="112">
+        <v>2</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+    </row>
+    <row r="19" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A19" s="105"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="134" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="118" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="119">
+        <v>3</v>
+      </c>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="82"/>
+    </row>
+    <row r="20" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A20" s="105"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="134" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="119">
+        <v>5</v>
+      </c>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+    </row>
+    <row r="21" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A21" s="105"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="134" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="118" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="119">
+        <v>4</v>
+      </c>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+    </row>
+    <row r="22" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A22" s="105"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="120"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+    </row>
+    <row r="23" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A23" s="105"/>
+      <c r="B23" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="111"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+    </row>
+    <row r="24" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A24" s="105"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="134" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="111"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+    </row>
+    <row r="25" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A25" s="105"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="111"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+    </row>
+    <row r="26" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A26" s="105"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="134" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="111"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+    </row>
+    <row r="27" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="105"/>
+      <c r="B27" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="121">
+        <v>1</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+    </row>
+    <row r="28" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="123"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="137" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="121">
+        <v>2</v>
+      </c>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+    </row>
+    <row r="29" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="123"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="121">
+        <v>3</v>
+      </c>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+    </row>
+    <row r="30" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A30" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="119">
+        <v>7</v>
+      </c>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+    </row>
+    <row r="31" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A31" s="105"/>
+      <c r="B31" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="93">
-        <v>3</v>
-      </c>
-      <c r="H13" s="147"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-    </row>
-    <row r="14" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A14" s="132"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="92" t="s">
+      <c r="E31" s="127">
+        <v>4</v>
+      </c>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+    </row>
+    <row r="32" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A32" s="105"/>
+      <c r="B32" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="136" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="129">
+        <v>5</v>
+      </c>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+    </row>
+    <row r="33" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A33" s="105"/>
+      <c r="B33" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="136" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="129">
+        <v>4</v>
+      </c>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="82"/>
+    </row>
+    <row r="34" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A34" s="105"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="136" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="129">
+        <v>5</v>
+      </c>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+    </row>
+    <row r="35" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A35" s="105"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="129">
+        <v>6</v>
+      </c>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+    </row>
+    <row r="36" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A36" s="105"/>
+      <c r="B36" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="136" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="131">
+        <v>6</v>
+      </c>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+    </row>
+    <row r="37" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A37" s="105"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="93">
-        <v>4</v>
-      </c>
-      <c r="H14" s="148"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-    </row>
-    <row r="15" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A15" s="132"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="110" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="93">
-        <v>1</v>
-      </c>
-      <c r="H15" s="149"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-    </row>
-    <row r="16" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A16" s="132"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="93">
-        <v>6</v>
-      </c>
-      <c r="H16" s="150"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-    </row>
-    <row r="17" spans="1:24" s="87" customFormat="1" ht="37.5" hidden="1" customHeight="1">
-      <c r="A17" s="132"/>
-      <c r="B17" s="141" t="s">
+      <c r="E37" s="131">
+        <v>8</v>
+      </c>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="82"/>
+      <c r="U37" s="82"/>
+    </row>
+    <row r="38" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+      <c r="A38" s="105"/>
+      <c r="B38" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="92" t="s">
+      <c r="C38" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="93">
-        <v>1</v>
-      </c>
-      <c r="H17" s="150"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-    </row>
-    <row r="18" spans="1:24" s="87" customFormat="1" ht="37.5" hidden="1" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="93">
-        <v>2</v>
-      </c>
-      <c r="H18" s="151"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-    </row>
-    <row r="19" spans="1:24" s="87" customFormat="1" ht="37.5" hidden="1" customHeight="1">
-      <c r="A19" s="132"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="153">
-        <v>3</v>
-      </c>
-      <c r="H19" s="152"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-    </row>
-    <row r="20" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A20" s="132"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="90" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="153">
+      <c r="E38" s="131">
         <v>5</v>
       </c>
-      <c r="H20" s="158"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-    </row>
-    <row r="21" spans="1:24" s="87" customFormat="1" ht="37.5" hidden="1" customHeight="1">
-      <c r="A21" s="132"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="153">
-        <v>4</v>
-      </c>
-      <c r="H21" s="158"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-    </row>
-    <row r="22" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A22" s="132"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="99"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-    </row>
-    <row r="23" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A23" s="132"/>
-      <c r="B23" s="138" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-    </row>
-    <row r="24" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A24" s="132"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-    </row>
-    <row r="25" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A25" s="132"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-    </row>
-    <row r="26" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A26" s="132"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-    </row>
-    <row r="27" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
-      <c r="A27" s="132"/>
-      <c r="B27" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="154">
-        <v>1</v>
-      </c>
-      <c r="H27" s="158"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-    </row>
-    <row r="28" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
-      <c r="A28" s="136"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="154">
-        <v>2</v>
-      </c>
-      <c r="H28" s="158"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-    </row>
-    <row r="29" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
-      <c r="A29" s="136"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="154">
-        <v>3</v>
-      </c>
-      <c r="H29" s="158"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-    </row>
-    <row r="30" spans="1:24" s="87" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A30" s="132" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="153">
-        <v>7</v>
-      </c>
-      <c r="H30" s="158"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="86"/>
-    </row>
-    <row r="31" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A31" s="132"/>
-      <c r="B31" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="155">
-        <v>4</v>
-      </c>
-      <c r="H31" s="158"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-    </row>
-    <row r="32" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A32" s="132"/>
-      <c r="B32" s="109" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="156">
-        <v>5</v>
-      </c>
-      <c r="H32" s="158"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="86"/>
-    </row>
-    <row r="33" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
-      <c r="A33" s="132"/>
-      <c r="B33" s="133" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="156">
-        <v>4</v>
-      </c>
-      <c r="H33" s="108"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="86"/>
-    </row>
-    <row r="34" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
-      <c r="A34" s="132"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="156">
-        <v>5</v>
-      </c>
-      <c r="H34" s="108"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="86"/>
-    </row>
-    <row r="35" spans="1:24" s="87" customFormat="1" ht="33" customHeight="1">
-      <c r="A35" s="132"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="156">
-        <v>6</v>
-      </c>
-      <c r="H35" s="108"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="86"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="86"/>
-      <c r="X35" s="86"/>
-    </row>
-    <row r="36" spans="1:24" s="87" customFormat="1" ht="42.75" hidden="1" customHeight="1">
-      <c r="A36" s="132"/>
-      <c r="B36" s="134" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="157">
-        <v>6</v>
-      </c>
-      <c r="H36" s="158"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="86"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="86"/>
-      <c r="V36" s="86"/>
-      <c r="W36" s="86"/>
-      <c r="X36" s="86"/>
-    </row>
-    <row r="37" spans="1:24" s="87" customFormat="1" ht="33" hidden="1" customHeight="1">
-      <c r="A37" s="132"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" s="157">
-        <v>8</v>
-      </c>
-      <c r="H37" s="158"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="86"/>
-      <c r="W37" s="86"/>
-      <c r="X37" s="86"/>
-    </row>
-    <row r="38" spans="1:24" s="87" customFormat="1" ht="37.5" hidden="1" customHeight="1">
-      <c r="A38" s="132"/>
-      <c r="B38" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="109" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="157">
-        <v>5</v>
-      </c>
-      <c r="H38" s="158"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="86"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="86"/>
-      <c r="V38" s="86"/>
-      <c r="W38" s="86"/>
-      <c r="X38" s="86"/>
-    </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1">
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="82"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -12392,19 +12058,14 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:21" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -12420,17 +12081,12 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:21" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -12446,15 +12102,12 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:21" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -12470,15 +12123,12 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:21" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -12494,15 +12144,12 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:21" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -12518,15 +12165,12 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:21" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -12542,17 +12186,14 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-    </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:21" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -12568,19 +12209,16 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-    </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" spans="1:21" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -12596,11 +12234,8 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-    </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:21" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="33" t="s">
         <v>70</v>
@@ -12608,9 +12243,9 @@
       <c r="C48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -12626,11 +12261,8 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-    </row>
-    <row r="49" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="1:21" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>102</v>
@@ -12638,9 +12270,9 @@
       <c r="C49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -12656,11 +12288,8 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-    </row>
-    <row r="50" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="1:21" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="32" t="s">
         <v>103</v>
@@ -12668,9 +12297,9 @@
       <c r="C50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -12686,11 +12315,8 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-    </row>
-    <row r="51" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="51" spans="1:21" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>92</v>
@@ -12698,9 +12324,9 @@
       <c r="C51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -12716,11 +12342,8 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-    </row>
-    <row r="52" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="52" spans="1:21" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
         <v>93</v>
@@ -12728,9 +12351,9 @@
       <c r="C52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -12746,17 +12369,14 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-    </row>
-    <row r="53" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="1:21" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -12772,17 +12392,14 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-    </row>
-    <row r="54" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="54" spans="1:21" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -12798,17 +12415,14 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-    </row>
-    <row r="55" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="55" spans="1:21" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -12824,17 +12438,14 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-    </row>
-    <row r="56" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="56" spans="1:21" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -12850,17 +12461,14 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-    </row>
-    <row r="57" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="57" spans="1:21" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -12876,17 +12484,14 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-    </row>
-    <row r="58" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="58" spans="1:21" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -12902,17 +12507,14 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-    </row>
-    <row r="59" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="59" spans="1:21" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -12928,17 +12530,14 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-    </row>
-    <row r="60" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="60" spans="1:21" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -12954,17 +12553,14 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-    </row>
-    <row r="61" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="61" spans="1:21" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -12980,17 +12576,14 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-    </row>
-    <row r="62" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="62" spans="1:21" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -13006,17 +12599,14 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-    </row>
-    <row r="63" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="63" spans="1:21" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -13032,17 +12622,14 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-    </row>
-    <row r="64" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="1:21" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -13058,17 +12645,14 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-    </row>
-    <row r="65" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="65" spans="1:21" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -13084,17 +12668,14 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-    </row>
-    <row r="66" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="66" spans="1:21" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -13110,17 +12691,14 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-    </row>
-    <row r="67" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="67" spans="1:21" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -13136,17 +12714,14 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-    </row>
-    <row r="68" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="68" spans="1:21" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -13162,17 +12737,14 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-    </row>
-    <row r="69" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="69" spans="1:21" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -13188,17 +12760,14 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-    </row>
-    <row r="70" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="70" spans="1:21" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -13214,17 +12783,14 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-    </row>
-    <row r="71" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="71" spans="1:21" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -13240,17 +12806,14 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-    </row>
-    <row r="72" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="72" spans="1:21" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -13266,17 +12829,14 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-    </row>
-    <row r="73" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="73" spans="1:21" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -13292,17 +12852,14 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-    </row>
-    <row r="74" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:21" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -13318,17 +12875,14 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-    </row>
-    <row r="75" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="75" spans="1:21" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -13344,17 +12898,14 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-    </row>
-    <row r="76" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="76" spans="1:21" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -13370,17 +12921,14 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-    </row>
-    <row r="77" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="77" spans="1:21" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -13396,17 +12944,14 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-    </row>
-    <row r="78" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="78" spans="1:21" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -13422,17 +12967,14 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-    </row>
-    <row r="79" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="79" spans="1:21" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -13448,17 +12990,14 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-    </row>
-    <row r="80" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="80" spans="1:21" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -13474,17 +13013,14 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-    </row>
-    <row r="81" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="81" spans="1:21" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -13500,17 +13036,14 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-    </row>
-    <row r="82" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="82" spans="1:21" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -13526,17 +13059,14 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
-    </row>
-    <row r="83" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="83" spans="1:21" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -13552,17 +13082,14 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
-    </row>
-    <row r="84" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="84" spans="1:21" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -13578,17 +13105,14 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="W84" s="1"/>
-      <c r="X84" s="1"/>
-    </row>
-    <row r="85" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="85" spans="1:21" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -13604,17 +13128,14 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-    </row>
-    <row r="86" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="86" spans="1:21" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -13630,17 +13151,14 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-    </row>
-    <row r="87" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="87" spans="1:21" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -13656,17 +13174,14 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1"/>
-    </row>
-    <row r="88" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="88" spans="1:21" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -13682,17 +13197,14 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="X88" s="1"/>
-    </row>
-    <row r="89" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="89" spans="1:21" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -13708,17 +13220,14 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="X89" s="1"/>
-    </row>
-    <row r="90" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="90" spans="1:21" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -13734,17 +13243,14 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-    </row>
-    <row r="91" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="91" spans="1:21" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -13760,17 +13266,14 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-    </row>
-    <row r="92" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="92" spans="1:21" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -13786,17 +13289,14 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-    </row>
-    <row r="93" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="93" spans="1:21" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -13812,17 +13312,14 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
-    </row>
-    <row r="94" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="94" spans="1:21" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -13838,17 +13335,14 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
-    </row>
-    <row r="95" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="95" spans="1:21" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -13864,17 +13358,14 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="X95" s="1"/>
-    </row>
-    <row r="96" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="96" spans="1:21" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -13890,17 +13381,14 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
-    </row>
-    <row r="97" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="97" spans="1:21" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -13916,17 +13404,14 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
-    </row>
-    <row r="98" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="98" spans="1:21" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -13942,17 +13427,14 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
-    </row>
-    <row r="99" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="99" spans="1:21" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -13968,17 +13450,14 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
-    </row>
-    <row r="100" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="100" spans="1:21" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -13994,17 +13473,14 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-    </row>
-    <row r="101" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="101" spans="1:21" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -14020,17 +13496,14 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
-    </row>
-    <row r="102" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="102" spans="1:21" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -14046,17 +13519,14 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
-    </row>
-    <row r="103" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="103" spans="1:21" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -14072,17 +13542,14 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-      <c r="X103" s="1"/>
-    </row>
-    <row r="104" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="104" spans="1:21" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -14098,17 +13565,14 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
-    </row>
-    <row r="105" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="105" spans="1:21" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -14124,17 +13588,14 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-      <c r="X105" s="1"/>
-    </row>
-    <row r="106" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="106" spans="1:21" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -14150,17 +13611,14 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="1"/>
-      <c r="X106" s="1"/>
-    </row>
-    <row r="107" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="107" spans="1:21" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -14176,17 +13634,14 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
-    </row>
-    <row r="108" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="108" spans="1:21" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -14202,17 +13657,14 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="1"/>
-      <c r="X108" s="1"/>
-    </row>
-    <row r="109" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="109" spans="1:21" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -14228,17 +13680,14 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
-    </row>
-    <row r="110" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="110" spans="1:21" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -14254,17 +13703,14 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
-    </row>
-    <row r="111" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="111" spans="1:21" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -14280,17 +13726,14 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
-      <c r="W111" s="1"/>
-      <c r="X111" s="1"/>
-    </row>
-    <row r="112" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="112" spans="1:21" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -14306,17 +13749,14 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
-      <c r="V112" s="1"/>
-      <c r="W112" s="1"/>
-      <c r="X112" s="1"/>
-    </row>
-    <row r="113" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="113" spans="1:21" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -14332,17 +13772,14 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-      <c r="X113" s="1"/>
-    </row>
-    <row r="114" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="114" spans="1:21" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -14358,17 +13795,14 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
-      <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-      <c r="X114" s="1"/>
-    </row>
-    <row r="115" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="115" spans="1:21" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -14384,17 +13818,14 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
-      <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
-      <c r="X115" s="1"/>
-    </row>
-    <row r="116" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="116" spans="1:21" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -14410,17 +13841,14 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
-      <c r="V116" s="1"/>
-      <c r="W116" s="1"/>
-      <c r="X116" s="1"/>
-    </row>
-    <row r="117" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="117" spans="1:21" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -14436,17 +13864,14 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
-      <c r="X117" s="1"/>
-    </row>
-    <row r="118" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="118" spans="1:21" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -14462,17 +13887,14 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
-      <c r="V118" s="1"/>
-      <c r="W118" s="1"/>
-      <c r="X118" s="1"/>
-    </row>
-    <row r="119" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="119" spans="1:21" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -14488,17 +13910,14 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
-      <c r="V119" s="1"/>
-      <c r="W119" s="1"/>
-      <c r="X119" s="1"/>
-    </row>
-    <row r="120" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="120" spans="1:21" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -14514,17 +13933,14 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
-      <c r="V120" s="1"/>
-      <c r="W120" s="1"/>
-      <c r="X120" s="1"/>
-    </row>
-    <row r="121" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="121" spans="1:21" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -14540,17 +13956,14 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
-      <c r="V121" s="1"/>
-      <c r="W121" s="1"/>
-      <c r="X121" s="1"/>
-    </row>
-    <row r="122" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="122" spans="1:21" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -14566,17 +13979,14 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
-      <c r="W122" s="1"/>
-      <c r="X122" s="1"/>
-    </row>
-    <row r="123" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="123" spans="1:21" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -14592,17 +14002,14 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
-      <c r="V123" s="1"/>
-      <c r="W123" s="1"/>
-      <c r="X123" s="1"/>
-    </row>
-    <row r="124" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="124" spans="1:21" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -14618,17 +14025,14 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
-      <c r="V124" s="1"/>
-      <c r="W124" s="1"/>
-      <c r="X124" s="1"/>
-    </row>
-    <row r="125" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="125" spans="1:21" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -14644,17 +14048,14 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
-      <c r="V125" s="1"/>
-      <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
-    </row>
-    <row r="126" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="126" spans="1:21" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -14670,17 +14071,14 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
-      <c r="V126" s="1"/>
-      <c r="W126" s="1"/>
-      <c r="X126" s="1"/>
-    </row>
-    <row r="127" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="127" spans="1:21" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -14696,17 +14094,14 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
-      <c r="V127" s="1"/>
-      <c r="W127" s="1"/>
-      <c r="X127" s="1"/>
-    </row>
-    <row r="128" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="128" spans="1:21" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -14722,17 +14117,14 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
-      <c r="V128" s="1"/>
-      <c r="W128" s="1"/>
-      <c r="X128" s="1"/>
-    </row>
-    <row r="129" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="129" spans="1:21" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -14748,17 +14140,14 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
-      <c r="V129" s="1"/>
-      <c r="W129" s="1"/>
-      <c r="X129" s="1"/>
-    </row>
-    <row r="130" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="130" spans="1:21" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -14774,17 +14163,14 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
-      <c r="V130" s="1"/>
-      <c r="W130" s="1"/>
-      <c r="X130" s="1"/>
-    </row>
-    <row r="131" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="131" spans="1:21" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -14800,17 +14186,14 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
-      <c r="V131" s="1"/>
-      <c r="W131" s="1"/>
-      <c r="X131" s="1"/>
-    </row>
-    <row r="132" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="132" spans="1:21" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -14826,17 +14209,14 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
-      <c r="V132" s="1"/>
-      <c r="W132" s="1"/>
-      <c r="X132" s="1"/>
-    </row>
-    <row r="133" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="133" spans="1:21" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -14852,17 +14232,14 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
-      <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
-      <c r="X133" s="1"/>
-    </row>
-    <row r="134" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="134" spans="1:21" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -14878,17 +14255,14 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
-      <c r="V134" s="1"/>
-      <c r="W134" s="1"/>
-      <c r="X134" s="1"/>
-    </row>
-    <row r="135" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="135" spans="1:21" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -14904,17 +14278,14 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
-      <c r="V135" s="1"/>
-      <c r="W135" s="1"/>
-      <c r="X135" s="1"/>
-    </row>
-    <row r="136" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="136" spans="1:21" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -14930,17 +14301,14 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
-      <c r="V136" s="1"/>
-      <c r="W136" s="1"/>
-      <c r="X136" s="1"/>
-    </row>
-    <row r="137" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="137" spans="1:21" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -14956,17 +14324,14 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
-      <c r="V137" s="1"/>
-      <c r="W137" s="1"/>
-      <c r="X137" s="1"/>
-    </row>
-    <row r="138" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="138" spans="1:21" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -14982,17 +14347,14 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
-      <c r="V138" s="1"/>
-      <c r="W138" s="1"/>
-      <c r="X138" s="1"/>
-    </row>
-    <row r="139" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="139" spans="1:21" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -15008,17 +14370,14 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
-      <c r="V139" s="1"/>
-      <c r="W139" s="1"/>
-      <c r="X139" s="1"/>
-    </row>
-    <row r="140" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="140" spans="1:21" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -15034,17 +14393,14 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
-      <c r="V140" s="1"/>
-      <c r="W140" s="1"/>
-      <c r="X140" s="1"/>
-    </row>
-    <row r="141" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="141" spans="1:21" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -15060,17 +14416,14 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
-      <c r="V141" s="1"/>
-      <c r="W141" s="1"/>
-      <c r="X141" s="1"/>
-    </row>
-    <row r="142" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="142" spans="1:21" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -15086,17 +14439,14 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
-      <c r="V142" s="1"/>
-      <c r="W142" s="1"/>
-      <c r="X142" s="1"/>
-    </row>
-    <row r="143" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="143" spans="1:21" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -15112,17 +14462,14 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
-      <c r="V143" s="1"/>
-      <c r="W143" s="1"/>
-      <c r="X143" s="1"/>
-    </row>
-    <row r="144" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="144" spans="1:21" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -15138,17 +14485,14 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
-      <c r="V144" s="1"/>
-      <c r="W144" s="1"/>
-      <c r="X144" s="1"/>
-    </row>
-    <row r="145" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="145" spans="1:21" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -15164,17 +14508,14 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
-      <c r="V145" s="1"/>
-      <c r="W145" s="1"/>
-      <c r="X145" s="1"/>
-    </row>
-    <row r="146" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="146" spans="1:21" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -15190,17 +14531,14 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
-      <c r="V146" s="1"/>
-      <c r="W146" s="1"/>
-      <c r="X146" s="1"/>
-    </row>
-    <row r="147" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="147" spans="1:21" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -15216,17 +14554,14 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
-    </row>
-    <row r="148" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="148" spans="1:21" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -15242,17 +14577,14 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
-      <c r="V148" s="1"/>
-      <c r="W148" s="1"/>
-      <c r="X148" s="1"/>
-    </row>
-    <row r="149" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="149" spans="1:21" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -15268,17 +14600,14 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
-      <c r="V149" s="1"/>
-      <c r="W149" s="1"/>
-      <c r="X149" s="1"/>
-    </row>
-    <row r="150" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="150" spans="1:21" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -15294,17 +14623,14 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
-      <c r="V150" s="1"/>
-      <c r="W150" s="1"/>
-      <c r="X150" s="1"/>
-    </row>
-    <row r="151" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="151" spans="1:21" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -15320,17 +14646,14 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
-      <c r="V151" s="1"/>
-      <c r="W151" s="1"/>
-      <c r="X151" s="1"/>
-    </row>
-    <row r="152" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="152" spans="1:21" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -15346,17 +14669,14 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
-      <c r="V152" s="1"/>
-      <c r="W152" s="1"/>
-      <c r="X152" s="1"/>
-    </row>
-    <row r="153" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="153" spans="1:21" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -15372,17 +14692,14 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
-      <c r="V153" s="1"/>
-      <c r="W153" s="1"/>
-      <c r="X153" s="1"/>
-    </row>
-    <row r="154" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="154" spans="1:21" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -15398,17 +14715,14 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
-      <c r="V154" s="1"/>
-      <c r="W154" s="1"/>
-      <c r="X154" s="1"/>
-    </row>
-    <row r="155" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="155" spans="1:21" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -15424,17 +14738,14 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
-      <c r="V155" s="1"/>
-      <c r="W155" s="1"/>
-      <c r="X155" s="1"/>
-    </row>
-    <row r="156" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="156" spans="1:21" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -15450,17 +14761,14 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
-      <c r="V156" s="1"/>
-      <c r="W156" s="1"/>
-      <c r="X156" s="1"/>
-    </row>
-    <row r="157" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="157" spans="1:21" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -15476,17 +14784,14 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
-      <c r="V157" s="1"/>
-      <c r="W157" s="1"/>
-      <c r="X157" s="1"/>
-    </row>
-    <row r="158" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="158" spans="1:21" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -15502,17 +14807,14 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
-      <c r="V158" s="1"/>
-      <c r="W158" s="1"/>
-      <c r="X158" s="1"/>
-    </row>
-    <row r="159" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="159" spans="1:21" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -15528,17 +14830,14 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
-      <c r="W159" s="1"/>
-      <c r="X159" s="1"/>
-    </row>
-    <row r="160" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="160" spans="1:21" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -15554,17 +14853,14 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
-      <c r="W160" s="1"/>
-      <c r="X160" s="1"/>
-    </row>
-    <row r="161" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="161" spans="1:21" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -15580,17 +14876,14 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
-      <c r="V161" s="1"/>
-      <c r="W161" s="1"/>
-      <c r="X161" s="1"/>
-    </row>
-    <row r="162" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="162" spans="1:21" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -15606,17 +14899,14 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
-      <c r="V162" s="1"/>
-      <c r="W162" s="1"/>
-      <c r="X162" s="1"/>
-    </row>
-    <row r="163" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="163" spans="1:21" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -15632,17 +14922,14 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
-      <c r="V163" s="1"/>
-      <c r="W163" s="1"/>
-      <c r="X163" s="1"/>
-    </row>
-    <row r="164" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="164" spans="1:21" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -15658,17 +14945,14 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
-      <c r="V164" s="1"/>
-      <c r="W164" s="1"/>
-      <c r="X164" s="1"/>
-    </row>
-    <row r="165" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="165" spans="1:21" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -15684,17 +14968,14 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
-      <c r="V165" s="1"/>
-      <c r="W165" s="1"/>
-      <c r="X165" s="1"/>
-    </row>
-    <row r="166" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="166" spans="1:21" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -15710,17 +14991,14 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
-      <c r="V166" s="1"/>
-      <c r="W166" s="1"/>
-      <c r="X166" s="1"/>
-    </row>
-    <row r="167" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="167" spans="1:21" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -15736,17 +15014,14 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
-      <c r="V167" s="1"/>
-      <c r="W167" s="1"/>
-      <c r="X167" s="1"/>
-    </row>
-    <row r="168" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="168" spans="1:21" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -15762,17 +15037,14 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
-      <c r="V168" s="1"/>
-      <c r="W168" s="1"/>
-      <c r="X168" s="1"/>
-    </row>
-    <row r="169" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="169" spans="1:21" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -15788,17 +15060,14 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
-      <c r="V169" s="1"/>
-      <c r="W169" s="1"/>
-      <c r="X169" s="1"/>
-    </row>
-    <row r="170" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="170" spans="1:21" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -15814,17 +15083,14 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
-      <c r="V170" s="1"/>
-      <c r="W170" s="1"/>
-      <c r="X170" s="1"/>
-    </row>
-    <row r="171" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="171" spans="1:21" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -15840,17 +15106,14 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
-      <c r="V171" s="1"/>
-      <c r="W171" s="1"/>
-      <c r="X171" s="1"/>
-    </row>
-    <row r="172" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="172" spans="1:21" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -15866,17 +15129,14 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
-      <c r="V172" s="1"/>
-      <c r="W172" s="1"/>
-      <c r="X172" s="1"/>
-    </row>
-    <row r="173" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="173" spans="1:21" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -15892,17 +15152,14 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
-      <c r="V173" s="1"/>
-      <c r="W173" s="1"/>
-      <c r="X173" s="1"/>
-    </row>
-    <row r="174" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="174" spans="1:21" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
@@ -15918,17 +15175,14 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
-      <c r="V174" s="1"/>
-      <c r="W174" s="1"/>
-      <c r="X174" s="1"/>
-    </row>
-    <row r="175" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="175" spans="1:21" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -15944,17 +15198,14 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
-      <c r="V175" s="1"/>
-      <c r="W175" s="1"/>
-      <c r="X175" s="1"/>
-    </row>
-    <row r="176" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="176" spans="1:21" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -15970,17 +15221,14 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
-      <c r="V176" s="1"/>
-      <c r="W176" s="1"/>
-      <c r="X176" s="1"/>
-    </row>
-    <row r="177" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="177" spans="1:21" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -15996,17 +15244,14 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
-      <c r="V177" s="1"/>
-      <c r="W177" s="1"/>
-      <c r="X177" s="1"/>
-    </row>
-    <row r="178" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="178" spans="1:21" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -16022,17 +15267,14 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
-      <c r="V178" s="1"/>
-      <c r="W178" s="1"/>
-      <c r="X178" s="1"/>
-    </row>
-    <row r="179" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="179" spans="1:21" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -16048,17 +15290,14 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
-      <c r="V179" s="1"/>
-      <c r="W179" s="1"/>
-      <c r="X179" s="1"/>
-    </row>
-    <row r="180" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="180" spans="1:21" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -16074,17 +15313,14 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
-      <c r="V180" s="1"/>
-      <c r="W180" s="1"/>
-      <c r="X180" s="1"/>
-    </row>
-    <row r="181" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="181" spans="1:21" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -16100,17 +15336,14 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
-      <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
-    </row>
-    <row r="182" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="182" spans="1:21" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -16126,17 +15359,14 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
-      <c r="V182" s="1"/>
-      <c r="W182" s="1"/>
-      <c r="X182" s="1"/>
-    </row>
-    <row r="183" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="183" spans="1:21" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -16152,17 +15382,14 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
-      <c r="V183" s="1"/>
-      <c r="W183" s="1"/>
-      <c r="X183" s="1"/>
-    </row>
-    <row r="184" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="184" spans="1:21" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -16178,17 +15405,14 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
-      <c r="V184" s="1"/>
-      <c r="W184" s="1"/>
-      <c r="X184" s="1"/>
-    </row>
-    <row r="185" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="185" spans="1:21" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -16204,17 +15428,14 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
-      <c r="V185" s="1"/>
-      <c r="W185" s="1"/>
-      <c r="X185" s="1"/>
-    </row>
-    <row r="186" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="186" spans="1:21" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -16230,17 +15451,14 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
-      <c r="V186" s="1"/>
-      <c r="W186" s="1"/>
-      <c r="X186" s="1"/>
-    </row>
-    <row r="187" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="187" spans="1:21" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -16256,17 +15474,14 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
-      <c r="V187" s="1"/>
-      <c r="W187" s="1"/>
-      <c r="X187" s="1"/>
-    </row>
-    <row r="188" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="188" spans="1:21" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
@@ -16282,17 +15497,14 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
-      <c r="V188" s="1"/>
-      <c r="W188" s="1"/>
-      <c r="X188" s="1"/>
-    </row>
-    <row r="189" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="189" spans="1:21" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
@@ -16308,17 +15520,14 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
-      <c r="V189" s="1"/>
-      <c r="W189" s="1"/>
-      <c r="X189" s="1"/>
-    </row>
-    <row r="190" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="190" spans="1:21" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
@@ -16334,17 +15543,14 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
-      <c r="V190" s="1"/>
-      <c r="W190" s="1"/>
-      <c r="X190" s="1"/>
-    </row>
-    <row r="191" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="191" spans="1:21" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -16360,17 +15566,14 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
-      <c r="V191" s="1"/>
-      <c r="W191" s="1"/>
-      <c r="X191" s="1"/>
-    </row>
-    <row r="192" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="192" spans="1:21" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -16386,17 +15589,14 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
-      <c r="V192" s="1"/>
-      <c r="W192" s="1"/>
-      <c r="X192" s="1"/>
-    </row>
-    <row r="193" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="193" spans="1:21" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -16412,17 +15612,14 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
-      <c r="V193" s="1"/>
-      <c r="W193" s="1"/>
-      <c r="X193" s="1"/>
-    </row>
-    <row r="194" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="194" spans="1:21" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -16438,17 +15635,14 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
-      <c r="V194" s="1"/>
-      <c r="W194" s="1"/>
-      <c r="X194" s="1"/>
-    </row>
-    <row r="195" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="195" spans="1:21" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -16464,17 +15658,14 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
-      <c r="V195" s="1"/>
-      <c r="W195" s="1"/>
-      <c r="X195" s="1"/>
-    </row>
-    <row r="196" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="196" spans="1:21" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
@@ -16490,17 +15681,14 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
-      <c r="V196" s="1"/>
-      <c r="W196" s="1"/>
-      <c r="X196" s="1"/>
-    </row>
-    <row r="197" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="197" spans="1:21" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
@@ -16516,17 +15704,14 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
-      <c r="V197" s="1"/>
-      <c r="W197" s="1"/>
-      <c r="X197" s="1"/>
-    </row>
-    <row r="198" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="198" spans="1:21" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
@@ -16542,17 +15727,14 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
-      <c r="V198" s="1"/>
-      <c r="W198" s="1"/>
-      <c r="X198" s="1"/>
-    </row>
-    <row r="199" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="199" spans="1:21" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
@@ -16568,17 +15750,14 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
-      <c r="V199" s="1"/>
-      <c r="W199" s="1"/>
-      <c r="X199" s="1"/>
-    </row>
-    <row r="200" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="200" spans="1:21" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -16594,17 +15773,14 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
-      <c r="V200" s="1"/>
-      <c r="W200" s="1"/>
-      <c r="X200" s="1"/>
-    </row>
-    <row r="201" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="201" spans="1:21" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
@@ -16620,17 +15796,14 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
-      <c r="V201" s="1"/>
-      <c r="W201" s="1"/>
-      <c r="X201" s="1"/>
-    </row>
-    <row r="202" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="202" spans="1:21" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
@@ -16646,17 +15819,14 @@
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
       <c r="U202" s="1"/>
-      <c r="V202" s="1"/>
-      <c r="W202" s="1"/>
-      <c r="X202" s="1"/>
-    </row>
-    <row r="203" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="203" spans="1:21" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
@@ -16672,17 +15842,14 @@
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
-      <c r="V203" s="1"/>
-      <c r="W203" s="1"/>
-      <c r="X203" s="1"/>
-    </row>
-    <row r="204" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="204" spans="1:21" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
@@ -16698,17 +15865,14 @@
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
-      <c r="V204" s="1"/>
-      <c r="W204" s="1"/>
-      <c r="X204" s="1"/>
-    </row>
-    <row r="205" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="205" spans="1:21" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -16724,17 +15888,14 @@
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
-      <c r="V205" s="1"/>
-      <c r="W205" s="1"/>
-      <c r="X205" s="1"/>
-    </row>
-    <row r="206" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="206" spans="1:21" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -16750,17 +15911,14 @@
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
-      <c r="V206" s="1"/>
-      <c r="W206" s="1"/>
-      <c r="X206" s="1"/>
-    </row>
-    <row r="207" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="207" spans="1:21" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -16776,17 +15934,14 @@
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
-      <c r="V207" s="1"/>
-      <c r="W207" s="1"/>
-      <c r="X207" s="1"/>
-    </row>
-    <row r="208" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="208" spans="1:21" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -16802,17 +15957,14 @@
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
-      <c r="V208" s="1"/>
-      <c r="W208" s="1"/>
-      <c r="X208" s="1"/>
-    </row>
-    <row r="209" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="209" spans="1:21" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -16828,17 +15980,14 @@
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
-      <c r="V209" s="1"/>
-      <c r="W209" s="1"/>
-      <c r="X209" s="1"/>
-    </row>
-    <row r="210" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="210" spans="1:21" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -16854,17 +16003,14 @@
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
-      <c r="V210" s="1"/>
-      <c r="W210" s="1"/>
-      <c r="X210" s="1"/>
-    </row>
-    <row r="211" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="211" spans="1:21" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -16880,17 +16026,14 @@
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
-      <c r="V211" s="1"/>
-      <c r="W211" s="1"/>
-      <c r="X211" s="1"/>
-    </row>
-    <row r="212" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="212" spans="1:21" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -16906,17 +16049,14 @@
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
-      <c r="V212" s="1"/>
-      <c r="W212" s="1"/>
-      <c r="X212" s="1"/>
-    </row>
-    <row r="213" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="213" spans="1:21" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -16932,17 +16072,14 @@
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
-      <c r="V213" s="1"/>
-      <c r="W213" s="1"/>
-      <c r="X213" s="1"/>
-    </row>
-    <row r="214" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="214" spans="1:21" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -16958,17 +16095,14 @@
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
-      <c r="V214" s="1"/>
-      <c r="W214" s="1"/>
-      <c r="X214" s="1"/>
-    </row>
-    <row r="215" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="215" spans="1:21" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -16984,17 +16118,14 @@
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
       <c r="U215" s="1"/>
-      <c r="V215" s="1"/>
-      <c r="W215" s="1"/>
-      <c r="X215" s="1"/>
-    </row>
-    <row r="216" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="216" spans="1:21" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
@@ -17010,17 +16141,14 @@
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
-      <c r="V216" s="1"/>
-      <c r="W216" s="1"/>
-      <c r="X216" s="1"/>
-    </row>
-    <row r="217" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="217" spans="1:21" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
@@ -17036,17 +16164,14 @@
       <c r="S217" s="1"/>
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
-      <c r="V217" s="1"/>
-      <c r="W217" s="1"/>
-      <c r="X217" s="1"/>
-    </row>
-    <row r="218" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="218" spans="1:21" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
@@ -17062,17 +16187,14 @@
       <c r="S218" s="1"/>
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
-      <c r="V218" s="1"/>
-      <c r="W218" s="1"/>
-      <c r="X218" s="1"/>
-    </row>
-    <row r="219" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="219" spans="1:21" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
@@ -17088,17 +16210,14 @@
       <c r="S219" s="1"/>
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
-      <c r="V219" s="1"/>
-      <c r="W219" s="1"/>
-      <c r="X219" s="1"/>
-    </row>
-    <row r="220" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="220" spans="1:21" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -17114,17 +16233,14 @@
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
       <c r="U220" s="1"/>
-      <c r="V220" s="1"/>
-      <c r="W220" s="1"/>
-      <c r="X220" s="1"/>
-    </row>
-    <row r="221" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="221" spans="1:21" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -17140,17 +16256,14 @@
       <c r="S221" s="1"/>
       <c r="T221" s="1"/>
       <c r="U221" s="1"/>
-      <c r="V221" s="1"/>
-      <c r="W221" s="1"/>
-      <c r="X221" s="1"/>
-    </row>
-    <row r="222" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="222" spans="1:21" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
@@ -17166,17 +16279,14 @@
       <c r="S222" s="1"/>
       <c r="T222" s="1"/>
       <c r="U222" s="1"/>
-      <c r="V222" s="1"/>
-      <c r="W222" s="1"/>
-      <c r="X222" s="1"/>
-    </row>
-    <row r="223" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="223" spans="1:21" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
@@ -17192,17 +16302,14 @@
       <c r="S223" s="1"/>
       <c r="T223" s="1"/>
       <c r="U223" s="1"/>
-      <c r="V223" s="1"/>
-      <c r="W223" s="1"/>
-      <c r="X223" s="1"/>
-    </row>
-    <row r="224" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="224" spans="1:21" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
@@ -17218,17 +16325,14 @@
       <c r="S224" s="1"/>
       <c r="T224" s="1"/>
       <c r="U224" s="1"/>
-      <c r="V224" s="1"/>
-      <c r="W224" s="1"/>
-      <c r="X224" s="1"/>
-    </row>
-    <row r="225" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="225" spans="1:21" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
@@ -17244,17 +16348,14 @@
       <c r="S225" s="1"/>
       <c r="T225" s="1"/>
       <c r="U225" s="1"/>
-      <c r="V225" s="1"/>
-      <c r="W225" s="1"/>
-      <c r="X225" s="1"/>
-    </row>
-    <row r="226" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="226" spans="1:21" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
@@ -17270,17 +16371,14 @@
       <c r="S226" s="1"/>
       <c r="T226" s="1"/>
       <c r="U226" s="1"/>
-      <c r="V226" s="1"/>
-      <c r="W226" s="1"/>
-      <c r="X226" s="1"/>
-    </row>
-    <row r="227" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="227" spans="1:21" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
@@ -17296,17 +16394,14 @@
       <c r="S227" s="1"/>
       <c r="T227" s="1"/>
       <c r="U227" s="1"/>
-      <c r="V227" s="1"/>
-      <c r="W227" s="1"/>
-      <c r="X227" s="1"/>
-    </row>
-    <row r="228" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="228" spans="1:21" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
@@ -17322,17 +16417,14 @@
       <c r="S228" s="1"/>
       <c r="T228" s="1"/>
       <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="X228" s="1"/>
-    </row>
-    <row r="229" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="229" spans="1:21" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
@@ -17348,17 +16440,14 @@
       <c r="S229" s="1"/>
       <c r="T229" s="1"/>
       <c r="U229" s="1"/>
-      <c r="V229" s="1"/>
-      <c r="W229" s="1"/>
-      <c r="X229" s="1"/>
-    </row>
-    <row r="230" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="230" spans="1:21" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
@@ -17374,17 +16463,14 @@
       <c r="S230" s="1"/>
       <c r="T230" s="1"/>
       <c r="U230" s="1"/>
-      <c r="V230" s="1"/>
-      <c r="W230" s="1"/>
-      <c r="X230" s="1"/>
-    </row>
-    <row r="231" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="231" spans="1:21" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
@@ -17400,17 +16486,14 @@
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
       <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="X231" s="1"/>
-    </row>
-    <row r="232" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="232" spans="1:21" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
@@ -17426,17 +16509,14 @@
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
       <c r="U232" s="1"/>
-      <c r="V232" s="1"/>
-      <c r="W232" s="1"/>
-      <c r="X232" s="1"/>
-    </row>
-    <row r="233" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="233" spans="1:21" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
@@ -17452,17 +16532,14 @@
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
-      <c r="V233" s="1"/>
-      <c r="W233" s="1"/>
-      <c r="X233" s="1"/>
-    </row>
-    <row r="234" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="234" spans="1:21" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -17478,17 +16555,14 @@
       <c r="S234" s="1"/>
       <c r="T234" s="1"/>
       <c r="U234" s="1"/>
-      <c r="V234" s="1"/>
-      <c r="W234" s="1"/>
-      <c r="X234" s="1"/>
-    </row>
-    <row r="235" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="235" spans="1:21" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -17504,17 +16578,14 @@
       <c r="S235" s="1"/>
       <c r="T235" s="1"/>
       <c r="U235" s="1"/>
-      <c r="V235" s="1"/>
-      <c r="W235" s="1"/>
-      <c r="X235" s="1"/>
-    </row>
-    <row r="236" spans="1:24" ht="15.75" customHeight="1">
+    </row>
+    <row r="236" spans="1:21" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -17530,14 +16601,11 @@
       <c r="S236" s="1"/>
       <c r="T236" s="1"/>
       <c r="U236" s="1"/>
-      <c r="V236" s="1"/>
-      <c r="W236" s="1"/>
-      <c r="X236" s="1"/>
-    </row>
-    <row r="237" spans="1:24" ht="15.75" customHeight="1"/>
-    <row r="238" spans="1:24" ht="15.75" customHeight="1"/>
-    <row r="239" spans="1:24" ht="15.75" customHeight="1"/>
-    <row r="240" spans="1:24" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="237" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="238" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:21" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -18296,14 +17364,15 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:G38">
-    <filterColumn colId="5">
+  <autoFilter ref="A7:E38">
+    <filterColumn colId="3">
       <filters>
         <filter val="현태"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="B2:E3"/>
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B36:B37"/>
@@ -18314,7 +17383,6 @@
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B2:G3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$A$7:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -426,9 +426,6 @@
 네비게이션 메뉴(세미나존정보, 세미나(조회, 등록))</t>
   </si>
   <si>
-    <t>로그인하여 세미나존 예약 및 세미나 참여, 등록</t>
-  </si>
-  <si>
     <t>세미나존 정보, 세미나존 예약, 세미나 등록</t>
   </si>
   <si>
@@ -650,11 +647,15 @@
     <t>세미나존 예약</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>로그인하여 세미나존 예약 및 세미나 참여, 등록, 아이디, 비밀번호 찾기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -1392,6 +1393,75 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,25 +1528,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,73 +1553,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1772,11 +1773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF997"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -1832,21 +1833,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="86"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="109"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1868,19 +1869,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2025,12 +2026,12 @@
       <c r="F7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="90" t="s">
+      <c r="G7" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -2065,19 +2066,19 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="98"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="51" t="s">
         <v>94</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -2113,19 +2114,19 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="95" t="s">
+      <c r="A9" s="115"/>
+      <c r="B9" s="118" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="E9" s="52"/>
       <c r="F9" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -2161,8 +2162,8 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="35" t="s">
         <v>20</v>
       </c>
@@ -2171,7 +2172,7 @@
       </c>
       <c r="E10" s="56"/>
       <c r="F10" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2207,17 +2208,17 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="48">
-      <c r="A11" s="92"/>
-      <c r="B11" s="95"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2253,8 +2254,8 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="95"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="80" t="s">
         <v>26</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>84</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="4"/>
@@ -2293,19 +2294,19 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="102" t="s">
+      <c r="A13" s="115"/>
+      <c r="B13" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="51" t="s">
         <v>97</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>98</v>
       </c>
       <c r="E13" s="56"/>
       <c r="F13" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2341,17 +2342,17 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="103"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>99</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>100</v>
       </c>
       <c r="E14" s="56"/>
       <c r="F14" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2381,17 +2382,17 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="36">
-      <c r="A15" s="92"/>
-      <c r="B15" s="103"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2421,17 +2422,17 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="104"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="51" t="s">
         <v>113</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>114</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2461,8 +2462,8 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="94" t="s">
+      <c r="A17" s="115"/>
+      <c r="B17" s="117" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="37" t="s">
@@ -2509,13 +2510,13 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="33.6" customHeight="1">
-      <c r="A18" s="92"/>
-      <c r="B18" s="94"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="59" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="57" t="s">
@@ -2555,8 +2556,8 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A19" s="92"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="59" t="s">
         <v>64</v>
       </c>
@@ -2601,8 +2602,8 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="92"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="59" t="s">
         <v>66</v>
       </c>
@@ -2611,7 +2612,7 @@
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -2647,17 +2648,17 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A21" s="92"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="60" t="s">
         <v>115</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>116</v>
       </c>
       <c r="E21" s="62"/>
       <c r="F21" s="62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -2687,8 +2688,8 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="80" t="s">
         <v>33</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>89</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="75"/>
       <c r="G22" s="14"/>
@@ -2727,15 +2728,15 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A23" s="92"/>
-      <c r="B23" s="99" t="s">
+      <c r="A23" s="115"/>
+      <c r="B23" s="122" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="63" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="57"/>
@@ -2767,13 +2768,13 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A24" s="92"/>
-      <c r="B24" s="100"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="123"/>
       <c r="C24" s="63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="57"/>
@@ -2805,13 +2806,13 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A25" s="92"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="123"/>
       <c r="C25" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="57"/>
@@ -2843,13 +2844,13 @@
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A26" s="92"/>
-      <c r="B26" s="101"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="124"/>
       <c r="C26" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="64" t="s">
         <v>111</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>112</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="57"/>
@@ -2881,15 +2882,15 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="91" t="s">
-        <v>109</v>
+      <c r="A27" s="115"/>
+      <c r="B27" s="114" t="s">
+        <v>108</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="11" t="s">
@@ -2929,17 +2930,17 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A28" s="93"/>
-      <c r="B28" s="97"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="77" t="s">
         <v>118</v>
-      </c>
-      <c r="D28" s="77" t="s">
-        <v>119</v>
       </c>
       <c r="E28" s="67"/>
       <c r="F28" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -2969,8 +2970,8 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A29" s="93"/>
-      <c r="B29" s="97"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="65" t="s">
         <v>36</v>
       </c>
@@ -3015,7 +3016,7 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="115" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="34" t="s">
@@ -3029,7 +3030,7 @@
       </c>
       <c r="E30" s="62"/>
       <c r="F30" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -3059,7 +3060,7 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A31" s="92"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="34" t="s">
         <v>44</v>
       </c>
@@ -3071,7 +3072,7 @@
       </c>
       <c r="E31" s="62"/>
       <c r="F31" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -3105,7 +3106,7 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A32" s="92"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="35" t="s">
         <v>47</v>
       </c>
@@ -3117,7 +3118,7 @@
       </c>
       <c r="E32" s="62"/>
       <c r="F32" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -3151,15 +3152,15 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A33" s="92"/>
-      <c r="B33" s="91" t="s">
-        <v>145</v>
+      <c r="A33" s="115"/>
+      <c r="B33" s="114" t="s">
+        <v>144</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="44"/>
       <c r="F33" s="44" t="s">
@@ -3193,17 +3194,17 @@
       <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="91"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="114"/>
       <c r="C34" s="71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E34" s="72"/>
       <c r="F34" s="72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G34" s="36"/>
       <c r="H34" s="36"/>
@@ -3233,13 +3234,13 @@
       <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A35" s="92"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="114"/>
       <c r="C35" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="69" t="s">
         <v>123</v>
-      </c>
-      <c r="D35" s="69" t="s">
-        <v>124</v>
       </c>
       <c r="E35" s="44"/>
       <c r="F35" s="44" t="s">
@@ -3273,19 +3274,19 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" ht="45.75" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="96" t="s">
-        <v>101</v>
+      <c r="A36" s="115"/>
+      <c r="B36" s="119" t="s">
+        <v>100</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="62"/>
       <c r="F36" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
@@ -3315,17 +3316,17 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A37" s="92"/>
-      <c r="B37" s="96"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="49" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="62"/>
       <c r="F37" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
@@ -3355,7 +3356,7 @@
       <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="1:32" ht="52.5" customHeight="1">
-      <c r="A38" s="92"/>
+      <c r="A38" s="115"/>
       <c r="B38" s="59" t="s">
         <v>90</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" s="62"/>
       <c r="F38" s="62" t="s">
@@ -3748,7 +3749,7 @@
     <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>71</v>
@@ -3786,7 +3787,7 @@
     <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>72</v>
@@ -10941,11 +10942,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -10983,12 +10984,12 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -11008,10 +11009,10 @@
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -11136,17 +11137,17 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107" t="s">
+      <c r="C8" s="133"/>
+      <c r="D8" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="85">
         <v>1</v>
       </c>
       <c r="F8" s="82"/>
@@ -11167,17 +11168,17 @@
       <c r="U8" s="82"/>
     </row>
     <row r="9" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A9" s="105"/>
-      <c r="B9" s="109" t="s">
+      <c r="A9" s="128"/>
+      <c r="B9" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="85">
         <v>2</v>
       </c>
       <c r="F9" s="82"/>
@@ -11198,15 +11199,15 @@
       <c r="U9" s="82"/>
     </row>
     <row r="10" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="134" t="s">
+      <c r="A10" s="128"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="112">
+      <c r="E10" s="88">
         <v>3</v>
       </c>
       <c r="F10" s="82"/>
@@ -11227,15 +11228,15 @@
       <c r="U10" s="82"/>
     </row>
     <row r="11" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="134" t="s">
+      <c r="A11" s="128"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="112">
+      <c r="E11" s="88">
         <v>2</v>
       </c>
       <c r="F11" s="82"/>
@@ -11256,13 +11257,13 @@
       <c r="U11" s="82"/>
     </row>
     <row r="12" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="134" t="s">
+      <c r="A12" s="128"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="112"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
       <c r="H12" s="82"/>
@@ -11281,17 +11282,17 @@
       <c r="U12" s="82"/>
     </row>
     <row r="13" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="111" t="s">
+      <c r="A13" s="128"/>
+      <c r="B13" s="134" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="88">
         <v>3</v>
       </c>
       <c r="F13" s="82"/>
@@ -11312,15 +11313,15 @@
       <c r="U13" s="82"/>
     </row>
     <row r="14" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="111" t="s">
+      <c r="A14" s="128"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="88">
         <v>4</v>
       </c>
       <c r="F14" s="82"/>
@@ -11341,15 +11342,15 @@
       <c r="U14" s="82"/>
     </row>
     <row r="15" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="135" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="111" t="s">
+      <c r="A15" s="128"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="103" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="112">
+      <c r="E15" s="88">
         <v>1</v>
       </c>
       <c r="F15" s="82"/>
@@ -11370,15 +11371,15 @@
       <c r="U15" s="82"/>
     </row>
     <row r="16" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="136" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="111" t="s">
+      <c r="A16" s="128"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="112">
+      <c r="E16" s="88">
         <v>6</v>
       </c>
       <c r="F16" s="82"/>
@@ -11399,17 +11400,17 @@
       <c r="U16" s="82"/>
     </row>
     <row r="17" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="136" t="s">
+      <c r="A17" s="128"/>
+      <c r="B17" s="137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="112">
+      <c r="E17" s="88">
         <v>1</v>
       </c>
       <c r="F17" s="82"/>
@@ -11430,15 +11431,15 @@
       <c r="U17" s="82"/>
     </row>
     <row r="18" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="134" t="s">
+      <c r="A18" s="128"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="112">
+      <c r="E18" s="88">
         <v>2</v>
       </c>
       <c r="F18" s="82"/>
@@ -11459,15 +11460,15 @@
       <c r="U18" s="82"/>
     </row>
     <row r="19" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="134" t="s">
+      <c r="A19" s="128"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="119">
+      <c r="E19" s="91">
         <v>3</v>
       </c>
       <c r="F19" s="82"/>
@@ -11488,15 +11489,15 @@
       <c r="U19" s="82"/>
     </row>
     <row r="20" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="118" t="s">
+      <c r="A20" s="128"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="102" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="119">
+      <c r="E20" s="91">
         <v>5</v>
       </c>
       <c r="F20" s="82"/>
@@ -11517,15 +11518,15 @@
       <c r="U20" s="82"/>
     </row>
     <row r="21" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A21" s="105"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="134" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="118" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="119">
+      <c r="A21" s="128"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="91">
         <v>4</v>
       </c>
       <c r="F21" s="82"/>
@@ -11546,13 +11547,13 @@
       <c r="U21" s="82"/>
     </row>
     <row r="22" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="134" t="s">
+      <c r="A22" s="128"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="82"/>
       <c r="G22" s="82"/>
       <c r="H22" s="82"/>
@@ -11571,15 +11572,15 @@
       <c r="U22" s="82"/>
     </row>
     <row r="23" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A23" s="105"/>
-      <c r="B23" s="113" t="s">
+      <c r="A23" s="128"/>
+      <c r="B23" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="134" t="s">
+      <c r="C23" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="111"/>
-      <c r="E23" s="121"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
       <c r="H23" s="82"/>
@@ -11598,13 +11599,13 @@
       <c r="U23" s="82"/>
     </row>
     <row r="24" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A24" s="105"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="134" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="121"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
       <c r="H24" s="82"/>
@@ -11623,13 +11624,13 @@
       <c r="U24" s="82"/>
     </row>
     <row r="25" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="134" t="s">
+      <c r="A25" s="128"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="121"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="82"/>
       <c r="G25" s="82"/>
       <c r="H25" s="82"/>
@@ -11648,13 +11649,13 @@
       <c r="U25" s="82"/>
     </row>
     <row r="26" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A26" s="105"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="134" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="121"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="87"/>
+      <c r="E26" s="93"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82"/>
       <c r="H26" s="82"/>
@@ -11673,17 +11674,17 @@
       <c r="U26" s="82"/>
     </row>
     <row r="27" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="105"/>
-      <c r="B27" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="122" t="s">
+      <c r="A27" s="128"/>
+      <c r="B27" s="129" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="121">
+      <c r="E27" s="93">
         <v>1</v>
       </c>
       <c r="F27" s="82"/>
@@ -11704,15 +11705,15 @@
       <c r="U27" s="82"/>
     </row>
     <row r="28" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="123"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="137" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="125" t="s">
+      <c r="A28" s="132"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="121">
+      <c r="E28" s="93">
         <v>2</v>
       </c>
       <c r="F28" s="82"/>
@@ -11733,15 +11734,15 @@
       <c r="U28" s="82"/>
     </row>
     <row r="29" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="123"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="137" t="s">
+      <c r="A29" s="132"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="121">
+      <c r="E29" s="93">
         <v>3</v>
       </c>
       <c r="F29" s="82"/>
@@ -11762,19 +11763,19 @@
       <c r="U29" s="82"/>
     </row>
     <row r="30" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="126" t="s">
+      <c r="D30" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="119">
+      <c r="E30" s="91">
         <v>7</v>
       </c>
       <c r="F30" s="82"/>
@@ -11795,17 +11796,17 @@
       <c r="U30" s="82"/>
     </row>
     <row r="31" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="116" t="s">
+      <c r="A31" s="128"/>
+      <c r="B31" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="136" t="s">
+      <c r="C31" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="118" t="s">
+      <c r="D31" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="127">
+      <c r="E31" s="97">
         <v>4</v>
       </c>
       <c r="F31" s="82"/>
@@ -11826,17 +11827,17 @@
       <c r="U31" s="82"/>
     </row>
     <row r="32" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="128" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="136" t="s">
+      <c r="A32" s="128"/>
+      <c r="B32" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="118" t="s">
+      <c r="D32" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="129">
+      <c r="E32" s="99">
         <v>5</v>
       </c>
       <c r="F32" s="82"/>
@@ -11857,17 +11858,17 @@
       <c r="U32" s="82"/>
     </row>
     <row r="33" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="109" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="136" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="126" t="s">
+      <c r="A33" s="128"/>
+      <c r="B33" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="129">
+      <c r="E33" s="99">
         <v>4</v>
       </c>
       <c r="F33" s="82"/>
@@ -11888,15 +11889,15 @@
       <c r="U33" s="82"/>
     </row>
     <row r="34" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="136" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="126" t="s">
+      <c r="A34" s="128"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="129">
+      <c r="E34" s="99">
         <v>5</v>
       </c>
       <c r="F34" s="82"/>
@@ -11917,15 +11918,15 @@
       <c r="U34" s="82"/>
     </row>
     <row r="35" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="136" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="126" t="s">
+      <c r="A35" s="128"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="129">
+      <c r="E35" s="99">
         <v>6</v>
       </c>
       <c r="F35" s="82"/>
@@ -11946,17 +11947,17 @@
       <c r="U35" s="82"/>
     </row>
     <row r="36" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A36" s="105"/>
+      <c r="A36" s="128"/>
       <c r="B36" s="130" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="136" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="131">
+      <c r="E36" s="100">
         <v>6</v>
       </c>
       <c r="F36" s="82"/>
@@ -11977,15 +11978,15 @@
       <c r="U36" s="82"/>
     </row>
     <row r="37" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A37" s="105"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="136" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="118" t="s">
+      <c r="A37" s="128"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="131">
+      <c r="E37" s="100">
         <v>8</v>
       </c>
       <c r="F37" s="82"/>
@@ -12006,17 +12007,17 @@
       <c r="U37" s="82"/>
     </row>
     <row r="38" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="110" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="138" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="118" t="s">
+      <c r="A38" s="128"/>
+      <c r="B38" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="131">
+      <c r="E38" s="100">
         <v>5</v>
       </c>
       <c r="F38" s="82"/>
@@ -12265,7 +12266,7 @@
     <row r="49" spans="1:21" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>71</v>
@@ -12292,7 +12293,7 @@
     <row r="50" spans="1:21" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>72</v>
@@ -17391,7 +17392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,15 @@
     <sheet name="조원 역할 분배" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$A$7:$E$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$A$7:$E$39</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="157">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -442,9 +442,6 @@
     <t>세미나존에 대한 문의 가능, 문의에 대한 답변은 관리자가 작성하며 마이페이지에서 확인 가능</t>
   </si>
   <si>
-    <t>세미나존 예약 및 주최 세미나 관련</t>
-  </si>
-  <si>
     <t>세미나존</t>
   </si>
   <si>
@@ -607,11 +604,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>세미나 확인
-및 세미나 예약</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>세미나 참가 관리</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -640,10 +632,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>세미나존 정보 세미나존 예약</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>세미나존 예약</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -651,11 +639,46 @@
     <t>로그인하여 세미나존 예약 및 세미나 참여, 등록, 아이디, 비밀번호 찾기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>진행율</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 정보 세미나존 예약</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나 확인 및 세미나 예약</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면
+컨텐츠 관리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존 예약
+및
+주최세미나 관련</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -812,7 +835,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,30 +862,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1109,26 +1114,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1141,12 +1126,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1247,19 +1332,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1290,14 +1363,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,26 +1372,11 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1338,31 +1390,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1374,93 +1405,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1483,28 +1469,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1516,46 +1484,193 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1773,20 +1888,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="87.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="24.140625" hidden="1" customWidth="1"/>
@@ -1833,21 +1949,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="109"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1869,19 +1985,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2008,30 +2124,30 @@
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="1:32" ht="27.75" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -2065,20 +2181,20 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A8" s="115" t="s">
+    <row r="8" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
+      <c r="A8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="134"/>
+      <c r="D8" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53" t="s">
-        <v>131</v>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47" t="s">
+        <v>130</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -2113,20 +2229,20 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="118" t="s">
+    <row r="9" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
+      <c r="A9" s="81"/>
+      <c r="B9" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53" t="s">
-        <v>131</v>
+      <c r="D9" s="137" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47" t="s">
+        <v>130</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -2162,17 +2278,17 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="115"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="35" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57" t="s">
-        <v>132</v>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2207,18 +2323,18 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="48">
-      <c r="A11" s="115"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="35" t="s">
+    <row r="11" spans="1:32" ht="72">
+      <c r="A11" s="81"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57" t="s">
-        <v>132</v>
+      <c r="D11" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2253,19 +2369,19 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:32" ht="33.75" customHeight="1">
-      <c r="A12" s="115"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="80" t="s">
+    <row r="12" spans="1:32" ht="33.75" hidden="1" customHeight="1">
+      <c r="A12" s="81"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="57"/>
+      <c r="E12" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="49"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2293,20 +2409,20 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A13" s="115"/>
-      <c r="B13" s="125" t="s">
+    <row r="13" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
+      <c r="A13" s="81"/>
+      <c r="B13" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57" t="s">
-        <v>131</v>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49" t="s">
+        <v>130</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2342,17 +2458,17 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="115"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="35" t="s">
+      <c r="A14" s="81"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57" t="s">
-        <v>132</v>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2381,18 +2497,18 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="1:32" ht="36">
-      <c r="A15" s="115"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="51" t="s">
+    <row r="15" spans="1:32" ht="48">
+      <c r="A15" s="81"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57" t="s">
-        <v>132</v>
+      <c r="D15" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2422,17 +2538,17 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="115"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="54" t="s">
+      <c r="A16" s="81"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57" t="s">
-        <v>132</v>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2461,19 +2577,19 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A17" s="115"/>
-      <c r="B17" s="117" t="s">
+    <row r="17" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
+      <c r="A17" s="81"/>
+      <c r="B17" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57" t="s">
+      <c r="E17" s="48"/>
+      <c r="F17" s="49" t="s">
         <v>75</v>
       </c>
       <c r="G17" s="4"/>
@@ -2509,17 +2625,17 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" ht="33.6" customHeight="1">
-      <c r="A18" s="115"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="59" t="s">
+    <row r="18" spans="1:32" ht="33.6" hidden="1" customHeight="1">
+      <c r="A18" s="81"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57" t="s">
+      <c r="D18" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49" t="s">
         <v>76</v>
       </c>
       <c r="G18" s="4"/>
@@ -2555,17 +2671,17 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A19" s="115"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="59" t="s">
+    <row r="19" spans="1:32" ht="28.9" hidden="1" customHeight="1">
+      <c r="A19" s="81"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62" t="s">
+      <c r="E19" s="50"/>
+      <c r="F19" s="51" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="22"/>
@@ -2602,17 +2718,17 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="115"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="59" t="s">
+      <c r="A20" s="81"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62" t="s">
-        <v>127</v>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51" t="s">
+        <v>126</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -2647,25 +2763,25 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
     </row>
-    <row r="21" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="59" t="s">
+    <row r="21" spans="1:32" ht="28.9" hidden="1" customHeight="1">
+      <c r="A21" s="81"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="s">
-        <v>128</v>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51" t="s">
+        <v>127</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="26"/>
       <c r="J21" s="22"/>
       <c r="K21" s="31"/>
-      <c r="L21" s="36"/>
+      <c r="L21" s="34"/>
       <c r="M21" s="25"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -2687,25 +2803,25 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
     </row>
-    <row r="22" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A22" s="115"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="80" t="s">
+    <row r="22" spans="1:32" ht="28.9" hidden="1" customHeight="1">
+      <c r="A22" s="81"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="75"/>
+      <c r="E22" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="57"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="27"/>
       <c r="J22" s="17"/>
       <c r="K22" s="19"/>
-      <c r="L22" s="76"/>
+      <c r="L22" s="58"/>
       <c r="M22" s="7"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -2727,19 +2843,19 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
     </row>
-    <row r="23" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="122" t="s">
+    <row r="23" spans="1:32" ht="28.9" hidden="1" customHeight="1">
+      <c r="A23" s="81"/>
+      <c r="B23" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
+      <c r="D23" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="27"/>
@@ -2767,17 +2883,17 @@
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
     </row>
-    <row r="24" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A24" s="115"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
+    <row r="24" spans="1:32" ht="28.9" hidden="1" customHeight="1">
+      <c r="A24" s="81"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="27"/>
@@ -2805,17 +2921,17 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
     </row>
-    <row r="25" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A25" s="115"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="63" t="s">
+    <row r="25" spans="1:32" ht="28.9" hidden="1" customHeight="1">
+      <c r="A25" s="81"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
+      <c r="D25" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="27"/>
@@ -2843,17 +2959,17 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
     </row>
-    <row r="26" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A26" s="115"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="63" t="s">
+    <row r="26" spans="1:32" ht="28.9" hidden="1" customHeight="1">
+      <c r="A26" s="81"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="27"/>
@@ -2881,18 +2997,18 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
     </row>
-    <row r="27" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A27" s="115"/>
-      <c r="B27" s="114" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="56"/>
+    <row r="27" spans="1:32" ht="28.9" hidden="1" customHeight="1">
+      <c r="A27" s="81"/>
+      <c r="B27" s="135" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="48"/>
       <c r="F27" s="11" t="s">
         <v>78</v>
       </c>
@@ -2929,27 +3045,27 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
     </row>
-    <row r="28" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A28" s="116"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="73" t="s">
+    <row r="28" spans="1:32" ht="28.9" hidden="1" customHeight="1">
+      <c r="A28" s="82"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="78"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="59"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="79"/>
+      <c r="N28" s="60"/>
       <c r="O28" s="6"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2969,25 +3085,25 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
     </row>
-    <row r="29" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A29" s="116"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="65" t="s">
+    <row r="29" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
+      <c r="A29" s="82"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="39" t="s">
+      <c r="E29" s="54"/>
+      <c r="F29" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="43"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
       <c r="M29" s="7">
         <v>2</v>
       </c>
@@ -3016,28 +3132,28 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="44" t="s">
-        <v>132</v>
+      <c r="E30" s="51"/>
+      <c r="F30" s="40" t="s">
+        <v>131</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="36"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="34"/>
       <c r="M30" s="25"/>
       <c r="N30" s="2"/>
       <c r="O30" s="5"/>
@@ -3059,27 +3175,27 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
     </row>
-    <row r="31" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A31" s="115"/>
-      <c r="B31" s="34" t="s">
+    <row r="31" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
+      <c r="A31" s="81"/>
+      <c r="B31" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62" t="s">
-        <v>134</v>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51" t="s">
+        <v>133</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
       <c r="M31" s="25">
         <v>3</v>
       </c>
@@ -3105,27 +3221,27 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
     </row>
-    <row r="32" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A32" s="115"/>
-      <c r="B32" s="35" t="s">
+    <row r="32" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
+      <c r="A32" s="81"/>
+      <c r="B32" s="146" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62" t="s">
-        <v>135</v>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51" t="s">
+        <v>134</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="36"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="34"/>
       <c r="M32" s="25">
         <v>3</v>
       </c>
@@ -3151,27 +3267,27 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
     </row>
-    <row r="33" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A33" s="115"/>
-      <c r="B33" s="114" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44" t="s">
+    <row r="33" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
+      <c r="A33" s="81"/>
+      <c r="B33" s="135" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -3193,25 +3309,25 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
     </row>
-    <row r="34" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A34" s="115"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
+    <row r="34" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
+      <c r="A34" s="81"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -3233,25 +3349,25 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
     </row>
-    <row r="35" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="37" t="s">
+    <row r="35" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
+      <c r="A35" s="81"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="138" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44" t="s">
+      <c r="E35" s="40"/>
+      <c r="F35" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -3273,26 +3389,26 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="1:32" ht="45.75" customHeight="1">
-      <c r="A36" s="115"/>
-      <c r="B36" s="119" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="49" t="s">
+    <row r="36" spans="1:32" ht="45.75" hidden="1" customHeight="1">
+      <c r="A36" s="81"/>
+      <c r="B36" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
       <c r="L36" s="15"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3316,23 +3432,23 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A37" s="115"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="49" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
       <c r="L37" s="15"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3355,27 +3471,27 @@
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
     </row>
-    <row r="38" spans="1:32" ht="52.5" customHeight="1">
-      <c r="A38" s="115"/>
-      <c r="B38" s="59" t="s">
+    <row r="38" spans="1:32" ht="52.5" hidden="1" customHeight="1">
+      <c r="A38" s="81"/>
+      <c r="B38" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62" t="s">
+      <c r="D38" s="145" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51" t="s">
         <v>52</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="48"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="44"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3749,7 +3865,7 @@
     <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>71</v>
@@ -3787,7 +3903,7 @@
     <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>72</v>
@@ -10916,7 +11032,12 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:O32">
+  <autoFilter ref="A7:O38">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="형준"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
     <filterColumn colId="9" hiddenButton="1" showButton="0"/>
@@ -10942,12 +11063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U997"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U998"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -10984,12 +11104,12 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -11009,10 +11129,10 @@
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -11104,22 +11224,24 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" ht="27.75" customHeight="1">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="30" t="s">
+        <v>149</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -11136,929 +11258,949 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A8" s="128" t="s">
+    <row r="8" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="84" t="s">
+      <c r="C8" s="97"/>
+      <c r="D8" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="87">
         <v>1</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-    </row>
-    <row r="9" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129" t="s">
+      <c r="F8" s="132">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+    </row>
+    <row r="9" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A9" s="91"/>
+      <c r="B9" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="85">
+      <c r="D9" s="101"/>
+      <c r="E9" s="87">
         <v>2</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-    </row>
-    <row r="10" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A10" s="128"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>55</v>
-      </c>
+      <c r="F9" s="132">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+    </row>
+    <row r="10" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="92"/>
+      <c r="B10" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="101"/>
       <c r="E10" s="88">
         <v>3</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-    </row>
-    <row r="11" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="102" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+    </row>
+    <row r="11" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="101"/>
+      <c r="E11" s="88">
+        <v>4</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+    </row>
+    <row r="12" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="91"/>
+      <c r="B12" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="101"/>
+      <c r="E12" s="88">
+        <v>5</v>
+      </c>
+      <c r="F12" s="90"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+    </row>
+    <row r="13" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A13" s="106"/>
+      <c r="B13" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="109"/>
+      <c r="E13" s="110">
+        <v>6</v>
+      </c>
+      <c r="F13" s="111"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+    </row>
+    <row r="14" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A14" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="116">
+        <v>1</v>
+      </c>
+      <c r="F14" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+    </row>
+    <row r="15" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="91"/>
+      <c r="B15" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="102"/>
+      <c r="E15" s="88">
+        <v>2</v>
+      </c>
+      <c r="F15" s="90"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+    </row>
+    <row r="16" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="102"/>
+      <c r="E16" s="88">
+        <v>3</v>
+      </c>
+      <c r="F16" s="90"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+    </row>
+    <row r="17" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="102"/>
+      <c r="E17" s="89">
+        <v>5</v>
+      </c>
+      <c r="F17" s="90"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+    </row>
+    <row r="18" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A18" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="121"/>
+      <c r="E18" s="122">
+        <v>4</v>
+      </c>
+      <c r="F18" s="111"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+    </row>
+    <row r="19" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A19" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="124" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="116">
+        <v>1</v>
+      </c>
+      <c r="F19" s="125">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+    </row>
+    <row r="20" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="91"/>
+      <c r="B20" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="91"/>
+      <c r="E20" s="88">
+        <v>2</v>
+      </c>
+      <c r="F20" s="90"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+    </row>
+    <row r="21" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="91"/>
+      <c r="E21" s="88">
+        <v>3</v>
+      </c>
+      <c r="F21" s="90"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+    </row>
+    <row r="22" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A22" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="91"/>
+      <c r="E22" s="88">
+        <v>4</v>
+      </c>
+      <c r="F22" s="90"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+    </row>
+    <row r="23" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A23" s="91"/>
+      <c r="B23" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="91"/>
+      <c r="E23" s="88">
+        <v>5</v>
+      </c>
+      <c r="F23" s="90"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+    </row>
+    <row r="24" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A24" s="106"/>
+      <c r="B24" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="106"/>
+      <c r="E24" s="122">
+        <v>6</v>
+      </c>
+      <c r="F24" s="111"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+    </row>
+    <row r="25" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A25" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="116">
+        <v>3</v>
+      </c>
+      <c r="F25" s="117"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+    </row>
+    <row r="26" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="91"/>
+      <c r="B26" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="88">
+      <c r="D26" s="102"/>
+      <c r="E26" s="88">
         <v>2</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-    </row>
-    <row r="12" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A12" s="128"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="102" t="s">
+      <c r="F26" s="90"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+    </row>
+    <row r="27" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="91"/>
+      <c r="B27" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="102"/>
+      <c r="E27" s="88">
+        <v>4</v>
+      </c>
+      <c r="F27" s="90"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+    </row>
+    <row r="28" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="91"/>
+      <c r="B28" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="102"/>
+      <c r="E28" s="88">
+        <v>1</v>
+      </c>
+      <c r="F28" s="90"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+    </row>
+    <row r="29" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="91"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="102"/>
+      <c r="E29" s="88">
+        <v>6</v>
+      </c>
+      <c r="F29" s="90"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+    </row>
+    <row r="30" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="92"/>
+      <c r="B30" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="102"/>
+      <c r="E30" s="88">
+        <v>5</v>
+      </c>
+      <c r="F30" s="90"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+    </row>
+    <row r="31" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="102"/>
+      <c r="E31" s="88">
+        <v>7</v>
+      </c>
+      <c r="F31" s="90"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="61"/>
+    </row>
+    <row r="32" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A32" s="106"/>
+      <c r="B32" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="121"/>
+      <c r="E32" s="110">
+        <v>8</v>
+      </c>
+      <c r="F32" s="111"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="61"/>
+    </row>
+    <row r="33" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A33" s="95"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+    </row>
+    <row r="34" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A34" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="104"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+    </row>
+    <row r="35" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A35" s="91"/>
+      <c r="B35" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="102"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+    </row>
+    <row r="36" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A36" s="91"/>
+      <c r="B36" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="102"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+    </row>
+    <row r="37" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A37" s="91"/>
+      <c r="B37" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="102"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+    </row>
+    <row r="38" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A38" s="91"/>
+      <c r="B38" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="102"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+    </row>
+    <row r="39" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A39" s="92"/>
+      <c r="B39" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-    </row>
-    <row r="13" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A13" s="128"/>
-      <c r="B13" s="134" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="88">
-        <v>3</v>
-      </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-    </row>
-    <row r="14" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A14" s="128"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="88">
-        <v>4</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-    </row>
-    <row r="15" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A15" s="128"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="103" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="88">
-        <v>1</v>
-      </c>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-    </row>
-    <row r="16" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A16" s="128"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="88">
-        <v>6</v>
-      </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-    </row>
-    <row r="17" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A17" s="128"/>
-      <c r="B17" s="137" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="88">
-        <v>1</v>
-      </c>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-    </row>
-    <row r="18" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A18" s="128"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="88">
-        <v>2</v>
-      </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-    </row>
-    <row r="19" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A19" s="128"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="91">
-        <v>3</v>
-      </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-    </row>
-    <row r="20" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A20" s="128"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="102" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="91">
-        <v>5</v>
-      </c>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-    </row>
-    <row r="21" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A21" s="128"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="102" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="91">
-        <v>4</v>
-      </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-    </row>
-    <row r="22" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A22" s="128"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-    </row>
-    <row r="23" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A23" s="128"/>
-      <c r="B23" s="134" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-    </row>
-    <row r="24" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A24" s="128"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-    </row>
-    <row r="25" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A25" s="128"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-    </row>
-    <row r="26" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A26" s="128"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-    </row>
-    <row r="27" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="128"/>
-      <c r="B27" s="129" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="104" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="93">
-        <v>1</v>
-      </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-    </row>
-    <row r="28" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="132"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="93">
-        <v>2</v>
-      </c>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-    </row>
-    <row r="29" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="132"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="93">
-        <v>3</v>
-      </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-    </row>
-    <row r="30" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A30" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="91">
-        <v>7</v>
-      </c>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-    </row>
-    <row r="31" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A31" s="128"/>
-      <c r="B31" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="97">
-        <v>4</v>
-      </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-    </row>
-    <row r="32" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A32" s="128"/>
-      <c r="B32" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="99">
-        <v>5</v>
-      </c>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-    </row>
-    <row r="33" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A33" s="128"/>
-      <c r="B33" s="129" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="99">
-        <v>4</v>
-      </c>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="82"/>
-    </row>
-    <row r="34" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="128"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="99">
-        <v>5</v>
-      </c>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="82"/>
-    </row>
-    <row r="35" spans="1:21" s="83" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="128"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="99">
-        <v>6</v>
-      </c>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-    </row>
-    <row r="36" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A36" s="128"/>
-      <c r="B36" s="130" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" s="104" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="100">
-        <v>6</v>
-      </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-    </row>
-    <row r="37" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A37" s="128"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="100">
-        <v>8</v>
-      </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="82"/>
-      <c r="U37" s="82"/>
-    </row>
-    <row r="38" spans="1:21" s="83" customFormat="1" ht="16.5" hidden="1" customHeight="1">
-      <c r="A38" s="128"/>
-      <c r="B38" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="100">
-        <v>5</v>
-      </c>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="82"/>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="61"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
@@ -12085,6 +12227,8 @@
     </row>
     <row r="41" spans="1:21" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -12190,8 +12334,6 @@
     </row>
     <row r="46" spans="1:21" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -12214,9 +12356,7 @@
     <row r="47" spans="1:21" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -12238,11 +12378,9 @@
     </row>
     <row r="48" spans="1:21" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="33" t="s">
-        <v>70</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="1"/>
@@ -12265,11 +12403,11 @@
     </row>
     <row r="49" spans="1:21" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="2" t="s">
-        <v>101</v>
+      <c r="B49" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1"/>
@@ -12292,11 +12430,11 @@
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="32" t="s">
-        <v>102</v>
+      <c r="B50" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1"/>
@@ -12319,11 +12457,11 @@
     </row>
     <row r="51" spans="1:21" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
-        <v>92</v>
+      <c r="B51" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="1"/>
@@ -12347,10 +12485,10 @@
     <row r="52" spans="1:21" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="1"/>
@@ -12373,8 +12511,12 @@
     </row>
     <row r="53" spans="1:21" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -16603,7 +16745,29 @@
       <c r="T236" s="1"/>
       <c r="U236" s="1"/>
     </row>
-    <row r="237" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="237" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A237" s="1"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+    </row>
     <row r="238" spans="1:21" ht="15.75" customHeight="1"/>
     <row r="239" spans="1:21" ht="15.75" customHeight="1"/>
     <row r="240" spans="1:21" ht="15.75" customHeight="1"/>
@@ -17364,26 +17528,28 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:E38">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="현태"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="11">
+  <autoFilter ref="A7:E39"/>
+  <sortState ref="A8:F38">
+    <sortCondition ref="D8:D38"/>
+  </sortState>
+  <mergeCells count="15">
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A34:A39"/>
     <mergeCell ref="B2:E3"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A8:A29"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D8:D13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -17392,7 +17558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21630" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="14910" yWindow="615" windowWidth="13965" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$A$7:$E$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$A$7:$E$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="158">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -674,6 +674,10 @@
 주최세미나 관련</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1231,7 +1235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1448,6 +1452,90 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1469,10 +1557,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1484,34 +1590,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1520,157 +1623,31 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1949,21 +1926,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1985,19 +1962,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2142,12 +2119,12 @@
       <c r="F7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -2182,13 +2159,13 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="134"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="53" t="s">
         <v>94</v>
       </c>
@@ -2230,14 +2207,14 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="135" t="s">
+      <c r="A9" s="110"/>
+      <c r="B9" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="94" t="s">
         <v>148</v>
       </c>
       <c r="E9" s="46"/>
@@ -2278,8 +2255,8 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="52" t="s">
         <v>20</v>
       </c>
@@ -2324,8 +2301,8 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="72">
-      <c r="A11" s="81"/>
-      <c r="B11" s="135"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="52" t="s">
         <v>23</v>
       </c>
@@ -2370,8 +2347,8 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" hidden="1" customHeight="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="135"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="52" t="s">
         <v>26</v>
       </c>
@@ -2410,8 +2387,8 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A13" s="81"/>
-      <c r="B13" s="83" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="117" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -2458,8 +2435,8 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="81"/>
-      <c r="B14" s="84"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="118"/>
       <c r="C14" s="52" t="s">
         <v>98</v>
       </c>
@@ -2498,9 +2475,9 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="48">
-      <c r="A15" s="81"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="138" t="s">
+      <c r="A15" s="110"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="95" t="s">
         <v>129</v>
       </c>
       <c r="D15" s="53" t="s">
@@ -2538,9 +2515,9 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="138" t="s">
+      <c r="A16" s="110"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="95" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="53" t="s">
@@ -2578,11 +2555,11 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A17" s="81"/>
-      <c r="B17" s="139" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="138" t="s">
+      <c r="C17" s="95" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="53" t="s">
@@ -2626,8 +2603,8 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="33.6" hidden="1" customHeight="1">
-      <c r="A18" s="81"/>
-      <c r="B18" s="139"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="52" t="s">
         <v>88</v>
       </c>
@@ -2672,12 +2649,12 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A19" s="81"/>
-      <c r="B19" s="139"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="140" t="s">
+      <c r="D19" s="96" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="50"/>
@@ -2718,12 +2695,12 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="81"/>
-      <c r="B20" s="139"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="140" t="s">
+      <c r="D20" s="96" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="50"/>
@@ -2764,12 +2741,12 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A21" s="81"/>
-      <c r="B21" s="139"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="140" t="s">
+      <c r="D21" s="96" t="s">
         <v>114</v>
       </c>
       <c r="E21" s="51"/>
@@ -2804,8 +2781,8 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A22" s="81"/>
-      <c r="B22" s="139"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="52" t="s">
         <v>33</v>
       </c>
@@ -2844,8 +2821,8 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A23" s="81"/>
-      <c r="B23" s="83" t="s">
+      <c r="A23" s="110"/>
+      <c r="B23" s="117" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="52" t="s">
@@ -2884,8 +2861,8 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="52" t="s">
         <v>104</v>
       </c>
@@ -2922,8 +2899,8 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A25" s="81"/>
-      <c r="B25" s="84"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="118"/>
       <c r="C25" s="52" t="s">
         <v>82</v>
       </c>
@@ -2960,8 +2937,8 @@
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A26" s="81"/>
-      <c r="B26" s="85"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="52" t="s">
         <v>109</v>
       </c>
@@ -2998,11 +2975,11 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A27" s="81"/>
-      <c r="B27" s="135" t="s">
+      <c r="A27" s="110"/>
+      <c r="B27" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="95" t="s">
         <v>115</v>
       </c>
       <c r="D27" s="53" t="s">
@@ -3046,12 +3023,12 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="142" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="143" t="s">
+      <c r="D28" s="98" t="s">
         <v>117</v>
       </c>
       <c r="E28" s="54"/>
@@ -3086,12 +3063,12 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A29" s="82"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="142" t="s">
+      <c r="A29" s="111"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="144" t="s">
+      <c r="D29" s="99" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="54"/>
@@ -3132,16 +3109,16 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="138" t="s">
+      <c r="B30" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="138" t="s">
+      <c r="C30" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="145" t="s">
+      <c r="D30" s="100" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="51"/>
@@ -3176,14 +3153,14 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A31" s="81"/>
-      <c r="B31" s="138" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="138" t="s">
+      <c r="C31" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="137" t="s">
+      <c r="D31" s="94" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="51"/>
@@ -3222,14 +3199,14 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A32" s="81"/>
-      <c r="B32" s="146" t="s">
+      <c r="A32" s="110"/>
+      <c r="B32" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="138" t="s">
+      <c r="C32" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="140" t="s">
+      <c r="D32" s="96" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="51"/>
@@ -3268,14 +3245,14 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A33" s="81"/>
-      <c r="B33" s="135" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="138" t="s">
+      <c r="C33" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="137" t="s">
+      <c r="D33" s="94" t="s">
         <v>124</v>
       </c>
       <c r="E33" s="40"/>
@@ -3310,12 +3287,12 @@
       <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A34" s="81"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="138" t="s">
+      <c r="A34" s="110"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="137" t="s">
+      <c r="D34" s="94" t="s">
         <v>123</v>
       </c>
       <c r="E34" s="55"/>
@@ -3350,12 +3327,12 @@
       <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A35" s="81"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="138" t="s">
+      <c r="A35" s="110"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="137" t="s">
+      <c r="D35" s="94" t="s">
         <v>122</v>
       </c>
       <c r="E35" s="40"/>
@@ -3390,14 +3367,14 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" ht="45.75" hidden="1" customHeight="1">
-      <c r="A36" s="81"/>
-      <c r="B36" s="147" t="s">
+      <c r="A36" s="110"/>
+      <c r="B36" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="138" t="s">
+      <c r="C36" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="145" t="s">
+      <c r="D36" s="100" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="51"/>
@@ -3432,12 +3409,12 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A37" s="81"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="138" t="s">
+      <c r="A37" s="110"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="145" t="s">
+      <c r="D37" s="100" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="51"/>
@@ -3472,14 +3449,14 @@
       <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="1:32" ht="52.5" hidden="1" customHeight="1">
-      <c r="A38" s="81"/>
+      <c r="A38" s="110"/>
       <c r="B38" s="52" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="145" t="s">
+      <c r="D38" s="100" t="s">
         <v>137</v>
       </c>
       <c r="E38" s="51"/>
@@ -11064,10 +11041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U998"/>
+  <dimension ref="A1:U997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -11104,12 +11081,12 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -11129,10 +11106,10 @@
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -11259,20 +11236,20 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="100" t="s">
+      <c r="C8" s="130"/>
+      <c r="D8" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="75">
         <v>1</v>
       </c>
-      <c r="F8" s="132">
+      <c r="F8" s="136">
         <v>0.9</v>
       </c>
       <c r="G8" s="61"/>
@@ -11292,18 +11269,18 @@
       <c r="U8" s="61"/>
     </row>
     <row r="9" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="91"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="73" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="87">
+      <c r="D9" s="132"/>
+      <c r="E9" s="75">
         <v>2</v>
       </c>
-      <c r="F9" s="132">
+      <c r="F9" s="136">
         <v>0.8</v>
       </c>
       <c r="G9" s="61"/>
@@ -11323,18 +11300,20 @@
       <c r="U9" s="61"/>
     </row>
     <row r="10" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="92"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="71" t="s">
         <v>150</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="88">
+      <c r="D10" s="132"/>
+      <c r="E10" s="76">
         <v>3</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="136" t="s">
+        <v>157</v>
+      </c>
       <c r="G10" s="61"/>
       <c r="H10" s="61"/>
       <c r="I10" s="61"/>
@@ -11352,7 +11331,7 @@
       <c r="U10" s="61"/>
     </row>
     <row r="11" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="127" t="s">
         <v>153</v>
       </c>
       <c r="B11" s="69" t="s">
@@ -11361,11 +11340,13 @@
       <c r="C11" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="88">
+      <c r="D11" s="132"/>
+      <c r="E11" s="76">
         <v>4</v>
       </c>
-      <c r="F11" s="90"/>
+      <c r="F11" s="136" t="s">
+        <v>157</v>
+      </c>
       <c r="G11" s="61"/>
       <c r="H11" s="61"/>
       <c r="I11" s="61"/>
@@ -11383,18 +11364,20 @@
       <c r="U11" s="61"/>
     </row>
     <row r="12" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="91"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="70" t="s">
         <v>146</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="88">
+      <c r="D12" s="132"/>
+      <c r="E12" s="76">
         <v>5</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="F12" s="136" t="s">
+        <v>157</v>
+      </c>
       <c r="G12" s="61"/>
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
@@ -11412,18 +11395,20 @@
       <c r="U12" s="61"/>
     </row>
     <row r="13" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="106"/>
-      <c r="B13" s="107" t="s">
+      <c r="A13" s="125"/>
+      <c r="B13" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110">
+      <c r="D13" s="133"/>
+      <c r="E13" s="82">
         <v>6</v>
       </c>
-      <c r="F13" s="111"/>
+      <c r="F13" s="137" t="s">
+        <v>157</v>
+      </c>
       <c r="G13" s="61"/>
       <c r="H13" s="61"/>
       <c r="I13" s="61"/>
@@ -11441,23 +11426,23 @@
       <c r="U13" s="61"/>
     </row>
     <row r="14" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="85">
         <v>1</v>
       </c>
-      <c r="F14" s="133">
-        <v>0.5</v>
+      <c r="F14" s="138">
+        <v>0.8</v>
       </c>
       <c r="G14" s="61"/>
       <c r="H14" s="61"/>
@@ -11476,18 +11461,20 @@
       <c r="U14" s="61"/>
     </row>
     <row r="15" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="91"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="71" t="s">
         <v>151</v>
       </c>
       <c r="C15" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="88">
+      <c r="D15" s="121"/>
+      <c r="E15" s="76">
         <v>2</v>
       </c>
-      <c r="F15" s="90"/>
+      <c r="F15" s="136">
+        <v>0.75</v>
+      </c>
       <c r="G15" s="61"/>
       <c r="H15" s="61"/>
       <c r="I15" s="61"/>
@@ -11505,18 +11492,20 @@
       <c r="U15" s="61"/>
     </row>
     <row r="16" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="92"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="71" t="s">
         <v>151</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="88">
+      <c r="D16" s="121"/>
+      <c r="E16" s="76">
         <v>3</v>
       </c>
-      <c r="F16" s="90"/>
+      <c r="F16" s="136">
+        <v>0.8</v>
+      </c>
       <c r="G16" s="61"/>
       <c r="H16" s="61"/>
       <c r="I16" s="61"/>
@@ -11534,20 +11523,22 @@
       <c r="U16" s="61"/>
     </row>
     <row r="17" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="135" t="s">
         <v>140</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="89">
+      <c r="D17" s="121"/>
+      <c r="E17" s="77">
         <v>5</v>
       </c>
-      <c r="F17" s="90"/>
+      <c r="F17" s="136" t="s">
+        <v>157</v>
+      </c>
       <c r="G17" s="61"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
@@ -11565,20 +11556,22 @@
       <c r="U17" s="61"/>
     </row>
     <row r="18" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122">
+      <c r="D18" s="122"/>
+      <c r="E18" s="88">
         <v>4</v>
       </c>
-      <c r="F18" s="111"/>
+      <c r="F18" s="137">
+        <v>0.8</v>
+      </c>
       <c r="G18" s="61"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
@@ -11596,23 +11589,23 @@
       <c r="U18" s="61"/>
     </row>
     <row r="19" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="112" t="s">
+      <c r="D19" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="116">
+      <c r="E19" s="85">
         <v>1</v>
       </c>
-      <c r="F19" s="125">
-        <v>0.3</v>
+      <c r="F19" s="138">
+        <v>0.8</v>
       </c>
       <c r="G19" s="61"/>
       <c r="H19" s="61"/>
@@ -11631,18 +11624,20 @@
       <c r="U19" s="61"/>
     </row>
     <row r="20" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="91"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="73" t="s">
         <v>143</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="88">
+      <c r="D20" s="124"/>
+      <c r="E20" s="76">
         <v>2</v>
       </c>
-      <c r="F20" s="90"/>
+      <c r="F20" s="136">
+        <v>0.8</v>
+      </c>
       <c r="G20" s="61"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
@@ -11660,18 +11655,20 @@
       <c r="U20" s="61"/>
     </row>
     <row r="21" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="92"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="73" t="s">
         <v>143</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="88">
+      <c r="D21" s="124"/>
+      <c r="E21" s="76">
         <v>3</v>
       </c>
-      <c r="F21" s="90"/>
+      <c r="F21" s="136">
+        <v>0.8</v>
+      </c>
       <c r="G21" s="61"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
@@ -11689,7 +11686,7 @@
       <c r="U21" s="61"/>
     </row>
     <row r="22" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="127" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="73" t="s">
@@ -11698,11 +11695,13 @@
       <c r="C22" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="88">
+      <c r="D22" s="124"/>
+      <c r="E22" s="76">
         <v>4</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="136" t="s">
+        <v>157</v>
+      </c>
       <c r="G22" s="61"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
@@ -11720,18 +11719,20 @@
       <c r="U22" s="61"/>
     </row>
     <row r="23" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="91"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="73" t="s">
         <v>142</v>
       </c>
       <c r="C23" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="88">
+      <c r="D23" s="124"/>
+      <c r="E23" s="76">
         <v>5</v>
       </c>
-      <c r="F23" s="90"/>
+      <c r="F23" s="136" t="s">
+        <v>157</v>
+      </c>
       <c r="G23" s="61"/>
       <c r="H23" s="61"/>
       <c r="I23" s="61"/>
@@ -11749,18 +11750,20 @@
       <c r="U23" s="61"/>
     </row>
     <row r="24" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="106"/>
-      <c r="B24" s="126" t="s">
+      <c r="A24" s="125"/>
+      <c r="B24" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="122">
+      <c r="D24" s="125"/>
+      <c r="E24" s="88">
         <v>6</v>
       </c>
-      <c r="F24" s="111"/>
+      <c r="F24" s="137" t="s">
+        <v>157</v>
+      </c>
       <c r="G24" s="61"/>
       <c r="H24" s="61"/>
       <c r="I24" s="61"/>
@@ -11778,22 +11781,24 @@
       <c r="U24" s="61"/>
     </row>
     <row r="25" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="116">
-        <v>3</v>
-      </c>
-      <c r="F25" s="117"/>
+      <c r="E25" s="85">
+        <v>1</v>
+      </c>
+      <c r="F25" s="138">
+        <v>0.8</v>
+      </c>
       <c r="G25" s="61"/>
       <c r="H25" s="61"/>
       <c r="I25" s="61"/>
@@ -11811,18 +11816,20 @@
       <c r="U25" s="61"/>
     </row>
     <row r="26" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A26" s="91"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="73" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="88">
-        <v>2</v>
-      </c>
-      <c r="F26" s="90"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="76">
+        <v>3</v>
+      </c>
+      <c r="F26" s="136">
+        <v>0.8</v>
+      </c>
       <c r="G26" s="61"/>
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
@@ -11840,18 +11847,20 @@
       <c r="U26" s="61"/>
     </row>
     <row r="27" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="91"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="71" t="s">
         <v>150</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="88">
+      <c r="D27" s="121"/>
+      <c r="E27" s="76">
         <v>4</v>
       </c>
-      <c r="F27" s="90"/>
+      <c r="F27" s="136" t="s">
+        <v>157</v>
+      </c>
       <c r="G27" s="61"/>
       <c r="H27" s="61"/>
       <c r="I27" s="61"/>
@@ -11869,18 +11878,20 @@
       <c r="U27" s="61"/>
     </row>
     <row r="28" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="91"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="71" t="s">
         <v>150</v>
       </c>
       <c r="C28" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="88">
-        <v>1</v>
-      </c>
-      <c r="F28" s="90"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="76">
+        <v>2</v>
+      </c>
+      <c r="F28" s="136">
+        <v>0.8</v>
+      </c>
       <c r="G28" s="61"/>
       <c r="H28" s="61"/>
       <c r="I28" s="61"/>
@@ -11898,16 +11909,18 @@
       <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="91"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="71"/>
       <c r="C29" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="88">
-        <v>6</v>
-      </c>
-      <c r="F29" s="90"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="76">
+        <v>3</v>
+      </c>
+      <c r="F29" s="136">
+        <v>0.8</v>
+      </c>
       <c r="G29" s="61"/>
       <c r="H29" s="61"/>
       <c r="I29" s="61"/>
@@ -11925,18 +11938,20 @@
       <c r="U29" s="61"/>
     </row>
     <row r="30" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="92"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="88">
-        <v>5</v>
-      </c>
-      <c r="F30" s="90"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="76">
+        <v>3</v>
+      </c>
+      <c r="F30" s="136">
+        <v>0.8</v>
+      </c>
       <c r="G30" s="61"/>
       <c r="H30" s="61"/>
       <c r="I30" s="61"/>
@@ -11954,7 +11969,7 @@
       <c r="U30" s="61"/>
     </row>
     <row r="31" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="127" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="73" t="s">
@@ -11963,11 +11978,13 @@
       <c r="C31" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="88">
-        <v>7</v>
-      </c>
-      <c r="F31" s="90"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="76">
+        <v>4</v>
+      </c>
+      <c r="F31" s="136" t="s">
+        <v>157</v>
+      </c>
       <c r="G31" s="61"/>
       <c r="H31" s="61"/>
       <c r="I31" s="61"/>
@@ -11985,18 +12002,20 @@
       <c r="U31" s="61"/>
     </row>
     <row r="32" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="106"/>
-      <c r="B32" s="107" t="s">
+      <c r="A32" s="125"/>
+      <c r="B32" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="108" t="s">
+      <c r="C32" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="121"/>
-      <c r="E32" s="110">
-        <v>8</v>
-      </c>
-      <c r="F32" s="111"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="82">
+        <v>5</v>
+      </c>
+      <c r="F32" s="137" t="s">
+        <v>157</v>
+      </c>
       <c r="G32" s="61"/>
       <c r="H32" s="61"/>
       <c r="I32" s="61"/>
@@ -12014,12 +12033,20 @@
       <c r="U32" s="61"/>
     </row>
     <row r="33" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A33" s="95"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="131"/>
+      <c r="A33" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="121" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="79"/>
+      <c r="F33" s="139"/>
       <c r="G33" s="61"/>
       <c r="H33" s="61"/>
       <c r="I33" s="61"/>
@@ -12037,20 +12064,16 @@
       <c r="U33" s="61"/>
     </row>
     <row r="34" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="102" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="104"/>
-      <c r="F34" s="105"/>
+      <c r="A34" s="124"/>
+      <c r="B34" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="121"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="136"/>
       <c r="G34" s="61"/>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
@@ -12068,16 +12091,16 @@
       <c r="U34" s="61"/>
     </row>
     <row r="35" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="91"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="71" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="90"/>
+        <v>104</v>
+      </c>
+      <c r="D35" s="121"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="136"/>
       <c r="G35" s="61"/>
       <c r="H35" s="61"/>
       <c r="I35" s="61"/>
@@ -12095,16 +12118,16 @@
       <c r="U35" s="61"/>
     </row>
     <row r="36" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="91"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="71" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="90"/>
+        <v>82</v>
+      </c>
+      <c r="D36" s="121"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="136"/>
       <c r="G36" s="61"/>
       <c r="H36" s="61"/>
       <c r="I36" s="61"/>
@@ -12122,16 +12145,16 @@
       <c r="U36" s="61"/>
     </row>
     <row r="37" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="91"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="71" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="90"/>
+        <v>109</v>
+      </c>
+      <c r="D37" s="121"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="136"/>
       <c r="G37" s="61"/>
       <c r="H37" s="61"/>
       <c r="I37" s="61"/>
@@ -12149,16 +12172,16 @@
       <c r="U37" s="61"/>
     </row>
     <row r="38" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A38" s="91"/>
-      <c r="B38" s="71" t="s">
-        <v>80</v>
+      <c r="A38" s="128"/>
+      <c r="B38" s="69" t="s">
+        <v>18</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="102"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="90"/>
+        <v>26</v>
+      </c>
+      <c r="D38" s="126"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="136"/>
       <c r="G38" s="61"/>
       <c r="H38" s="61"/>
       <c r="I38" s="61"/>
@@ -12175,32 +12198,28 @@
       <c r="T38" s="61"/>
       <c r="U38" s="61"/>
     </row>
-    <row r="39" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="103"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="61"/>
-      <c r="U39" s="61"/>
+    <row r="39" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
@@ -12227,8 +12246,6 @@
     </row>
     <row r="41" spans="1:21" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -12334,6 +12351,8 @@
     </row>
     <row r="46" spans="1:21" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -12356,7 +12375,9 @@
     <row r="47" spans="1:21" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -12378,9 +12399,11 @@
     </row>
     <row r="48" spans="1:21" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="1"/>
@@ -12403,11 +12426,11 @@
     </row>
     <row r="49" spans="1:21" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="33" t="s">
-        <v>70</v>
+      <c r="B49" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1"/>
@@ -12430,11 +12453,11 @@
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="2" t="s">
-        <v>100</v>
+      <c r="B50" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1"/>
@@ -12457,11 +12480,11 @@
     </row>
     <row r="51" spans="1:21" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="32" t="s">
-        <v>101</v>
+      <c r="B51" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="1"/>
@@ -12485,10 +12508,10 @@
     <row r="52" spans="1:21" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="1"/>
@@ -12511,12 +12534,8 @@
     </row>
     <row r="53" spans="1:21" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="2"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -16745,29 +16764,7 @@
       <c r="T236" s="1"/>
       <c r="U236" s="1"/>
     </row>
-    <row r="237" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A237" s="1"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
-      <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
-      <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
-      <c r="P237" s="1"/>
-      <c r="Q237" s="1"/>
-      <c r="R237" s="1"/>
-      <c r="S237" s="1"/>
-      <c r="T237" s="1"/>
-      <c r="U237" s="1"/>
-    </row>
+    <row r="237" spans="1:21" ht="15.75" customHeight="1"/>
     <row r="238" spans="1:21" ht="15.75" customHeight="1"/>
     <row r="239" spans="1:21" ht="15.75" customHeight="1"/>
     <row r="240" spans="1:21" ht="15.75" customHeight="1"/>
@@ -17528,17 +17525,19 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:E39"/>
+  <autoFilter ref="A7:E38"/>
   <sortState ref="A8:F38">
     <sortCondition ref="D8:D38"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D13"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="D19:D24"/>
     <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D33:D38"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
@@ -17546,10 +17545,7 @@
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="A33:A38"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="162">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -640,10 +640,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>진행율</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>세미나존 정보 세미나존 예약</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -676,6 +672,26 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행율(웹)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행율(모바일)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 예정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 예정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 예정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1230,12 +1246,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1536,6 +1561,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,6 +1633,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,37 +1675,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1926,21 +1957,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="110"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1962,19 +1993,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2119,12 +2150,12 @@
       <c r="F7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -2159,13 +2190,13 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="116"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="53" t="s">
         <v>94</v>
       </c>
@@ -2207,8 +2238,8 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A9" s="110"/>
-      <c r="B9" s="109" t="s">
+      <c r="A9" s="116"/>
+      <c r="B9" s="115" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="93" t="s">
@@ -2255,8 +2286,8 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="110"/>
-      <c r="B10" s="109"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="115"/>
       <c r="C10" s="52" t="s">
         <v>20</v>
       </c>
@@ -2301,8 +2332,8 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="72">
-      <c r="A11" s="110"/>
-      <c r="B11" s="109"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="52" t="s">
         <v>23</v>
       </c>
@@ -2347,8 +2378,8 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" hidden="1" customHeight="1">
-      <c r="A12" s="110"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="52" t="s">
         <v>26</v>
       </c>
@@ -2387,8 +2418,8 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A13" s="110"/>
-      <c r="B13" s="117" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="123" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -2435,8 +2466,8 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="110"/>
-      <c r="B14" s="118"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="124"/>
       <c r="C14" s="52" t="s">
         <v>98</v>
       </c>
@@ -2475,8 +2506,8 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="48">
-      <c r="A15" s="110"/>
-      <c r="B15" s="118"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="95" t="s">
         <v>129</v>
       </c>
@@ -2515,8 +2546,8 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="110"/>
-      <c r="B16" s="119"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="95" t="s">
         <v>111</v>
       </c>
@@ -2555,8 +2586,8 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A17" s="110"/>
-      <c r="B17" s="112" t="s">
+      <c r="A17" s="116"/>
+      <c r="B17" s="118" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="95" t="s">
@@ -2603,8 +2634,8 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="33.6" hidden="1" customHeight="1">
-      <c r="A18" s="110"/>
-      <c r="B18" s="112"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="52" t="s">
         <v>88</v>
       </c>
@@ -2649,8 +2680,8 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A19" s="110"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="118"/>
       <c r="C19" s="52" t="s">
         <v>64</v>
       </c>
@@ -2695,8 +2726,8 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="110"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="52" t="s">
         <v>66</v>
       </c>
@@ -2741,8 +2772,8 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A21" s="110"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="52" t="s">
         <v>113</v>
       </c>
@@ -2781,8 +2812,8 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="112"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="118"/>
       <c r="C22" s="52" t="s">
         <v>33</v>
       </c>
@@ -2821,8 +2852,8 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A23" s="110"/>
-      <c r="B23" s="117" t="s">
+      <c r="A23" s="116"/>
+      <c r="B23" s="123" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="52" t="s">
@@ -2861,8 +2892,8 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A24" s="110"/>
-      <c r="B24" s="118"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="124"/>
       <c r="C24" s="52" t="s">
         <v>104</v>
       </c>
@@ -2899,8 +2930,8 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A25" s="110"/>
-      <c r="B25" s="118"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="124"/>
       <c r="C25" s="52" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +2968,8 @@
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A26" s="110"/>
-      <c r="B26" s="119"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="52" t="s">
         <v>109</v>
       </c>
@@ -2975,8 +3006,8 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A27" s="110"/>
-      <c r="B27" s="109" t="s">
+      <c r="A27" s="116"/>
+      <c r="B27" s="115" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="95" t="s">
@@ -3023,8 +3054,8 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A28" s="111"/>
-      <c r="B28" s="115"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="97" t="s">
         <v>116</v>
       </c>
@@ -3063,8 +3094,8 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A29" s="111"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="121"/>
       <c r="C29" s="97" t="s">
         <v>36</v>
       </c>
@@ -3109,7 +3140,7 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="116" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="95" t="s">
@@ -3153,7 +3184,7 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A31" s="110"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="95" t="s">
         <v>44</v>
       </c>
@@ -3199,9 +3230,9 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A32" s="110"/>
+      <c r="A32" s="116"/>
       <c r="B32" s="101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="95" t="s">
         <v>47</v>
@@ -3245,8 +3276,8 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A33" s="110"/>
-      <c r="B33" s="109" t="s">
+      <c r="A33" s="116"/>
+      <c r="B33" s="115" t="s">
         <v>142</v>
       </c>
       <c r="C33" s="95" t="s">
@@ -3287,8 +3318,8 @@
       <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A34" s="110"/>
-      <c r="B34" s="109"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="95" t="s">
         <v>120</v>
       </c>
@@ -3327,8 +3358,8 @@
       <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A35" s="110"/>
-      <c r="B35" s="109"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="95" t="s">
         <v>121</v>
       </c>
@@ -3367,9 +3398,9 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" ht="45.75" hidden="1" customHeight="1">
-      <c r="A36" s="110"/>
-      <c r="B36" s="113" t="s">
-        <v>156</v>
+      <c r="A36" s="116"/>
+      <c r="B36" s="119" t="s">
+        <v>155</v>
       </c>
       <c r="C36" s="95" t="s">
         <v>139</v>
@@ -3409,8 +3440,8 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A37" s="110"/>
-      <c r="B37" s="114"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="95" t="s">
         <v>138</v>
       </c>
@@ -3449,7 +3480,7 @@
       <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="1:32" ht="52.5" hidden="1" customHeight="1">
-      <c r="A38" s="110"/>
+      <c r="A38" s="116"/>
       <c r="B38" s="52" t="s">
         <v>90</v>
       </c>
@@ -11043,8 +11074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -11054,9 +11085,10 @@
     <col min="3" max="3" width="42.28515625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -11081,13 +11113,13 @@
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -11104,13 +11136,13 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="19.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:21" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -11217,9 +11249,11 @@
         <v>11</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>158</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -11236,23 +11270,25 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131" t="s">
+      <c r="C8" s="127"/>
+      <c r="D8" s="128" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="75">
         <v>1</v>
       </c>
-      <c r="F8" s="136">
+      <c r="F8" s="104">
         <v>0.9</v>
       </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="104">
+        <v>0.9</v>
+      </c>
       <c r="H8" s="61"/>
       <c r="I8" s="61"/>
       <c r="J8" s="61"/>
@@ -11269,21 +11305,23 @@
       <c r="U8" s="61"/>
     </row>
     <row r="9" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="124"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="73" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="132"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="75">
         <v>2</v>
       </c>
-      <c r="F9" s="136">
+      <c r="F9" s="104">
         <v>0.8</v>
       </c>
-      <c r="G9" s="61"/>
+      <c r="G9" s="104">
+        <v>0.8</v>
+      </c>
       <c r="H9" s="61"/>
       <c r="I9" s="61"/>
       <c r="J9" s="61"/>
@@ -11300,21 +11338,23 @@
       <c r="U9" s="61"/>
     </row>
     <row r="10" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="128"/>
+      <c r="A10" s="139"/>
       <c r="B10" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="132"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="76">
         <v>3</v>
       </c>
-      <c r="F10" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="61"/>
+      <c r="F10" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="104" t="s">
+        <v>156</v>
+      </c>
       <c r="H10" s="61"/>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
@@ -11331,8 +11371,8 @@
       <c r="U10" s="61"/>
     </row>
     <row r="11" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="127" t="s">
-        <v>153</v>
+      <c r="A11" s="138" t="s">
+        <v>152</v>
       </c>
       <c r="B11" s="69" t="s">
         <v>44</v>
@@ -11340,14 +11380,16 @@
       <c r="C11" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="132"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="76">
         <v>4</v>
       </c>
-      <c r="F11" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="61"/>
+      <c r="F11" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>156</v>
+      </c>
       <c r="H11" s="61"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
@@ -11364,21 +11406,23 @@
       <c r="U11" s="61"/>
     </row>
     <row r="12" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="124"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="70" t="s">
         <v>146</v>
       </c>
       <c r="C12" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="76">
         <v>5</v>
       </c>
-      <c r="F12" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="61"/>
+      <c r="F12" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>156</v>
+      </c>
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
@@ -11395,21 +11439,23 @@
       <c r="U12" s="61"/>
     </row>
     <row r="13" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="125"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="80" t="s">
         <v>147</v>
       </c>
       <c r="C13" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="82">
         <v>6</v>
       </c>
-      <c r="F13" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="61"/>
+      <c r="F13" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>156</v>
+      </c>
       <c r="H13" s="61"/>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
@@ -11426,25 +11472,27 @@
       <c r="U13" s="61"/>
     </row>
     <row r="14" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="134" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="131" t="s">
         <v>52</v>
       </c>
       <c r="E14" s="85">
         <v>1</v>
       </c>
-      <c r="F14" s="138">
+      <c r="F14" s="106">
         <v>0.8</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="106">
+        <v>0.8</v>
+      </c>
       <c r="H14" s="61"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
@@ -11461,21 +11509,23 @@
       <c r="U14" s="61"/>
     </row>
     <row r="15" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="124"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="121"/>
+      <c r="D15" s="132"/>
       <c r="E15" s="76">
         <v>2</v>
       </c>
-      <c r="F15" s="136">
+      <c r="F15" s="104">
         <v>0.75</v>
       </c>
-      <c r="G15" s="61"/>
+      <c r="G15" s="104">
+        <v>0.75</v>
+      </c>
       <c r="H15" s="61"/>
       <c r="I15" s="61"/>
       <c r="J15" s="61"/>
@@ -11492,21 +11542,23 @@
       <c r="U15" s="61"/>
     </row>
     <row r="16" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="128"/>
+      <c r="A16" s="139"/>
       <c r="B16" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="121"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="76">
         <v>3</v>
       </c>
-      <c r="F16" s="136">
+      <c r="F16" s="104">
         <v>0.8</v>
       </c>
-      <c r="G16" s="61"/>
+      <c r="G16" s="104">
+        <v>0.8</v>
+      </c>
       <c r="H16" s="61"/>
       <c r="I16" s="61"/>
       <c r="J16" s="61"/>
@@ -11526,20 +11578,22 @@
       <c r="A17" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="103" t="s">
         <v>140</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="121"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="77">
         <v>5</v>
       </c>
-      <c r="F17" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="61"/>
+      <c r="F17" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="104" t="s">
+        <v>156</v>
+      </c>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -11556,23 +11610,25 @@
       <c r="U17" s="61"/>
     </row>
     <row r="18" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="102" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="122"/>
+      <c r="D18" s="133"/>
       <c r="E18" s="88">
         <v>4</v>
       </c>
-      <c r="F18" s="137">
+      <c r="F18" s="105">
         <v>0.8</v>
       </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="105">
+        <v>0.8</v>
+      </c>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -11589,7 +11645,7 @@
       <c r="U18" s="61"/>
     </row>
     <row r="19" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="134" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="90" t="s">
@@ -11598,16 +11654,18 @@
       <c r="C19" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="134" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="85">
         <v>1</v>
       </c>
-      <c r="F19" s="138">
+      <c r="F19" s="106">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="106">
         <v>0.8</v>
       </c>
-      <c r="G19" s="61"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -11624,21 +11682,23 @@
       <c r="U19" s="61"/>
     </row>
     <row r="20" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="124"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="73" t="s">
         <v>143</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="124"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="76">
         <v>2</v>
       </c>
-      <c r="F20" s="136">
-        <v>0.8</v>
-      </c>
-      <c r="G20" s="61"/>
+      <c r="F20" s="104">
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="104" t="s">
+        <v>159</v>
+      </c>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -11655,21 +11715,23 @@
       <c r="U20" s="61"/>
     </row>
     <row r="21" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="128"/>
+      <c r="A21" s="139"/>
       <c r="B21" s="73" t="s">
         <v>143</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="124"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="76">
         <v>3</v>
       </c>
-      <c r="F21" s="136">
+      <c r="F21" s="104">
+        <v>1</v>
+      </c>
+      <c r="G21" s="104">
         <v>0.8</v>
       </c>
-      <c r="G21" s="61"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -11686,7 +11748,7 @@
       <c r="U21" s="61"/>
     </row>
     <row r="22" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="138" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="73" t="s">
@@ -11695,14 +11757,16 @@
       <c r="C22" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="124"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="76">
         <v>4</v>
       </c>
-      <c r="F22" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="61"/>
+      <c r="F22" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="104" t="s">
+        <v>156</v>
+      </c>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -11719,21 +11783,23 @@
       <c r="U22" s="61"/>
     </row>
     <row r="23" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="124"/>
+      <c r="A23" s="135"/>
       <c r="B23" s="73" t="s">
         <v>142</v>
       </c>
       <c r="C23" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="124"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="76">
         <v>5</v>
       </c>
-      <c r="F23" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="61"/>
+      <c r="F23" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="104" t="s">
+        <v>156</v>
+      </c>
       <c r="H23" s="61"/>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
@@ -11750,21 +11816,23 @@
       <c r="U23" s="61"/>
     </row>
     <row r="24" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="125"/>
+      <c r="A24" s="136"/>
       <c r="B24" s="91" t="s">
         <v>142</v>
       </c>
       <c r="C24" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="125"/>
+      <c r="D24" s="136"/>
       <c r="E24" s="88">
         <v>6</v>
       </c>
-      <c r="F24" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="61"/>
+      <c r="F24" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="105" t="s">
+        <v>156</v>
+      </c>
       <c r="H24" s="61"/>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
@@ -11781,7 +11849,7 @@
       <c r="U24" s="61"/>
     </row>
     <row r="25" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="134" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="90" t="s">
@@ -11790,16 +11858,18 @@
       <c r="C25" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="131" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="85">
         <v>1</v>
       </c>
-      <c r="F25" s="138">
+      <c r="F25" s="106">
         <v>0.8</v>
       </c>
-      <c r="G25" s="61"/>
+      <c r="G25" s="106">
+        <v>0.8</v>
+      </c>
       <c r="H25" s="61"/>
       <c r="I25" s="61"/>
       <c r="J25" s="61"/>
@@ -11816,21 +11886,23 @@
       <c r="U25" s="61"/>
     </row>
     <row r="26" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A26" s="124"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="73" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="121"/>
+      <c r="D26" s="132"/>
       <c r="E26" s="76">
         <v>3</v>
       </c>
-      <c r="F26" s="136">
+      <c r="F26" s="104">
         <v>0.8</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="104">
+        <v>0.8</v>
+      </c>
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
@@ -11847,21 +11919,23 @@
       <c r="U26" s="61"/>
     </row>
     <row r="27" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="124"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="121"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="76">
         <v>4</v>
       </c>
-      <c r="F27" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="61"/>
+      <c r="F27" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="104" t="s">
+        <v>156</v>
+      </c>
       <c r="H27" s="61"/>
       <c r="I27" s="61"/>
       <c r="J27" s="61"/>
@@ -11878,21 +11952,23 @@
       <c r="U27" s="61"/>
     </row>
     <row r="28" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="124"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="121"/>
+      <c r="D28" s="132"/>
       <c r="E28" s="76">
         <v>2</v>
       </c>
-      <c r="F28" s="136">
+      <c r="F28" s="104">
         <v>0.8</v>
       </c>
-      <c r="G28" s="61"/>
+      <c r="G28" s="104">
+        <v>0.8</v>
+      </c>
       <c r="H28" s="61"/>
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
@@ -11909,19 +11985,21 @@
       <c r="U28" s="61"/>
     </row>
     <row r="29" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="124"/>
+      <c r="A29" s="135"/>
       <c r="B29" s="71"/>
       <c r="C29" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="121"/>
+      <c r="D29" s="132"/>
       <c r="E29" s="76">
         <v>3</v>
       </c>
-      <c r="F29" s="136">
+      <c r="F29" s="104">
         <v>0.8</v>
       </c>
-      <c r="G29" s="61"/>
+      <c r="G29" s="104">
+        <v>0.8</v>
+      </c>
       <c r="H29" s="61"/>
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
@@ -11938,21 +12016,23 @@
       <c r="U29" s="61"/>
     </row>
     <row r="30" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="128"/>
+      <c r="A30" s="139"/>
       <c r="B30" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="121"/>
+      <c r="D30" s="132"/>
       <c r="E30" s="76">
         <v>3</v>
       </c>
-      <c r="F30" s="136">
+      <c r="F30" s="104">
         <v>0.8</v>
       </c>
-      <c r="G30" s="61"/>
+      <c r="G30" s="104">
+        <v>0.8</v>
+      </c>
       <c r="H30" s="61"/>
       <c r="I30" s="61"/>
       <c r="J30" s="61"/>
@@ -11969,7 +12049,7 @@
       <c r="U30" s="61"/>
     </row>
     <row r="31" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="138" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="73" t="s">
@@ -11978,14 +12058,16 @@
       <c r="C31" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="121"/>
+      <c r="D31" s="132"/>
       <c r="E31" s="76">
         <v>4</v>
       </c>
-      <c r="F31" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="61"/>
+      <c r="F31" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="104" t="s">
+        <v>156</v>
+      </c>
       <c r="H31" s="61"/>
       <c r="I31" s="61"/>
       <c r="J31" s="61"/>
@@ -12002,21 +12084,23 @@
       <c r="U31" s="61"/>
     </row>
     <row r="32" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="125"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="80" t="s">
         <v>147</v>
       </c>
       <c r="C32" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="122"/>
+      <c r="D32" s="133"/>
       <c r="E32" s="82">
         <v>5</v>
       </c>
-      <c r="F32" s="137" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="61"/>
+      <c r="F32" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="105" t="s">
+        <v>156</v>
+      </c>
       <c r="H32" s="61"/>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
@@ -12033,21 +12117,21 @@
       <c r="U32" s="61"/>
     </row>
     <row r="33" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A33" s="124" t="s">
+      <c r="A33" s="135" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="121" t="s">
-        <v>154</v>
+      <c r="D33" s="132" t="s">
+        <v>153</v>
       </c>
       <c r="E33" s="79"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="61"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
       <c r="H33" s="61"/>
       <c r="I33" s="61"/>
       <c r="J33" s="61"/>
@@ -12064,17 +12148,17 @@
       <c r="U33" s="61"/>
     </row>
     <row r="34" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="124"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="71" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="121"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="76"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="61"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
       <c r="J34" s="61"/>
@@ -12091,17 +12175,17 @@
       <c r="U34" s="61"/>
     </row>
     <row r="35" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="124"/>
+      <c r="A35" s="135"/>
       <c r="B35" s="71" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="121"/>
+      <c r="D35" s="132"/>
       <c r="E35" s="76"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="61"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
       <c r="H35" s="61"/>
       <c r="I35" s="61"/>
       <c r="J35" s="61"/>
@@ -12118,17 +12202,17 @@
       <c r="U35" s="61"/>
     </row>
     <row r="36" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="124"/>
+      <c r="A36" s="135"/>
       <c r="B36" s="71" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="121"/>
+      <c r="D36" s="132"/>
       <c r="E36" s="76"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="61"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
       <c r="H36" s="61"/>
       <c r="I36" s="61"/>
       <c r="J36" s="61"/>
@@ -12145,17 +12229,17 @@
       <c r="U36" s="61"/>
     </row>
     <row r="37" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="124"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="71" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="121"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="76"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="61"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
       <c r="H37" s="61"/>
       <c r="I37" s="61"/>
       <c r="J37" s="61"/>
@@ -12172,17 +12256,17 @@
       <c r="U37" s="61"/>
     </row>
     <row r="38" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A38" s="128"/>
+      <c r="A38" s="139"/>
       <c r="B38" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="126"/>
+      <c r="D38" s="137"/>
       <c r="E38" s="76"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="61"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
       <c r="H38" s="61"/>
       <c r="I38" s="61"/>
       <c r="J38" s="61"/>
@@ -17531,11 +17615,6 @@
     <sortCondition ref="D8:D38"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D24"/>
     <mergeCell ref="D25:D32"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="A8:A10"/>
@@ -17546,6 +17625,11 @@
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="B2:F3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$A$7:$E$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$B$7:$F$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="162">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -1260,7 +1260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1504,9 +1504,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1526,9 +1523,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1633,6 +1627,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1648,37 +1675,31 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1957,21 +1978,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="110"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="108"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1993,19 +2014,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="111"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2150,12 +2171,12 @@
       <c r="F7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -2190,13 +2211,13 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="122"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="53" t="s">
         <v>94</v>
       </c>
@@ -2238,14 +2259,14 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="115" t="s">
+      <c r="A9" s="114"/>
+      <c r="B9" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="92" t="s">
         <v>148</v>
       </c>
       <c r="E9" s="46"/>
@@ -2286,8 +2307,8 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="116"/>
-      <c r="B10" s="115"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="52" t="s">
         <v>20</v>
       </c>
@@ -2332,8 +2353,8 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="72">
-      <c r="A11" s="116"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="52" t="s">
         <v>23</v>
       </c>
@@ -2378,8 +2399,8 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" hidden="1" customHeight="1">
-      <c r="A12" s="116"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="52" t="s">
         <v>26</v>
       </c>
@@ -2418,8 +2439,8 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="123" t="s">
+      <c r="A13" s="114"/>
+      <c r="B13" s="121" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -2466,8 +2487,8 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="116"/>
-      <c r="B14" s="124"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="122"/>
       <c r="C14" s="52" t="s">
         <v>98</v>
       </c>
@@ -2506,9 +2527,9 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="48">
-      <c r="A15" s="116"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="95" t="s">
+      <c r="A15" s="114"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="93" t="s">
         <v>129</v>
       </c>
       <c r="D15" s="53" t="s">
@@ -2546,9 +2567,9 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="116"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="95" t="s">
+      <c r="A16" s="114"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="93" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="53" t="s">
@@ -2586,11 +2607,11 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A17" s="116"/>
-      <c r="B17" s="118" t="s">
+      <c r="A17" s="114"/>
+      <c r="B17" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="93" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="53" t="s">
@@ -2634,8 +2655,8 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="33.6" hidden="1" customHeight="1">
-      <c r="A18" s="116"/>
-      <c r="B18" s="118"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="52" t="s">
         <v>88</v>
       </c>
@@ -2680,12 +2701,12 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A19" s="116"/>
-      <c r="B19" s="118"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="94" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="50"/>
@@ -2726,12 +2747,12 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="116"/>
-      <c r="B20" s="118"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="94" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="50"/>
@@ -2772,12 +2793,12 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A21" s="116"/>
-      <c r="B21" s="118"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="94" t="s">
         <v>114</v>
       </c>
       <c r="E21" s="51"/>
@@ -2812,8 +2833,8 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A22" s="116"/>
-      <c r="B22" s="118"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="52" t="s">
         <v>33</v>
       </c>
@@ -2852,8 +2873,8 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A23" s="116"/>
-      <c r="B23" s="123" t="s">
+      <c r="A23" s="114"/>
+      <c r="B23" s="121" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="52" t="s">
@@ -2892,8 +2913,8 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A24" s="116"/>
-      <c r="B24" s="124"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="52" t="s">
         <v>104</v>
       </c>
@@ -2930,8 +2951,8 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A25" s="116"/>
-      <c r="B25" s="124"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="52" t="s">
         <v>82</v>
       </c>
@@ -2968,8 +2989,8 @@
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A26" s="116"/>
-      <c r="B26" s="125"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="123"/>
       <c r="C26" s="52" t="s">
         <v>109</v>
       </c>
@@ -3006,11 +3027,11 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A27" s="116"/>
-      <c r="B27" s="115" t="s">
+      <c r="A27" s="114"/>
+      <c r="B27" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="93" t="s">
         <v>115</v>
       </c>
       <c r="D27" s="53" t="s">
@@ -3054,12 +3075,12 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A28" s="117"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="97" t="s">
+      <c r="A28" s="115"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="96" t="s">
         <v>117</v>
       </c>
       <c r="E28" s="54"/>
@@ -3094,12 +3115,12 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A29" s="117"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="97" t="s">
+      <c r="A29" s="115"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="97" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="54"/>
@@ -3140,16 +3161,16 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C30" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="100" t="s">
+      <c r="D30" s="98" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="51"/>
@@ -3184,14 +3205,14 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A31" s="116"/>
-      <c r="B31" s="95" t="s">
+      <c r="A31" s="114"/>
+      <c r="B31" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="95" t="s">
+      <c r="C31" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="94" t="s">
+      <c r="D31" s="92" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="51"/>
@@ -3230,14 +3251,14 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A32" s="116"/>
-      <c r="B32" s="101" t="s">
+      <c r="A32" s="114"/>
+      <c r="B32" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C32" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="94" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="51"/>
@@ -3276,14 +3297,14 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A33" s="116"/>
-      <c r="B33" s="115" t="s">
+      <c r="A33" s="114"/>
+      <c r="B33" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="92" t="s">
         <v>124</v>
       </c>
       <c r="E33" s="40"/>
@@ -3318,12 +3339,12 @@
       <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A34" s="116"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="95" t="s">
+      <c r="A34" s="114"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="92" t="s">
         <v>123</v>
       </c>
       <c r="E34" s="55"/>
@@ -3358,12 +3379,12 @@
       <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A35" s="116"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="95" t="s">
+      <c r="A35" s="114"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="94" t="s">
+      <c r="D35" s="92" t="s">
         <v>122</v>
       </c>
       <c r="E35" s="40"/>
@@ -3398,14 +3419,14 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" ht="45.75" hidden="1" customHeight="1">
-      <c r="A36" s="116"/>
-      <c r="B36" s="119" t="s">
+      <c r="A36" s="114"/>
+      <c r="B36" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="95" t="s">
+      <c r="C36" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="98" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="51"/>
@@ -3440,12 +3461,12 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A37" s="116"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="95" t="s">
+      <c r="A37" s="114"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="100" t="s">
+      <c r="D37" s="98" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="51"/>
@@ -3480,14 +3501,14 @@
       <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="1:32" ht="52.5" hidden="1" customHeight="1">
-      <c r="A38" s="116"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="52" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="100" t="s">
+      <c r="D38" s="98" t="s">
         <v>137</v>
       </c>
       <c r="E38" s="51"/>
@@ -11072,28 +11093,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U997"/>
+  <dimension ref="B1:V997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -11110,17 +11131,17 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="140" t="s">
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="2:22" ht="19.5" customHeight="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="1"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -11135,15 +11156,15 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="2:22" ht="19.5" customHeight="1">
+      <c r="B3" s="1"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -11158,13 +11179,13 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="19.5" hidden="1" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="2:22" ht="19.5" hidden="1" customHeight="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -11181,17 +11202,17 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" ht="50.25" hidden="1" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="12">
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="2:22" ht="50.25" hidden="1" customHeight="1">
+      <c r="B5" s="1"/>
+      <c r="C5" s="12">
         <v>43860</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -11208,13 +11229,13 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="2:22" ht="19.5" customHeight="1">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -11231,30 +11252,30 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" ht="27.75" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="2:22" ht="27.75" customHeight="1">
+      <c r="B7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="C7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="D7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="E7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="H7" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -11268,28 +11289,28 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="138" t="s">
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B8" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="126" t="s">
+      <c r="C8" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="136"/>
+      <c r="E8" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="75">
+      <c r="F8" s="75">
         <v>1</v>
       </c>
-      <c r="F8" s="104">
+      <c r="G8" s="102">
         <v>0.9</v>
       </c>
-      <c r="G8" s="104">
+      <c r="H8" s="102">
         <v>0.9</v>
       </c>
-      <c r="H8" s="61"/>
       <c r="I8" s="61"/>
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
@@ -11303,26 +11324,26 @@
       <c r="S8" s="61"/>
       <c r="T8" s="61"/>
       <c r="U8" s="61"/>
-    </row>
-    <row r="9" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="73" t="s">
+      <c r="V8" s="61"/>
+    </row>
+    <row r="9" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B9" s="131"/>
+      <c r="C9" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="D9" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="129"/>
-      <c r="E9" s="75">
+      <c r="E9" s="138"/>
+      <c r="F9" s="75">
         <v>2</v>
       </c>
-      <c r="F9" s="104">
+      <c r="G9" s="102">
         <v>0.8</v>
       </c>
-      <c r="G9" s="104">
+      <c r="H9" s="102">
         <v>0.8</v>
       </c>
-      <c r="H9" s="61"/>
       <c r="I9" s="61"/>
       <c r="J9" s="61"/>
       <c r="K9" s="61"/>
@@ -11336,26 +11357,26 @@
       <c r="S9" s="61"/>
       <c r="T9" s="61"/>
       <c r="U9" s="61"/>
-    </row>
-    <row r="10" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="139"/>
-      <c r="B10" s="71" t="s">
+      <c r="V9" s="61"/>
+    </row>
+    <row r="10" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B10" s="132"/>
+      <c r="C10" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="D10" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="129"/>
-      <c r="E10" s="76">
+      <c r="E10" s="138"/>
+      <c r="F10" s="76">
         <v>3</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="G10" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="H10" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="61"/>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
       <c r="K10" s="61"/>
@@ -11369,28 +11390,28 @@
       <c r="S10" s="61"/>
       <c r="T10" s="61"/>
       <c r="U10" s="61"/>
-    </row>
-    <row r="11" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="138" t="s">
+      <c r="V10" s="61"/>
+    </row>
+    <row r="11" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B11" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="C11" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="D11" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="76">
+      <c r="E11" s="138"/>
+      <c r="F11" s="76">
         <v>4</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="G11" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="H11" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="61"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
@@ -11404,26 +11425,26 @@
       <c r="S11" s="61"/>
       <c r="T11" s="61"/>
       <c r="U11" s="61"/>
-    </row>
-    <row r="12" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="135"/>
-      <c r="B12" s="70" t="s">
+      <c r="V11" s="61"/>
+    </row>
+    <row r="12" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B12" s="131"/>
+      <c r="C12" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="D12" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="76">
+      <c r="E12" s="138"/>
+      <c r="F12" s="76">
         <v>5</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="G12" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="104" t="s">
+      <c r="H12" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="61"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
@@ -11437,26 +11458,26 @@
       <c r="S12" s="61"/>
       <c r="T12" s="61"/>
       <c r="U12" s="61"/>
-    </row>
-    <row r="13" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="80" t="s">
+      <c r="V12" s="61"/>
+    </row>
+    <row r="13" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B13" s="133"/>
+      <c r="C13" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="D13" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="82">
+      <c r="E13" s="139"/>
+      <c r="F13" s="82">
         <v>6</v>
       </c>
-      <c r="F13" s="105" t="s">
+      <c r="G13" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="H13" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="61"/>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
@@ -11470,30 +11491,30 @@
       <c r="S13" s="61"/>
       <c r="T13" s="61"/>
       <c r="U13" s="61"/>
-    </row>
-    <row r="14" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A14" s="134" t="s">
+      <c r="V13" s="61"/>
+    </row>
+    <row r="14" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
+      <c r="B14" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="C14" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="D14" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="131" t="s">
+      <c r="E14" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="85">
+      <c r="F14" s="84">
         <v>1</v>
       </c>
-      <c r="F14" s="106">
+      <c r="G14" s="104">
         <v>0.8</v>
       </c>
-      <c r="G14" s="106">
+      <c r="H14" s="104">
         <v>0.8</v>
       </c>
-      <c r="H14" s="61"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
@@ -11507,26 +11528,24 @@
       <c r="S14" s="61"/>
       <c r="T14" s="61"/>
       <c r="U14" s="61"/>
-    </row>
-    <row r="15" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="135"/>
-      <c r="B15" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="64" t="s">
+      <c r="V14" s="61"/>
+    </row>
+    <row r="15" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B15" s="131"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="76">
+      <c r="E15" s="127"/>
+      <c r="F15" s="76">
         <v>2</v>
       </c>
-      <c r="F15" s="104">
+      <c r="G15" s="102">
         <v>0.75</v>
       </c>
-      <c r="G15" s="104">
+      <c r="H15" s="102">
         <v>0.75</v>
       </c>
-      <c r="H15" s="61"/>
       <c r="I15" s="61"/>
       <c r="J15" s="61"/>
       <c r="K15" s="61"/>
@@ -11540,26 +11559,24 @@
       <c r="S15" s="61"/>
       <c r="T15" s="61"/>
       <c r="U15" s="61"/>
-    </row>
-    <row r="16" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="139"/>
-      <c r="B16" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="64" t="s">
+      <c r="V15" s="61"/>
+    </row>
+    <row r="16" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B16" s="132"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="76">
+      <c r="E16" s="127"/>
+      <c r="F16" s="76">
         <v>3</v>
       </c>
-      <c r="F16" s="104">
+      <c r="G16" s="102">
         <v>0.8</v>
       </c>
-      <c r="G16" s="104">
+      <c r="H16" s="102">
         <v>0.8</v>
       </c>
-      <c r="H16" s="61"/>
       <c r="I16" s="61"/>
       <c r="J16" s="61"/>
       <c r="K16" s="61"/>
@@ -11573,28 +11590,28 @@
       <c r="S16" s="61"/>
       <c r="T16" s="61"/>
       <c r="U16" s="61"/>
-    </row>
-    <row r="17" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="74" t="s">
+      <c r="V16" s="61"/>
+    </row>
+    <row r="17" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B17" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="C17" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="D17" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="77">
+      <c r="E17" s="127"/>
+      <c r="F17" s="77">
         <v>5</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="G17" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="G17" s="104" t="s">
+      <c r="H17" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
@@ -11608,28 +11625,28 @@
       <c r="S17" s="61"/>
       <c r="T17" s="61"/>
       <c r="U17" s="61"/>
-    </row>
-    <row r="18" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A18" s="102" t="s">
+      <c r="V17" s="61"/>
+    </row>
+    <row r="18" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B18" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="C18" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="D18" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="88">
+      <c r="E18" s="128"/>
+      <c r="F18" s="87">
         <v>4</v>
       </c>
-      <c r="F18" s="105">
+      <c r="G18" s="103">
         <v>0.8</v>
       </c>
-      <c r="G18" s="105">
+      <c r="H18" s="103">
         <v>0.8</v>
       </c>
-      <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
@@ -11643,30 +11660,30 @@
       <c r="S18" s="61"/>
       <c r="T18" s="61"/>
       <c r="U18" s="61"/>
-    </row>
-    <row r="19" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A19" s="134" t="s">
+      <c r="V18" s="61"/>
+    </row>
+    <row r="19" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
+      <c r="B19" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="C19" s="147" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="D19" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="E19" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="85">
+      <c r="F19" s="84">
         <v>1</v>
       </c>
-      <c r="F19" s="106">
+      <c r="G19" s="104">
         <v>0.9</v>
       </c>
-      <c r="G19" s="106">
+      <c r="H19" s="104">
         <v>0.8</v>
       </c>
-      <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
       <c r="K19" s="61"/>
@@ -11680,26 +11697,24 @@
       <c r="S19" s="61"/>
       <c r="T19" s="61"/>
       <c r="U19" s="61"/>
-    </row>
-    <row r="20" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="135"/>
-      <c r="B20" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="66" t="s">
+      <c r="V19" s="61"/>
+    </row>
+    <row r="20" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="131"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="76">
+      <c r="E20" s="131"/>
+      <c r="F20" s="76">
         <v>2</v>
       </c>
-      <c r="F20" s="104">
+      <c r="G20" s="102">
         <v>0.9</v>
       </c>
-      <c r="G20" s="104" t="s">
+      <c r="H20" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
       <c r="K20" s="61"/>
@@ -11713,26 +11728,24 @@
       <c r="S20" s="61"/>
       <c r="T20" s="61"/>
       <c r="U20" s="61"/>
-    </row>
-    <row r="21" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="139"/>
-      <c r="B21" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="66" t="s">
+      <c r="V20" s="61"/>
+    </row>
+    <row r="21" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B21" s="132"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="76">
+      <c r="E21" s="131"/>
+      <c r="F21" s="76">
         <v>3</v>
       </c>
-      <c r="F21" s="104">
+      <c r="G21" s="102">
         <v>1</v>
       </c>
-      <c r="G21" s="104">
+      <c r="H21" s="102">
         <v>0.8</v>
       </c>
-      <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
       <c r="K21" s="61"/>
@@ -11746,28 +11759,28 @@
       <c r="S21" s="61"/>
       <c r="T21" s="61"/>
       <c r="U21" s="61"/>
-    </row>
-    <row r="22" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="138" t="s">
+      <c r="V21" s="61"/>
+    </row>
+    <row r="22" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B22" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="C22" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="D22" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="76">
+      <c r="E22" s="131"/>
+      <c r="F22" s="76">
         <v>4</v>
       </c>
-      <c r="F22" s="104" t="s">
+      <c r="G22" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="104" t="s">
+      <c r="H22" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="H22" s="61"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="61"/>
@@ -11781,26 +11794,24 @@
       <c r="S22" s="61"/>
       <c r="T22" s="61"/>
       <c r="U22" s="61"/>
-    </row>
-    <row r="23" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="135"/>
-      <c r="B23" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="66" t="s">
+      <c r="V22" s="61"/>
+    </row>
+    <row r="23" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B23" s="131"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="135"/>
-      <c r="E23" s="76">
+      <c r="E23" s="131"/>
+      <c r="F23" s="76">
         <v>5</v>
       </c>
-      <c r="F23" s="104" t="s">
+      <c r="G23" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="G23" s="104" t="s">
+      <c r="H23" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="61"/>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
       <c r="K23" s="61"/>
@@ -11814,26 +11825,24 @@
       <c r="S23" s="61"/>
       <c r="T23" s="61"/>
       <c r="U23" s="61"/>
-    </row>
-    <row r="24" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="136"/>
-      <c r="B24" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="81" t="s">
+      <c r="V23" s="61"/>
+    </row>
+    <row r="24" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B24" s="133"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="136"/>
-      <c r="E24" s="88">
+      <c r="E24" s="133"/>
+      <c r="F24" s="87">
         <v>6</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="G24" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="105" t="s">
+      <c r="H24" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="61"/>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
@@ -11847,30 +11856,30 @@
       <c r="S24" s="61"/>
       <c r="T24" s="61"/>
       <c r="U24" s="61"/>
-    </row>
-    <row r="25" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A25" s="134" t="s">
+      <c r="V24" s="61"/>
+    </row>
+    <row r="25" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
+      <c r="B25" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="C25" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="D25" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="131" t="s">
+      <c r="E25" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="85">
+      <c r="F25" s="84">
         <v>1</v>
       </c>
-      <c r="F25" s="106">
+      <c r="G25" s="104">
         <v>0.8</v>
       </c>
-      <c r="G25" s="106">
+      <c r="H25" s="104">
         <v>0.8</v>
       </c>
-      <c r="H25" s="61"/>
       <c r="I25" s="61"/>
       <c r="J25" s="61"/>
       <c r="K25" s="61"/>
@@ -11884,26 +11893,26 @@
       <c r="S25" s="61"/>
       <c r="T25" s="61"/>
       <c r="U25" s="61"/>
-    </row>
-    <row r="26" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A26" s="135"/>
-      <c r="B26" s="73" t="s">
+      <c r="V25" s="61"/>
+    </row>
+    <row r="26" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B26" s="131"/>
+      <c r="C26" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="D26" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="76">
+      <c r="E26" s="127"/>
+      <c r="F26" s="76">
         <v>3</v>
       </c>
-      <c r="F26" s="104">
+      <c r="G26" s="102">
         <v>0.8</v>
       </c>
-      <c r="G26" s="104">
+      <c r="H26" s="102">
         <v>0.8</v>
       </c>
-      <c r="H26" s="61"/>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
       <c r="K26" s="61"/>
@@ -11917,26 +11926,26 @@
       <c r="S26" s="61"/>
       <c r="T26" s="61"/>
       <c r="U26" s="61"/>
-    </row>
-    <row r="27" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="135"/>
-      <c r="B27" s="71" t="s">
+      <c r="V26" s="61"/>
+    </row>
+    <row r="27" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B27" s="131"/>
+      <c r="C27" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="D27" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="76">
+      <c r="E27" s="127"/>
+      <c r="F27" s="76">
         <v>4</v>
       </c>
-      <c r="F27" s="104" t="s">
+      <c r="G27" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="104" t="s">
+      <c r="H27" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="61"/>
       <c r="I27" s="61"/>
       <c r="J27" s="61"/>
       <c r="K27" s="61"/>
@@ -11950,26 +11959,24 @@
       <c r="S27" s="61"/>
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
-    </row>
-    <row r="28" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="135"/>
-      <c r="B28" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="65" t="s">
+      <c r="V27" s="61"/>
+    </row>
+    <row r="28" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B28" s="131"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="76">
+      <c r="E28" s="127"/>
+      <c r="F28" s="76">
         <v>2</v>
       </c>
-      <c r="F28" s="104">
+      <c r="G28" s="102">
         <v>0.8</v>
       </c>
-      <c r="G28" s="104">
+      <c r="H28" s="102">
         <v>0.8</v>
       </c>
-      <c r="H28" s="61"/>
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
       <c r="K28" s="61"/>
@@ -11983,24 +11990,24 @@
       <c r="S28" s="61"/>
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
-    </row>
-    <row r="29" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="135"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="66" t="s">
+      <c r="V28" s="61"/>
+    </row>
+    <row r="29" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B29" s="131"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="76">
+      <c r="E29" s="127"/>
+      <c r="F29" s="76">
         <v>3</v>
       </c>
-      <c r="F29" s="104">
+      <c r="G29" s="102">
         <v>0.8</v>
       </c>
-      <c r="G29" s="104">
+      <c r="H29" s="102">
         <v>0.8</v>
       </c>
-      <c r="H29" s="61"/>
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
       <c r="K29" s="61"/>
@@ -12014,26 +12021,26 @@
       <c r="S29" s="61"/>
       <c r="T29" s="61"/>
       <c r="U29" s="61"/>
-    </row>
-    <row r="30" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="139"/>
-      <c r="B30" s="71" t="s">
+      <c r="V29" s="61"/>
+    </row>
+    <row r="30" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B30" s="132"/>
+      <c r="C30" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="D30" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="132"/>
-      <c r="E30" s="76">
+      <c r="E30" s="127"/>
+      <c r="F30" s="76">
         <v>3</v>
       </c>
-      <c r="F30" s="104">
+      <c r="G30" s="102">
         <v>0.8</v>
       </c>
-      <c r="G30" s="104">
+      <c r="H30" s="102">
         <v>0.8</v>
       </c>
-      <c r="H30" s="61"/>
       <c r="I30" s="61"/>
       <c r="J30" s="61"/>
       <c r="K30" s="61"/>
@@ -12047,28 +12054,28 @@
       <c r="S30" s="61"/>
       <c r="T30" s="61"/>
       <c r="U30" s="61"/>
-    </row>
-    <row r="31" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="138" t="s">
+      <c r="V30" s="61"/>
+    </row>
+    <row r="31" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B31" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="C31" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="D31" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="132"/>
-      <c r="E31" s="76">
+      <c r="E31" s="127"/>
+      <c r="F31" s="76">
         <v>4</v>
       </c>
-      <c r="F31" s="104" t="s">
+      <c r="G31" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="104" t="s">
+      <c r="H31" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="H31" s="61"/>
       <c r="I31" s="61"/>
       <c r="J31" s="61"/>
       <c r="K31" s="61"/>
@@ -12082,26 +12089,26 @@
       <c r="S31" s="61"/>
       <c r="T31" s="61"/>
       <c r="U31" s="61"/>
-    </row>
-    <row r="32" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="136"/>
-      <c r="B32" s="80" t="s">
+      <c r="V31" s="61"/>
+    </row>
+    <row r="32" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B32" s="133"/>
+      <c r="C32" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="D32" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="133"/>
-      <c r="E32" s="82">
+      <c r="E32" s="128"/>
+      <c r="F32" s="82">
         <v>5</v>
       </c>
-      <c r="F32" s="105" t="s">
+      <c r="G32" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="105" t="s">
+      <c r="H32" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="61"/>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
       <c r="K32" s="61"/>
@@ -12115,24 +12122,24 @@
       <c r="S32" s="61"/>
       <c r="T32" s="61"/>
       <c r="U32" s="61"/>
-    </row>
-    <row r="33" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A33" s="135" t="s">
+      <c r="V32" s="61"/>
+    </row>
+    <row r="33" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
+      <c r="B33" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="C33" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="D33" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="132" t="s">
+      <c r="E33" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="61"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
       <c r="I33" s="61"/>
       <c r="J33" s="61"/>
       <c r="K33" s="61"/>
@@ -12146,20 +12153,20 @@
       <c r="S33" s="61"/>
       <c r="T33" s="61"/>
       <c r="U33" s="61"/>
-    </row>
-    <row r="34" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="71" t="s">
+      <c r="V33" s="61"/>
+    </row>
+    <row r="34" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B34" s="131"/>
+      <c r="C34" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="D34" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="132"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="61"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
       <c r="I34" s="61"/>
       <c r="J34" s="61"/>
       <c r="K34" s="61"/>
@@ -12173,20 +12180,20 @@
       <c r="S34" s="61"/>
       <c r="T34" s="61"/>
       <c r="U34" s="61"/>
-    </row>
-    <row r="35" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="71" t="s">
+      <c r="V34" s="61"/>
+    </row>
+    <row r="35" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B35" s="131"/>
+      <c r="C35" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="D35" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="132"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="61"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
       <c r="I35" s="61"/>
       <c r="J35" s="61"/>
       <c r="K35" s="61"/>
@@ -12200,20 +12207,20 @@
       <c r="S35" s="61"/>
       <c r="T35" s="61"/>
       <c r="U35" s="61"/>
-    </row>
-    <row r="36" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="71" t="s">
+      <c r="V35" s="61"/>
+    </row>
+    <row r="36" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B36" s="131"/>
+      <c r="C36" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="D36" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="132"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="61"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
       <c r="I36" s="61"/>
       <c r="J36" s="61"/>
       <c r="K36" s="61"/>
@@ -12227,20 +12234,20 @@
       <c r="S36" s="61"/>
       <c r="T36" s="61"/>
       <c r="U36" s="61"/>
-    </row>
-    <row r="37" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="135"/>
-      <c r="B37" s="71" t="s">
+      <c r="V36" s="61"/>
+    </row>
+    <row r="37" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B37" s="131"/>
+      <c r="C37" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="D37" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="132"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="61"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
       <c r="I37" s="61"/>
       <c r="J37" s="61"/>
       <c r="K37" s="61"/>
@@ -12254,20 +12261,20 @@
       <c r="S37" s="61"/>
       <c r="T37" s="61"/>
       <c r="U37" s="61"/>
-    </row>
-    <row r="38" spans="1:21" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A38" s="139"/>
-      <c r="B38" s="69" t="s">
+      <c r="V37" s="61"/>
+    </row>
+    <row r="38" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B38" s="132"/>
+      <c r="C38" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="D38" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="137"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="61"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
       <c r="I38" s="61"/>
       <c r="J38" s="61"/>
       <c r="K38" s="61"/>
@@ -12281,13 +12288,13 @@
       <c r="S38" s="61"/>
       <c r="T38" s="61"/>
       <c r="U38" s="61"/>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="1"/>
+      <c r="V38" s="61"/>
+    </row>
+    <row r="39" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -12304,13 +12311,13 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -12327,11 +12334,11 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="1"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B41" s="1"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -12348,11 +12355,11 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="1"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B42" s="1"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -12369,11 +12376,11 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B43" s="1"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -12390,11 +12397,11 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B44" s="1"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -12411,11 +12418,11 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B45" s="1"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -12432,13 +12439,13 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -12455,15 +12462,15 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1" t="s">
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -12480,17 +12487,17 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="33" t="s">
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B48" s="1"/>
+      <c r="C48" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -12507,17 +12514,17 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2" t="s">
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B49" s="1"/>
+      <c r="C49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -12534,17 +12541,17 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="32" t="s">
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B50" s="1"/>
+      <c r="C50" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -12561,17 +12568,17 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B51" s="1"/>
+      <c r="C51" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -12588,17 +12595,17 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2" t="s">
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B52" s="1"/>
+      <c r="C52" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -12615,13 +12622,13 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -12638,13 +12645,13 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -12661,13 +12668,13 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -12684,13 +12691,13 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="1"/>
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -12707,13 +12714,13 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="1"/>
+      <c r="V56" s="1"/>
+    </row>
+    <row r="57" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -12730,13 +12737,13 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="1"/>
+      <c r="V57" s="1"/>
+    </row>
+    <row r="58" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -12753,13 +12760,13 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="1"/>
+      <c r="V58" s="1"/>
+    </row>
+    <row r="59" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -12776,13 +12783,13 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="1"/>
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -12799,13 +12806,13 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="1"/>
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -12822,13 +12829,13 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="1"/>
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="2"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -12845,13 +12852,13 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="1"/>
+      <c r="V62" s="1"/>
+    </row>
+    <row r="63" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -12868,13 +12875,13 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
-    </row>
-    <row r="64" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="1"/>
+      <c r="V63" s="1"/>
+    </row>
+    <row r="64" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="2"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -12891,13 +12898,13 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="1"/>
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -12914,13 +12921,13 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="1"/>
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="2"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -12937,13 +12944,13 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="1"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="2"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -12960,13 +12967,13 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A68" s="1"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="1"/>
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -12983,13 +12990,13 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="1"/>
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -13006,13 +13013,13 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
-    </row>
-    <row r="70" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A70" s="1"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -13029,13 +13036,13 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
-    </row>
-    <row r="71" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="1"/>
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -13052,13 +13059,13 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
-    </row>
-    <row r="72" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="1"/>
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B72" s="1"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="2"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -13075,13 +13082,13 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
-    </row>
-    <row r="73" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="1"/>
+      <c r="V72" s="1"/>
+    </row>
+    <row r="73" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B73" s="1"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -13098,13 +13105,13 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
-    </row>
-    <row r="74" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="1"/>
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B74" s="1"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -13121,13 +13128,13 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
-    </row>
-    <row r="75" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="1"/>
+      <c r="V74" s="1"/>
+    </row>
+    <row r="75" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B75" s="1"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -13144,13 +13151,13 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
-    </row>
-    <row r="76" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="1"/>
+      <c r="V75" s="1"/>
+    </row>
+    <row r="76" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="2"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -13167,13 +13174,13 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
-    </row>
-    <row r="77" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="1"/>
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -13190,13 +13197,13 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
-    </row>
-    <row r="78" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="1"/>
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -13213,13 +13220,13 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="1"/>
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -13236,13 +13243,13 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-    </row>
-    <row r="80" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="1"/>
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B80" s="1"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -13259,13 +13266,13 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
-    </row>
-    <row r="81" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="1"/>
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -13282,13 +13289,13 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
-    </row>
-    <row r="82" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A82" s="1"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="1"/>
+      <c r="V81" s="1"/>
+    </row>
+    <row r="82" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -13305,13 +13312,13 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
-    </row>
-    <row r="83" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="1"/>
+      <c r="V82" s="1"/>
+    </row>
+    <row r="83" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -13328,13 +13335,13 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
-    </row>
-    <row r="84" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="1"/>
+      <c r="V83" s="1"/>
+    </row>
+    <row r="84" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B84" s="1"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -13351,13 +13358,13 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
-    </row>
-    <row r="85" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="1"/>
+      <c r="V84" s="1"/>
+    </row>
+    <row r="85" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B85" s="1"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -13374,13 +13381,13 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
-    </row>
-    <row r="86" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="1"/>
+      <c r="V85" s="1"/>
+    </row>
+    <row r="86" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B86" s="1"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -13397,13 +13404,13 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
-    </row>
-    <row r="87" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="1"/>
+      <c r="V86" s="1"/>
+    </row>
+    <row r="87" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B87" s="1"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="2"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -13420,13 +13427,13 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
-    </row>
-    <row r="88" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="1"/>
+      <c r="V87" s="1"/>
+    </row>
+    <row r="88" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B88" s="1"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -13443,13 +13450,13 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
-    </row>
-    <row r="89" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="1"/>
+      <c r="V88" s="1"/>
+    </row>
+    <row r="89" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B89" s="1"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="2"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -13466,13 +13473,13 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
-    </row>
-    <row r="90" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="1"/>
+      <c r="V89" s="1"/>
+    </row>
+    <row r="90" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B90" s="1"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="2"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -13489,13 +13496,13 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-    </row>
-    <row r="91" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="1"/>
+      <c r="V90" s="1"/>
+    </row>
+    <row r="91" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B91" s="1"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="2"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -13512,13 +13519,13 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
-    </row>
-    <row r="92" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="1"/>
+      <c r="V91" s="1"/>
+    </row>
+    <row r="92" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B92" s="1"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -13535,13 +13542,13 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
-    </row>
-    <row r="93" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="1"/>
+      <c r="V92" s="1"/>
+    </row>
+    <row r="93" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B93" s="1"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -13558,13 +13565,13 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
-    </row>
-    <row r="94" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="1"/>
+      <c r="V93" s="1"/>
+    </row>
+    <row r="94" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B94" s="1"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="2"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -13581,13 +13588,13 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
-    </row>
-    <row r="95" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="1"/>
+      <c r="V94" s="1"/>
+    </row>
+    <row r="95" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B95" s="1"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="2"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -13604,13 +13611,13 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
-    </row>
-    <row r="96" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="1"/>
+      <c r="V95" s="1"/>
+    </row>
+    <row r="96" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B96" s="1"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="2"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -13627,13 +13634,13 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
-    </row>
-    <row r="97" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="1"/>
+      <c r="V96" s="1"/>
+    </row>
+    <row r="97" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B97" s="1"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="2"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -13650,13 +13657,13 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
-    </row>
-    <row r="98" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="1"/>
+      <c r="V97" s="1"/>
+    </row>
+    <row r="98" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B98" s="1"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -13673,13 +13680,13 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
-    </row>
-    <row r="99" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="1"/>
+      <c r="V98" s="1"/>
+    </row>
+    <row r="99" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B99" s="1"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="2"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -13696,13 +13703,13 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
-    </row>
-    <row r="100" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="1"/>
+      <c r="V99" s="1"/>
+    </row>
+    <row r="100" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B100" s="1"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="2"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -13719,13 +13726,13 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
-    </row>
-    <row r="101" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="1"/>
+      <c r="V100" s="1"/>
+    </row>
+    <row r="101" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B101" s="1"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -13742,13 +13749,13 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
-    </row>
-    <row r="102" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="1"/>
+      <c r="V101" s="1"/>
+    </row>
+    <row r="102" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B102" s="1"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="2"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -13765,13 +13772,13 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
-    </row>
-    <row r="103" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="1"/>
+      <c r="V102" s="1"/>
+    </row>
+    <row r="103" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B103" s="1"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="2"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -13788,13 +13795,13 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
-    </row>
-    <row r="104" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="1"/>
+      <c r="V103" s="1"/>
+    </row>
+    <row r="104" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B104" s="1"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="2"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -13811,13 +13818,13 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
-    </row>
-    <row r="105" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="1"/>
+      <c r="V104" s="1"/>
+    </row>
+    <row r="105" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B105" s="1"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="2"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -13834,13 +13841,13 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
-    </row>
-    <row r="106" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A106" s="1"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="1"/>
+      <c r="V105" s="1"/>
+    </row>
+    <row r="106" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B106" s="1"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="2"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -13857,13 +13864,13 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
-    </row>
-    <row r="107" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A107" s="1"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="1"/>
+      <c r="V106" s="1"/>
+    </row>
+    <row r="107" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B107" s="1"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="2"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -13880,13 +13887,13 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
-    </row>
-    <row r="108" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="1"/>
+      <c r="V107" s="1"/>
+    </row>
+    <row r="108" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B108" s="1"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="2"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -13903,13 +13910,13 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
-    </row>
-    <row r="109" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="1"/>
+      <c r="V108" s="1"/>
+    </row>
+    <row r="109" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B109" s="1"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="2"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -13926,13 +13933,13 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
-    </row>
-    <row r="110" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A110" s="1"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="1"/>
+      <c r="V109" s="1"/>
+    </row>
+    <row r="110" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B110" s="1"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="2"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -13949,13 +13956,13 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
-    </row>
-    <row r="111" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A111" s="1"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="1"/>
+      <c r="V110" s="1"/>
+    </row>
+    <row r="111" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B111" s="1"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="2"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -13972,13 +13979,13 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
-    </row>
-    <row r="112" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A112" s="1"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="1"/>
+      <c r="V111" s="1"/>
+    </row>
+    <row r="112" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B112" s="1"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="2"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -13995,13 +14002,13 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
-    </row>
-    <row r="113" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A113" s="1"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="1"/>
+      <c r="V112" s="1"/>
+    </row>
+    <row r="113" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B113" s="1"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="2"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -14018,13 +14025,13 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
-    </row>
-    <row r="114" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A114" s="1"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="1"/>
+      <c r="V113" s="1"/>
+    </row>
+    <row r="114" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B114" s="1"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="2"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -14041,13 +14048,13 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
-    </row>
-    <row r="115" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A115" s="1"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="1"/>
+      <c r="V114" s="1"/>
+    </row>
+    <row r="115" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B115" s="1"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="2"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -14064,13 +14071,13 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
-    </row>
-    <row r="116" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="1"/>
+      <c r="V115" s="1"/>
+    </row>
+    <row r="116" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B116" s="1"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="2"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -14087,13 +14094,13 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
-    </row>
-    <row r="117" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="1"/>
+      <c r="V116" s="1"/>
+    </row>
+    <row r="117" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B117" s="1"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="2"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -14110,13 +14117,13 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
-    </row>
-    <row r="118" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="1"/>
+      <c r="V117" s="1"/>
+    </row>
+    <row r="118" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B118" s="1"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -14133,13 +14140,13 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
-    </row>
-    <row r="119" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="1"/>
+      <c r="V118" s="1"/>
+    </row>
+    <row r="119" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B119" s="1"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="2"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -14156,13 +14163,13 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
-    </row>
-    <row r="120" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="1"/>
+      <c r="V119" s="1"/>
+    </row>
+    <row r="120" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B120" s="1"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -14179,13 +14186,13 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
-    </row>
-    <row r="121" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A121" s="1"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="1"/>
+      <c r="V120" s="1"/>
+    </row>
+    <row r="121" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B121" s="1"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="2"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -14202,13 +14209,13 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
-    </row>
-    <row r="122" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A122" s="1"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="1"/>
+      <c r="V121" s="1"/>
+    </row>
+    <row r="122" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B122" s="1"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="2"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -14225,13 +14232,13 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
-    </row>
-    <row r="123" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A123" s="1"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="1"/>
+      <c r="V122" s="1"/>
+    </row>
+    <row r="123" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B123" s="1"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="2"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -14248,13 +14255,13 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
-    </row>
-    <row r="124" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="1"/>
+      <c r="V123" s="1"/>
+    </row>
+    <row r="124" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B124" s="1"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="2"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -14271,13 +14278,13 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
-    </row>
-    <row r="125" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="1"/>
+      <c r="V124" s="1"/>
+    </row>
+    <row r="125" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B125" s="1"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="2"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -14294,13 +14301,13 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
-    </row>
-    <row r="126" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="1"/>
+      <c r="V125" s="1"/>
+    </row>
+    <row r="126" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B126" s="1"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="2"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -14317,13 +14324,13 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
-    </row>
-    <row r="127" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="1"/>
+      <c r="V126" s="1"/>
+    </row>
+    <row r="127" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B127" s="1"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="2"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -14340,13 +14347,13 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
-    </row>
-    <row r="128" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="1"/>
+      <c r="V127" s="1"/>
+    </row>
+    <row r="128" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B128" s="1"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="2"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -14363,13 +14370,13 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
-    </row>
-    <row r="129" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="1"/>
+      <c r="V128" s="1"/>
+    </row>
+    <row r="129" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B129" s="1"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -14386,13 +14393,13 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
-    </row>
-    <row r="130" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="1"/>
+      <c r="V129" s="1"/>
+    </row>
+    <row r="130" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B130" s="1"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="2"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -14409,13 +14416,13 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
-    </row>
-    <row r="131" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A131" s="1"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="1"/>
+      <c r="V130" s="1"/>
+    </row>
+    <row r="131" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B131" s="1"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="2"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -14432,13 +14439,13 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
-    </row>
-    <row r="132" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A132" s="1"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="1"/>
+      <c r="V131" s="1"/>
+    </row>
+    <row r="132" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B132" s="1"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -14455,13 +14462,13 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
-    </row>
-    <row r="133" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A133" s="1"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="1"/>
+      <c r="V132" s="1"/>
+    </row>
+    <row r="133" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B133" s="1"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -14478,13 +14485,13 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
-    </row>
-    <row r="134" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A134" s="1"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="1"/>
+      <c r="V133" s="1"/>
+    </row>
+    <row r="134" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B134" s="1"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="2"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -14501,13 +14508,13 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
-    </row>
-    <row r="135" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A135" s="1"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="1"/>
+      <c r="V134" s="1"/>
+    </row>
+    <row r="135" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B135" s="1"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -14524,13 +14531,13 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
-    </row>
-    <row r="136" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="1"/>
+      <c r="V135" s="1"/>
+    </row>
+    <row r="136" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B136" s="1"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -14547,13 +14554,13 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
-    </row>
-    <row r="137" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="1"/>
+      <c r="V136" s="1"/>
+    </row>
+    <row r="137" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B137" s="1"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="2"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -14570,13 +14577,13 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
-    </row>
-    <row r="138" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="1"/>
+      <c r="V137" s="1"/>
+    </row>
+    <row r="138" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B138" s="1"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="2"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -14593,13 +14600,13 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
-    </row>
-    <row r="139" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="1"/>
+      <c r="V138" s="1"/>
+    </row>
+    <row r="139" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B139" s="1"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="2"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -14616,13 +14623,13 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
-    </row>
-    <row r="140" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A140" s="1"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="1"/>
+      <c r="V139" s="1"/>
+    </row>
+    <row r="140" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B140" s="1"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="2"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -14639,13 +14646,13 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
-    </row>
-    <row r="141" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A141" s="1"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="1"/>
+      <c r="V140" s="1"/>
+    </row>
+    <row r="141" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B141" s="1"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="2"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -14662,13 +14669,13 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
-    </row>
-    <row r="142" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A142" s="1"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="1"/>
+      <c r="V141" s="1"/>
+    </row>
+    <row r="142" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B142" s="1"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="2"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -14685,13 +14692,13 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
-    </row>
-    <row r="143" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A143" s="1"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="1"/>
+      <c r="V142" s="1"/>
+    </row>
+    <row r="143" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B143" s="1"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="2"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -14708,13 +14715,13 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
-    </row>
-    <row r="144" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="1"/>
+      <c r="V143" s="1"/>
+    </row>
+    <row r="144" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B144" s="1"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="2"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -14731,13 +14738,13 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
-    </row>
-    <row r="145" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A145" s="1"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="1"/>
+      <c r="V144" s="1"/>
+    </row>
+    <row r="145" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B145" s="1"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="2"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -14754,13 +14761,13 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
-    </row>
-    <row r="146" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A146" s="1"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="1"/>
+      <c r="V145" s="1"/>
+    </row>
+    <row r="146" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="2"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -14777,13 +14784,13 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
-    </row>
-    <row r="147" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A147" s="1"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="1"/>
+      <c r="V146" s="1"/>
+    </row>
+    <row r="147" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B147" s="1"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="2"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -14800,13 +14807,13 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
-    </row>
-    <row r="148" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A148" s="1"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="1"/>
+      <c r="V147" s="1"/>
+    </row>
+    <row r="148" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B148" s="1"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="2"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -14823,13 +14830,13 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
-    </row>
-    <row r="149" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A149" s="1"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="1"/>
+      <c r="V148" s="1"/>
+    </row>
+    <row r="149" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B149" s="1"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="2"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -14846,13 +14853,13 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
-    </row>
-    <row r="150" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A150" s="1"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="1"/>
+      <c r="V149" s="1"/>
+    </row>
+    <row r="150" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B150" s="1"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="2"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -14869,13 +14876,13 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
-    </row>
-    <row r="151" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A151" s="1"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="1"/>
+      <c r="V150" s="1"/>
+    </row>
+    <row r="151" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B151" s="1"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="2"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -14892,13 +14899,13 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
-    </row>
-    <row r="152" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A152" s="1"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="1"/>
+      <c r="V151" s="1"/>
+    </row>
+    <row r="152" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B152" s="1"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="2"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -14915,13 +14922,13 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
-    </row>
-    <row r="153" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A153" s="1"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="1"/>
+      <c r="V152" s="1"/>
+    </row>
+    <row r="153" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B153" s="1"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="2"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -14938,13 +14945,13 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
-    </row>
-    <row r="154" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A154" s="1"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="1"/>
+      <c r="V153" s="1"/>
+    </row>
+    <row r="154" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B154" s="1"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="2"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -14961,13 +14968,13 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
-    </row>
-    <row r="155" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A155" s="1"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="1"/>
+      <c r="V154" s="1"/>
+    </row>
+    <row r="155" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B155" s="1"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="2"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -14984,13 +14991,13 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
-    </row>
-    <row r="156" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A156" s="1"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="1"/>
+      <c r="V155" s="1"/>
+    </row>
+    <row r="156" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B156" s="1"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="2"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -15007,13 +15014,13 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
-    </row>
-    <row r="157" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A157" s="1"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="1"/>
+      <c r="V156" s="1"/>
+    </row>
+    <row r="157" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B157" s="1"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="2"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -15030,13 +15037,13 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
-    </row>
-    <row r="158" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A158" s="1"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="1"/>
+      <c r="V157" s="1"/>
+    </row>
+    <row r="158" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B158" s="1"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="2"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -15053,13 +15060,13 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
-    </row>
-    <row r="159" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A159" s="1"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="1"/>
+      <c r="V158" s="1"/>
+    </row>
+    <row r="159" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B159" s="1"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="2"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -15076,13 +15083,13 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
-    </row>
-    <row r="160" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A160" s="1"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="1"/>
+      <c r="V159" s="1"/>
+    </row>
+    <row r="160" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B160" s="1"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="2"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -15099,13 +15106,13 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
-    </row>
-    <row r="161" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A161" s="1"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="1"/>
+      <c r="V160" s="1"/>
+    </row>
+    <row r="161" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B161" s="1"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="2"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -15122,13 +15129,13 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
-    </row>
-    <row r="162" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A162" s="1"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="1"/>
+      <c r="V161" s="1"/>
+    </row>
+    <row r="162" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B162" s="1"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="2"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -15145,13 +15152,13 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
-    </row>
-    <row r="163" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A163" s="1"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="1"/>
+      <c r="V162" s="1"/>
+    </row>
+    <row r="163" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B163" s="1"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="2"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -15168,13 +15175,13 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
-    </row>
-    <row r="164" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A164" s="1"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="1"/>
+      <c r="V163" s="1"/>
+    </row>
+    <row r="164" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B164" s="1"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="2"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -15191,13 +15198,13 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
-    </row>
-    <row r="165" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A165" s="1"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="1"/>
+      <c r="V164" s="1"/>
+    </row>
+    <row r="165" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B165" s="1"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="2"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -15214,13 +15221,13 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
-    </row>
-    <row r="166" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A166" s="1"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="1"/>
+      <c r="V165" s="1"/>
+    </row>
+    <row r="166" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B166" s="1"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="2"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -15237,13 +15244,13 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
-    </row>
-    <row r="167" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A167" s="1"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="1"/>
+      <c r="V166" s="1"/>
+    </row>
+    <row r="167" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B167" s="1"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="2"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -15260,13 +15267,13 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
-    </row>
-    <row r="168" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A168" s="1"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="1"/>
+      <c r="V167" s="1"/>
+    </row>
+    <row r="168" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B168" s="1"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="2"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -15283,13 +15290,13 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
-    </row>
-    <row r="169" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A169" s="1"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="1"/>
+      <c r="V168" s="1"/>
+    </row>
+    <row r="169" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B169" s="1"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="2"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -15306,13 +15313,13 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
-    </row>
-    <row r="170" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A170" s="1"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="1"/>
+      <c r="V169" s="1"/>
+    </row>
+    <row r="170" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B170" s="1"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="2"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -15329,13 +15336,13 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
-    </row>
-    <row r="171" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A171" s="1"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="1"/>
+      <c r="V170" s="1"/>
+    </row>
+    <row r="171" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B171" s="1"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="2"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -15352,13 +15359,13 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
-    </row>
-    <row r="172" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A172" s="1"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="1"/>
+      <c r="V171" s="1"/>
+    </row>
+    <row r="172" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B172" s="1"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="2"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -15375,13 +15382,13 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
-    </row>
-    <row r="173" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A173" s="1"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="1"/>
+      <c r="V172" s="1"/>
+    </row>
+    <row r="173" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B173" s="1"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="2"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -15398,13 +15405,13 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
-    </row>
-    <row r="174" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="1"/>
+      <c r="V173" s="1"/>
+    </row>
+    <row r="174" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B174" s="1"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="2"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -15421,13 +15428,13 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
-    </row>
-    <row r="175" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="1"/>
+      <c r="V174" s="1"/>
+    </row>
+    <row r="175" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B175" s="1"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="2"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -15444,13 +15451,13 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
-    </row>
-    <row r="176" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="1"/>
+      <c r="V175" s="1"/>
+    </row>
+    <row r="176" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B176" s="1"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="2"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -15467,13 +15474,13 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
-    </row>
-    <row r="177" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A177" s="1"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="1"/>
+      <c r="V176" s="1"/>
+    </row>
+    <row r="177" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B177" s="1"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="2"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -15490,13 +15497,13 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
-    </row>
-    <row r="178" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A178" s="1"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="1"/>
+      <c r="V177" s="1"/>
+    </row>
+    <row r="178" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B178" s="1"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="2"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -15513,13 +15520,13 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
-    </row>
-    <row r="179" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A179" s="1"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="1"/>
+      <c r="V178" s="1"/>
+    </row>
+    <row r="179" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B179" s="1"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="2"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -15536,13 +15543,13 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
-    </row>
-    <row r="180" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A180" s="1"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="1"/>
+      <c r="V179" s="1"/>
+    </row>
+    <row r="180" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B180" s="1"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="2"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -15559,13 +15566,13 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
-    </row>
-    <row r="181" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A181" s="1"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="1"/>
+      <c r="V180" s="1"/>
+    </row>
+    <row r="181" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B181" s="1"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="2"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -15582,13 +15589,13 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
-    </row>
-    <row r="182" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A182" s="1"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="1"/>
+      <c r="V181" s="1"/>
+    </row>
+    <row r="182" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B182" s="1"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="2"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -15605,13 +15612,13 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
-    </row>
-    <row r="183" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A183" s="1"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="1"/>
+      <c r="V182" s="1"/>
+    </row>
+    <row r="183" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B183" s="1"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="2"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -15628,13 +15635,13 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
-    </row>
-    <row r="184" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A184" s="1"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="1"/>
+      <c r="V183" s="1"/>
+    </row>
+    <row r="184" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B184" s="1"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="2"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -15651,13 +15658,13 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
-    </row>
-    <row r="185" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A185" s="1"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="1"/>
+      <c r="V184" s="1"/>
+    </row>
+    <row r="185" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B185" s="1"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="2"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -15674,13 +15681,13 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
-    </row>
-    <row r="186" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A186" s="1"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="1"/>
+      <c r="V185" s="1"/>
+    </row>
+    <row r="186" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B186" s="1"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="2"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -15697,13 +15704,13 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
-    </row>
-    <row r="187" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A187" s="1"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="1"/>
+      <c r="V186" s="1"/>
+    </row>
+    <row r="187" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B187" s="1"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="2"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -15720,13 +15727,13 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
-    </row>
-    <row r="188" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A188" s="1"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="1"/>
+      <c r="V187" s="1"/>
+    </row>
+    <row r="188" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B188" s="1"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="2"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -15743,13 +15750,13 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
-    </row>
-    <row r="189" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A189" s="1"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="1"/>
+      <c r="V188" s="1"/>
+    </row>
+    <row r="189" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B189" s="1"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="2"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -15766,13 +15773,13 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
-    </row>
-    <row r="190" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A190" s="1"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="1"/>
+      <c r="V189" s="1"/>
+    </row>
+    <row r="190" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B190" s="1"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="2"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -15789,13 +15796,13 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
-    </row>
-    <row r="191" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A191" s="1"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="1"/>
+      <c r="V190" s="1"/>
+    </row>
+    <row r="191" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B191" s="1"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="2"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -15812,13 +15819,13 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
-    </row>
-    <row r="192" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A192" s="1"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="1"/>
+      <c r="V191" s="1"/>
+    </row>
+    <row r="192" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B192" s="1"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="2"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -15835,13 +15842,13 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
-    </row>
-    <row r="193" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A193" s="1"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="1"/>
+      <c r="V192" s="1"/>
+    </row>
+    <row r="193" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B193" s="1"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="2"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -15858,13 +15865,13 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
-    </row>
-    <row r="194" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="1"/>
+      <c r="V193" s="1"/>
+    </row>
+    <row r="194" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B194" s="1"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="2"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -15881,13 +15888,13 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
-    </row>
-    <row r="195" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A195" s="1"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="1"/>
+      <c r="V194" s="1"/>
+    </row>
+    <row r="195" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B195" s="1"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="2"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -15904,13 +15911,13 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
-    </row>
-    <row r="196" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A196" s="1"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="1"/>
+      <c r="V195" s="1"/>
+    </row>
+    <row r="196" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B196" s="1"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="2"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -15927,13 +15934,13 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
-    </row>
-    <row r="197" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A197" s="1"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="1"/>
+      <c r="V196" s="1"/>
+    </row>
+    <row r="197" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B197" s="1"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="2"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -15950,13 +15957,13 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
-    </row>
-    <row r="198" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A198" s="1"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="1"/>
+      <c r="V197" s="1"/>
+    </row>
+    <row r="198" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B198" s="1"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="2"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -15973,13 +15980,13 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
-    </row>
-    <row r="199" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A199" s="1"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="1"/>
+      <c r="V198" s="1"/>
+    </row>
+    <row r="199" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B199" s="1"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="2"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -15996,13 +16003,13 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
-    </row>
-    <row r="200" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A200" s="1"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="1"/>
+      <c r="V199" s="1"/>
+    </row>
+    <row r="200" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B200" s="1"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="2"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -16019,13 +16026,13 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
-    </row>
-    <row r="201" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A201" s="1"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="1"/>
+      <c r="V200" s="1"/>
+    </row>
+    <row r="201" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B201" s="1"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="2"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -16042,13 +16049,13 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
-    </row>
-    <row r="202" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A202" s="1"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="1"/>
+      <c r="V201" s="1"/>
+    </row>
+    <row r="202" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B202" s="1"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="2"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -16065,13 +16072,13 @@
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
       <c r="U202" s="1"/>
-    </row>
-    <row r="203" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A203" s="1"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="1"/>
+      <c r="V202" s="1"/>
+    </row>
+    <row r="203" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B203" s="1"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="2"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -16088,13 +16095,13 @@
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
-    </row>
-    <row r="204" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A204" s="1"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="1"/>
+      <c r="V203" s="1"/>
+    </row>
+    <row r="204" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B204" s="1"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="2"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -16111,13 +16118,13 @@
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
-    </row>
-    <row r="205" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A205" s="1"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="1"/>
+      <c r="V204" s="1"/>
+    </row>
+    <row r="205" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B205" s="1"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="2"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -16134,13 +16141,13 @@
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
-    </row>
-    <row r="206" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A206" s="1"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="1"/>
+      <c r="V205" s="1"/>
+    </row>
+    <row r="206" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B206" s="1"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="2"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -16157,13 +16164,13 @@
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
-    </row>
-    <row r="207" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A207" s="1"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="1"/>
+      <c r="V206" s="1"/>
+    </row>
+    <row r="207" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B207" s="1"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="2"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -16180,13 +16187,13 @@
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
-    </row>
-    <row r="208" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A208" s="1"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="1"/>
+      <c r="V207" s="1"/>
+    </row>
+    <row r="208" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B208" s="1"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="2"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -16203,13 +16210,13 @@
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
-    </row>
-    <row r="209" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A209" s="1"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="1"/>
+      <c r="V208" s="1"/>
+    </row>
+    <row r="209" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B209" s="1"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="2"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -16226,13 +16233,13 @@
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
-    </row>
-    <row r="210" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A210" s="1"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="1"/>
+      <c r="V209" s="1"/>
+    </row>
+    <row r="210" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B210" s="1"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="2"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -16249,13 +16256,13 @@
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
-    </row>
-    <row r="211" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A211" s="1"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="1"/>
+      <c r="V210" s="1"/>
+    </row>
+    <row r="211" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B211" s="1"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="2"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -16272,13 +16279,13 @@
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
-    </row>
-    <row r="212" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A212" s="1"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="1"/>
+      <c r="V211" s="1"/>
+    </row>
+    <row r="212" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B212" s="1"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="2"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -16295,13 +16302,13 @@
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
-    </row>
-    <row r="213" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A213" s="1"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="1"/>
+      <c r="V212" s="1"/>
+    </row>
+    <row r="213" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B213" s="1"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="2"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -16318,13 +16325,13 @@
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
-    </row>
-    <row r="214" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A214" s="1"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="1"/>
+      <c r="V213" s="1"/>
+    </row>
+    <row r="214" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B214" s="1"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="2"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -16341,13 +16348,13 @@
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
-    </row>
-    <row r="215" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A215" s="1"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="1"/>
+      <c r="V214" s="1"/>
+    </row>
+    <row r="215" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B215" s="1"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="2"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -16364,13 +16371,13 @@
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
       <c r="U215" s="1"/>
-    </row>
-    <row r="216" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A216" s="1"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="1"/>
+      <c r="V215" s="1"/>
+    </row>
+    <row r="216" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B216" s="1"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="2"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -16387,13 +16394,13 @@
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
-    </row>
-    <row r="217" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A217" s="1"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="1"/>
+      <c r="V216" s="1"/>
+    </row>
+    <row r="217" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B217" s="1"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="2"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -16410,13 +16417,13 @@
       <c r="S217" s="1"/>
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
-    </row>
-    <row r="218" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A218" s="1"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="1"/>
+      <c r="V217" s="1"/>
+    </row>
+    <row r="218" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B218" s="1"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="2"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -16433,13 +16440,13 @@
       <c r="S218" s="1"/>
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
-    </row>
-    <row r="219" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A219" s="1"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="1"/>
+      <c r="V218" s="1"/>
+    </row>
+    <row r="219" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B219" s="1"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="2"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -16456,13 +16463,13 @@
       <c r="S219" s="1"/>
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
-    </row>
-    <row r="220" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A220" s="1"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="1"/>
+      <c r="V219" s="1"/>
+    </row>
+    <row r="220" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B220" s="1"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="2"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
@@ -16479,13 +16486,13 @@
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
       <c r="U220" s="1"/>
-    </row>
-    <row r="221" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A221" s="1"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="1"/>
+      <c r="V220" s="1"/>
+    </row>
+    <row r="221" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B221" s="1"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="2"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -16502,13 +16509,13 @@
       <c r="S221" s="1"/>
       <c r="T221" s="1"/>
       <c r="U221" s="1"/>
-    </row>
-    <row r="222" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A222" s="1"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="1"/>
+      <c r="V221" s="1"/>
+    </row>
+    <row r="222" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B222" s="1"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="2"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -16525,13 +16532,13 @@
       <c r="S222" s="1"/>
       <c r="T222" s="1"/>
       <c r="U222" s="1"/>
-    </row>
-    <row r="223" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A223" s="1"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="1"/>
+      <c r="V222" s="1"/>
+    </row>
+    <row r="223" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B223" s="1"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="2"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -16548,13 +16555,13 @@
       <c r="S223" s="1"/>
       <c r="T223" s="1"/>
       <c r="U223" s="1"/>
-    </row>
-    <row r="224" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A224" s="1"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="1"/>
+      <c r="V223" s="1"/>
+    </row>
+    <row r="224" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B224" s="1"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="2"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -16571,13 +16578,13 @@
       <c r="S224" s="1"/>
       <c r="T224" s="1"/>
       <c r="U224" s="1"/>
-    </row>
-    <row r="225" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A225" s="1"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="1"/>
+      <c r="V224" s="1"/>
+    </row>
+    <row r="225" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B225" s="1"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="2"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
@@ -16594,13 +16601,13 @@
       <c r="S225" s="1"/>
       <c r="T225" s="1"/>
       <c r="U225" s="1"/>
-    </row>
-    <row r="226" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A226" s="1"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="1"/>
+      <c r="V225" s="1"/>
+    </row>
+    <row r="226" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B226" s="1"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="2"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
@@ -16617,13 +16624,13 @@
       <c r="S226" s="1"/>
       <c r="T226" s="1"/>
       <c r="U226" s="1"/>
-    </row>
-    <row r="227" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A227" s="1"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="1"/>
+      <c r="V226" s="1"/>
+    </row>
+    <row r="227" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B227" s="1"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="2"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
@@ -16640,13 +16647,13 @@
       <c r="S227" s="1"/>
       <c r="T227" s="1"/>
       <c r="U227" s="1"/>
-    </row>
-    <row r="228" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A228" s="1"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="1"/>
+      <c r="V227" s="1"/>
+    </row>
+    <row r="228" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B228" s="1"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="2"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
@@ -16663,13 +16670,13 @@
       <c r="S228" s="1"/>
       <c r="T228" s="1"/>
       <c r="U228" s="1"/>
-    </row>
-    <row r="229" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A229" s="1"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="1"/>
+      <c r="V228" s="1"/>
+    </row>
+    <row r="229" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B229" s="1"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="2"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
@@ -16686,13 +16693,13 @@
       <c r="S229" s="1"/>
       <c r="T229" s="1"/>
       <c r="U229" s="1"/>
-    </row>
-    <row r="230" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A230" s="1"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="1"/>
+      <c r="V229" s="1"/>
+    </row>
+    <row r="230" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B230" s="1"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="2"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
@@ -16709,13 +16716,13 @@
       <c r="S230" s="1"/>
       <c r="T230" s="1"/>
       <c r="U230" s="1"/>
-    </row>
-    <row r="231" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A231" s="1"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="1"/>
+      <c r="V230" s="1"/>
+    </row>
+    <row r="231" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B231" s="1"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="2"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
@@ -16732,13 +16739,13 @@
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
       <c r="U231" s="1"/>
-    </row>
-    <row r="232" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A232" s="1"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="1"/>
+      <c r="V231" s="1"/>
+    </row>
+    <row r="232" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B232" s="1"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -16755,13 +16762,13 @@
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
       <c r="U232" s="1"/>
-    </row>
-    <row r="233" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A233" s="1"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="1"/>
+      <c r="V232" s="1"/>
+    </row>
+    <row r="233" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B233" s="1"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="2"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
@@ -16778,13 +16785,13 @@
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
-    </row>
-    <row r="234" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A234" s="1"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="1"/>
+      <c r="V233" s="1"/>
+    </row>
+    <row r="234" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B234" s="1"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="2"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
@@ -16801,13 +16808,13 @@
       <c r="S234" s="1"/>
       <c r="T234" s="1"/>
       <c r="U234" s="1"/>
-    </row>
-    <row r="235" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A235" s="1"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="1"/>
+      <c r="V234" s="1"/>
+    </row>
+    <row r="235" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B235" s="1"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -16824,13 +16831,13 @@
       <c r="S235" s="1"/>
       <c r="T235" s="1"/>
       <c r="U235" s="1"/>
-    </row>
-    <row r="236" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A236" s="1"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="1"/>
+      <c r="V235" s="1"/>
+    </row>
+    <row r="236" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B236" s="1"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="2"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
@@ -16847,11 +16854,12 @@
       <c r="S236" s="1"/>
       <c r="T236" s="1"/>
       <c r="U236" s="1"/>
-    </row>
-    <row r="237" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="238" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="239" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="240" spans="1:21" ht="15.75" customHeight="1"/>
+      <c r="V236" s="1"/>
+    </row>
+    <row r="237" spans="2:22" ht="15.75" customHeight="1"/>
+    <row r="238" spans="2:22" ht="15.75" customHeight="1"/>
+    <row r="239" spans="2:22" ht="15.75" customHeight="1"/>
+    <row r="240" spans="2:22" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -17610,26 +17618,29 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A7:E38"/>
-  <sortState ref="A8:F38">
-    <sortCondition ref="D8:D38"/>
+  <sortState ref="B8:G38">
+    <sortCondition ref="E8:E38"/>
   </sortState>
-  <mergeCells count="15">
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="B2:F3"/>
+  <mergeCells count="19">
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C2:G3"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="C27:C29"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
+++ b/2 기능 정의 취합, 요구사항 정의서, USE FLOW/project05 - 요구사항 정의서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14910" yWindow="615" windowWidth="13965" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="14205" yWindow="30" windowWidth="13965" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항정의서" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항정의서!$A$7:$O$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$B$7:$F$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'요구사항정의서 (2)'!$B$7:$D$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="163">
   <si>
     <t>요구사항정의서</t>
   </si>
@@ -683,15 +683,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>구현 예정</t>
+    <t>사용자</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>구현 예정</t>
+    <t>세미나 게스트 후기 남기기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>구현 예정</t>
+    <t>-</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +706,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -840,22 +844,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Dotum"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,8 +876,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1180,6 +1176,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1189,7 +1194,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1202,7 +1207,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1213,46 +1218,9 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1260,7 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1444,23 +1412,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1474,58 +1433,7 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1555,22 +1463,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1627,19 +1526,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1654,53 +1547,107 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1978,21 +1925,21 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2014,19 +1961,19 @@
     </row>
     <row r="3" spans="1:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="111"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2171,12 +2118,12 @@
       <c r="F7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
       <c r="K7" s="28" t="s">
         <v>9</v>
       </c>
@@ -2211,13 +2158,13 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="120"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="53" t="s">
         <v>94</v>
       </c>
@@ -2259,14 +2206,14 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A9" s="114"/>
-      <c r="B9" s="113" t="s">
+      <c r="A9" s="91"/>
+      <c r="B9" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="72" t="s">
         <v>148</v>
       </c>
       <c r="E9" s="46"/>
@@ -2307,8 +2254,8 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A10" s="114"/>
-      <c r="B10" s="113"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="52" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2300,8 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" ht="72">
-      <c r="A11" s="114"/>
-      <c r="B11" s="113"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="52" t="s">
         <v>23</v>
       </c>
@@ -2399,8 +2346,8 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="33.75" hidden="1" customHeight="1">
-      <c r="A12" s="114"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="52" t="s">
         <v>26</v>
       </c>
@@ -2439,8 +2386,8 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="121" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="98" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="52" t="s">
@@ -2487,8 +2434,8 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A14" s="114"/>
-      <c r="B14" s="122"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="52" t="s">
         <v>98</v>
       </c>
@@ -2527,9 +2474,9 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" ht="48">
-      <c r="A15" s="114"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="93" t="s">
+      <c r="A15" s="91"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="73" t="s">
         <v>129</v>
       </c>
       <c r="D15" s="53" t="s">
@@ -2567,9 +2514,9 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A16" s="114"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="93" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="73" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="53" t="s">
@@ -2607,11 +2554,11 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A17" s="114"/>
-      <c r="B17" s="116" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="73" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="53" t="s">
@@ -2655,8 +2602,8 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" ht="33.6" hidden="1" customHeight="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="52" t="s">
         <v>88</v>
       </c>
@@ -2701,12 +2648,12 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="116"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="74" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="50"/>
@@ -2747,12 +2694,12 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" ht="28.9" customHeight="1">
-      <c r="A20" s="114"/>
-      <c r="B20" s="116"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="74" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="50"/>
@@ -2793,12 +2740,12 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A21" s="114"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="74" t="s">
         <v>114</v>
       </c>
       <c r="E21" s="51"/>
@@ -2833,8 +2780,8 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="52" t="s">
         <v>33</v>
       </c>
@@ -2873,8 +2820,8 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="121" t="s">
+      <c r="A23" s="91"/>
+      <c r="B23" s="98" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="52" t="s">
@@ -2913,8 +2860,8 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="122"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="52" t="s">
         <v>104</v>
       </c>
@@ -2951,8 +2898,8 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="122"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="52" t="s">
         <v>82</v>
       </c>
@@ -2989,8 +2936,8 @@
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="123"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="52" t="s">
         <v>109</v>
       </c>
@@ -3027,11 +2974,11 @@
       <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A27" s="114"/>
-      <c r="B27" s="113" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="73" t="s">
         <v>115</v>
       </c>
       <c r="D27" s="53" t="s">
@@ -3075,12 +3022,12 @@
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" ht="28.9" hidden="1" customHeight="1">
-      <c r="A28" s="115"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="95" t="s">
+      <c r="A28" s="92"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="76" t="s">
         <v>117</v>
       </c>
       <c r="E28" s="54"/>
@@ -3115,12 +3062,12 @@
       <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A29" s="115"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="95" t="s">
+      <c r="A29" s="92"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="77" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="54"/>
@@ -3161,16 +3108,16 @@
       <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" ht="33.200000000000003" customHeight="1">
-      <c r="A30" s="114" t="s">
+      <c r="A30" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="98" t="s">
+      <c r="D30" s="78" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="51"/>
@@ -3205,14 +3152,14 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A31" s="114"/>
-      <c r="B31" s="93" t="s">
+      <c r="A31" s="91"/>
+      <c r="B31" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="72" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="51"/>
@@ -3251,14 +3198,14 @@
       <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A32" s="114"/>
-      <c r="B32" s="99" t="s">
+      <c r="A32" s="91"/>
+      <c r="B32" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="74" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="51"/>
@@ -3297,14 +3244,14 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A33" s="114"/>
-      <c r="B33" s="113" t="s">
+      <c r="A33" s="91"/>
+      <c r="B33" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="93" t="s">
+      <c r="C33" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E33" s="40"/>
@@ -3339,12 +3286,12 @@
       <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A34" s="114"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="93" t="s">
+      <c r="A34" s="91"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="72" t="s">
         <v>123</v>
       </c>
       <c r="E34" s="55"/>
@@ -3379,12 +3326,12 @@
       <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="1:32" ht="33.200000000000003" hidden="1" customHeight="1">
-      <c r="A35" s="114"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="93" t="s">
+      <c r="A35" s="91"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="72" t="s">
         <v>122</v>
       </c>
       <c r="E35" s="40"/>
@@ -3419,14 +3366,14 @@
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" ht="45.75" hidden="1" customHeight="1">
-      <c r="A36" s="114"/>
-      <c r="B36" s="117" t="s">
+      <c r="A36" s="91"/>
+      <c r="B36" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="98" t="s">
+      <c r="D36" s="78" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="51"/>
@@ -3461,12 +3408,12 @@
       <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" ht="44.1" customHeight="1">
-      <c r="A37" s="114"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="93" t="s">
+      <c r="A37" s="91"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="98" t="s">
+      <c r="D37" s="78" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="51"/>
@@ -3501,14 +3448,14 @@
       <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="1:32" ht="52.5" hidden="1" customHeight="1">
-      <c r="A38" s="114"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="52" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="98" t="s">
+      <c r="D38" s="78" t="s">
         <v>137</v>
       </c>
       <c r="E38" s="51"/>
@@ -11093,10 +11040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V997"/>
+  <dimension ref="B1:U997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -11104,19 +11051,18 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15.75" customHeight="1">
+    <row r="1" spans="2:21" ht="15.75" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -11131,17 +11077,16 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="2:22" ht="19.5" customHeight="1">
+    </row>
+    <row r="2" spans="2:21" ht="19.5" customHeight="1">
       <c r="B2" s="1"/>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="130"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -11156,15 +11101,14 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="2:22" ht="19.5" customHeight="1">
+    </row>
+    <row r="3" spans="2:21" ht="19.5" customHeight="1">
       <c r="B3" s="1"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="130"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -11179,15 +11123,14 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="2:22" ht="19.5" hidden="1" customHeight="1">
+    </row>
+    <row r="4" spans="2:21" ht="19.5" hidden="1" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -11202,9 +11145,8 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="2:22" ht="50.25" hidden="1" customHeight="1">
+    </row>
+    <row r="5" spans="2:21" ht="50.25" hidden="1" customHeight="1">
       <c r="B5" s="1"/>
       <c r="C5" s="12">
         <v>43860</v>
@@ -11212,9 +11154,9 @@
       <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -11229,15 +11171,14 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="2:22" ht="19.5" customHeight="1">
+    </row>
+    <row r="6" spans="2:21" ht="19.5" customHeight="1">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -11252,9 +11193,8 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="2:22" ht="27.75" customHeight="1">
+    </row>
+    <row r="7" spans="2:21" ht="27.75" customHeight="1">
       <c r="B7" s="45" t="s">
         <v>2</v>
       </c>
@@ -11264,18 +11204,16 @@
       <c r="D7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>158</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -11289,28 +11227,25 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B8" s="130" t="s">
+    </row>
+    <row r="8" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B8" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137" t="s">
+      <c r="D8" s="122"/>
+      <c r="E8" s="131">
+        <v>1</v>
+      </c>
+      <c r="F8" s="131">
+        <v>1</v>
+      </c>
+      <c r="G8" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="75">
-        <v>1</v>
-      </c>
-      <c r="G8" s="102">
-        <v>0.9</v>
-      </c>
-      <c r="H8" s="102">
-        <v>0.9</v>
-      </c>
+      <c r="H8" s="61"/>
       <c r="I8" s="61"/>
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
@@ -11324,26 +11259,23 @@
       <c r="S8" s="61"/>
       <c r="T8" s="61"/>
       <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-    </row>
-    <row r="9" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="131"/>
-      <c r="C9" s="73" t="s">
+    </row>
+    <row r="9" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B9" s="123"/>
+      <c r="C9" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="75">
-        <v>2</v>
-      </c>
-      <c r="G9" s="102">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="102">
-        <v>0.8</v>
-      </c>
+      <c r="E9" s="131">
+        <v>1</v>
+      </c>
+      <c r="F9" s="131">
+        <v>1</v>
+      </c>
+      <c r="G9" s="109"/>
+      <c r="H9" s="61"/>
       <c r="I9" s="61"/>
       <c r="J9" s="61"/>
       <c r="K9" s="61"/>
@@ -11357,26 +11289,23 @@
       <c r="S9" s="61"/>
       <c r="T9" s="61"/>
       <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-    </row>
-    <row r="10" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B10" s="132"/>
-      <c r="C10" s="71" t="s">
+    </row>
+    <row r="10" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B10" s="126"/>
+      <c r="C10" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="138"/>
-      <c r="F10" s="76">
-        <v>3</v>
-      </c>
-      <c r="G10" s="102" t="s">
+      <c r="E10" s="131">
+        <v>1</v>
+      </c>
+      <c r="F10" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="H10" s="102" t="s">
-        <v>156</v>
-      </c>
+      <c r="G10" s="109"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="61"/>
       <c r="J10" s="61"/>
       <c r="K10" s="61"/>
@@ -11390,28 +11319,25 @@
       <c r="S10" s="61"/>
       <c r="T10" s="61"/>
       <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-    </row>
-    <row r="11" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B11" s="130" t="s">
+    </row>
+    <row r="11" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B11" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="138"/>
-      <c r="F11" s="76">
-        <v>4</v>
-      </c>
-      <c r="G11" s="102" t="s">
+      <c r="E11" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="102" t="s">
-        <v>156</v>
-      </c>
+      <c r="G11" s="109"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
@@ -11425,26 +11351,23 @@
       <c r="S11" s="61"/>
       <c r="T11" s="61"/>
       <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-    </row>
-    <row r="12" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B12" s="131"/>
-      <c r="C12" s="70" t="s">
+    </row>
+    <row r="12" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B12" s="106"/>
+      <c r="C12" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="138"/>
-      <c r="F12" s="76">
-        <v>5</v>
-      </c>
-      <c r="G12" s="102" t="s">
+      <c r="E12" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="102" t="s">
+      <c r="F12" s="80" t="s">
         <v>156</v>
       </c>
+      <c r="G12" s="109"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
@@ -11458,26 +11381,23 @@
       <c r="S12" s="61"/>
       <c r="T12" s="61"/>
       <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-    </row>
-    <row r="13" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B13" s="133"/>
-      <c r="C13" s="80" t="s">
+    </row>
+    <row r="13" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B13" s="110"/>
+      <c r="C13" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="112" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="139"/>
-      <c r="F13" s="82">
-        <v>6</v>
-      </c>
-      <c r="G13" s="103" t="s">
+      <c r="E13" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="103" t="s">
+      <c r="F13" s="114" t="s">
         <v>156</v>
       </c>
+      <c r="G13" s="113"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="61"/>
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
@@ -11491,30 +11411,27 @@
       <c r="S13" s="61"/>
       <c r="T13" s="61"/>
       <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-    </row>
-    <row r="14" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="B14" s="134" t="s">
+    </row>
+    <row r="14" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B14" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="134">
+        <v>1</v>
+      </c>
+      <c r="F14" s="134">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="84">
-        <v>1</v>
-      </c>
-      <c r="G14" s="104">
-        <v>0.8</v>
-      </c>
-      <c r="H14" s="104">
-        <v>0.8</v>
-      </c>
+      <c r="H14" s="61"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
@@ -11528,24 +11445,21 @@
       <c r="S14" s="61"/>
       <c r="T14" s="61"/>
       <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-    </row>
-    <row r="15" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B15" s="131"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="64" t="s">
+    </row>
+    <row r="15" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B15" s="123"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="127"/>
-      <c r="F15" s="76">
-        <v>2</v>
-      </c>
-      <c r="G15" s="102">
-        <v>0.75</v>
-      </c>
-      <c r="H15" s="102">
-        <v>0.75</v>
-      </c>
+      <c r="E15" s="131">
+        <v>1</v>
+      </c>
+      <c r="F15" s="131">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="103"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="61"/>
       <c r="J15" s="61"/>
       <c r="K15" s="61"/>
@@ -11559,24 +11473,21 @@
       <c r="S15" s="61"/>
       <c r="T15" s="61"/>
       <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-    </row>
-    <row r="16" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="132"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="64" t="s">
+    </row>
+    <row r="16" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B16" s="126"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="127"/>
-      <c r="F16" s="76">
-        <v>3</v>
-      </c>
-      <c r="G16" s="102">
-        <v>0.8</v>
-      </c>
-      <c r="H16" s="102">
-        <v>0.8</v>
-      </c>
+      <c r="E16" s="131">
+        <v>1</v>
+      </c>
+      <c r="F16" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="103"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="61"/>
       <c r="J16" s="61"/>
       <c r="K16" s="61"/>
@@ -11590,28 +11501,23 @@
       <c r="S16" s="61"/>
       <c r="T16" s="61"/>
       <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-    </row>
-    <row r="17" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B17" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="127"/>
-      <c r="F17" s="77">
-        <v>5</v>
-      </c>
-      <c r="G17" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="102" t="s">
-        <v>156</v>
-      </c>
+    </row>
+    <row r="17" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B17" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="136"/>
+      <c r="D17" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="131">
+        <v>1</v>
+      </c>
+      <c r="F17" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="103"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
       <c r="K17" s="61"/>
@@ -11625,28 +11531,25 @@
       <c r="S17" s="61"/>
       <c r="T17" s="61"/>
       <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-    </row>
-    <row r="18" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B18" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="128"/>
-      <c r="F18" s="87">
-        <v>4</v>
-      </c>
-      <c r="G18" s="103">
-        <v>0.8</v>
-      </c>
-      <c r="H18" s="103">
-        <v>0.8</v>
-      </c>
+    </row>
+    <row r="18" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B18" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="118"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
@@ -11660,30 +11563,27 @@
       <c r="S18" s="61"/>
       <c r="T18" s="61"/>
       <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-    </row>
-    <row r="19" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="B19" s="134" t="s">
+    </row>
+    <row r="19" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B19" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="147" t="s">
+      <c r="C19" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="134">
+        <v>1</v>
+      </c>
+      <c r="F19" s="134">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="84">
-        <v>1</v>
-      </c>
-      <c r="G19" s="104">
-        <v>0.9</v>
-      </c>
-      <c r="H19" s="104">
-        <v>0.8</v>
-      </c>
+      <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
       <c r="K19" s="61"/>
@@ -11697,24 +11597,21 @@
       <c r="S19" s="61"/>
       <c r="T19" s="61"/>
       <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-    </row>
-    <row r="20" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="131"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="66" t="s">
+    </row>
+    <row r="20" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="131"/>
-      <c r="F20" s="76">
-        <v>2</v>
-      </c>
-      <c r="G20" s="102">
-        <v>0.9</v>
-      </c>
-      <c r="H20" s="102" t="s">
-        <v>159</v>
-      </c>
+      <c r="E20" s="131">
+        <v>1</v>
+      </c>
+      <c r="F20" s="131" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="106"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
       <c r="K20" s="61"/>
@@ -11728,24 +11625,21 @@
       <c r="S20" s="61"/>
       <c r="T20" s="61"/>
       <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-    </row>
-    <row r="21" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B21" s="132"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="66" t="s">
+    </row>
+    <row r="21" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="131"/>
-      <c r="F21" s="76">
-        <v>3</v>
-      </c>
-      <c r="G21" s="102">
+      <c r="E21" s="131">
         <v>1</v>
       </c>
-      <c r="H21" s="102">
-        <v>0.8</v>
-      </c>
+      <c r="F21" s="131">
+        <v>0.9</v>
+      </c>
+      <c r="G21" s="106"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
       <c r="K21" s="61"/>
@@ -11759,28 +11653,25 @@
       <c r="S21" s="61"/>
       <c r="T21" s="61"/>
       <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-    </row>
-    <row r="22" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="130" t="s">
+    </row>
+    <row r="22" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B22" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="144" t="s">
+      <c r="C22" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="131"/>
-      <c r="F22" s="76">
-        <v>4</v>
-      </c>
-      <c r="G22" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="102" t="s">
+      <c r="E22" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="80" t="s">
         <v>156</v>
       </c>
+      <c r="G22" s="106"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="61"/>
@@ -11794,24 +11685,21 @@
       <c r="S22" s="61"/>
       <c r="T22" s="61"/>
       <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-    </row>
-    <row r="23" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B23" s="131"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="66" t="s">
+    </row>
+    <row r="23" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B23" s="106"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="131"/>
-      <c r="F23" s="76">
-        <v>5</v>
-      </c>
-      <c r="G23" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="102" t="s">
+      <c r="E23" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="80" t="s">
         <v>156</v>
       </c>
+      <c r="G23" s="106"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="61"/>
       <c r="J23" s="61"/>
       <c r="K23" s="61"/>
@@ -11825,24 +11713,21 @@
       <c r="S23" s="61"/>
       <c r="T23" s="61"/>
       <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-    </row>
-    <row r="24" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B24" s="133"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="81" t="s">
+    </row>
+    <row r="24" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B24" s="110"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="133"/>
-      <c r="F24" s="87">
-        <v>6</v>
-      </c>
-      <c r="G24" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" s="103" t="s">
+      <c r="E24" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="114" t="s">
         <v>156</v>
       </c>
+      <c r="G24" s="110"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
       <c r="K24" s="61"/>
@@ -11856,30 +11741,27 @@
       <c r="S24" s="61"/>
       <c r="T24" s="61"/>
       <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-    </row>
-    <row r="25" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="B25" s="134" t="s">
+    </row>
+    <row r="25" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B25" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="89" t="s">
+      <c r="C25" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="126" t="s">
+      <c r="E25" s="134">
+        <v>1</v>
+      </c>
+      <c r="F25" s="134">
+        <v>1</v>
+      </c>
+      <c r="G25" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="84">
-        <v>1</v>
-      </c>
-      <c r="G25" s="104">
-        <v>0.8</v>
-      </c>
-      <c r="H25" s="104">
-        <v>0.8</v>
-      </c>
+      <c r="H25" s="61"/>
       <c r="I25" s="61"/>
       <c r="J25" s="61"/>
       <c r="K25" s="61"/>
@@ -11893,26 +11775,23 @@
       <c r="S25" s="61"/>
       <c r="T25" s="61"/>
       <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-    </row>
-    <row r="26" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B26" s="131"/>
-      <c r="C26" s="73" t="s">
+    </row>
+    <row r="26" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B26" s="123"/>
+      <c r="C26" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="127"/>
-      <c r="F26" s="76">
-        <v>3</v>
-      </c>
-      <c r="G26" s="102">
-        <v>0.8</v>
-      </c>
-      <c r="H26" s="102">
-        <v>0.8</v>
-      </c>
+      <c r="E26" s="131">
+        <v>1</v>
+      </c>
+      <c r="F26" s="131">
+        <v>1</v>
+      </c>
+      <c r="G26" s="103"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
       <c r="K26" s="61"/>
@@ -11926,26 +11805,23 @@
       <c r="S26" s="61"/>
       <c r="T26" s="61"/>
       <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-    </row>
-    <row r="27" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="131"/>
-      <c r="C27" s="140" t="s">
+    </row>
+    <row r="27" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B27" s="123"/>
+      <c r="C27" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="127"/>
-      <c r="F27" s="76">
-        <v>4</v>
-      </c>
-      <c r="G27" s="102" t="s">
+      <c r="E27" s="131">
+        <v>1</v>
+      </c>
+      <c r="F27" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="102" t="s">
-        <v>156</v>
-      </c>
+      <c r="G27" s="103"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="61"/>
       <c r="J27" s="61"/>
       <c r="K27" s="61"/>
@@ -11959,24 +11835,21 @@
       <c r="S27" s="61"/>
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-    </row>
-    <row r="28" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B28" s="131"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="65" t="s">
+    </row>
+    <row r="28" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B28" s="123"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="140" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="127"/>
-      <c r="F28" s="76">
-        <v>2</v>
-      </c>
-      <c r="G28" s="102">
-        <v>0.8</v>
-      </c>
-      <c r="H28" s="102">
-        <v>0.8</v>
-      </c>
+      <c r="E28" s="131">
+        <v>1</v>
+      </c>
+      <c r="F28" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="103"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="61"/>
       <c r="J28" s="61"/>
       <c r="K28" s="61"/>
@@ -11990,24 +11863,21 @@
       <c r="S28" s="61"/>
       <c r="T28" s="61"/>
       <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-    </row>
-    <row r="29" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B29" s="131"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="66" t="s">
+    </row>
+    <row r="29" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B29" s="123"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="127"/>
-      <c r="F29" s="76">
-        <v>3</v>
-      </c>
-      <c r="G29" s="102">
-        <v>0.8</v>
-      </c>
-      <c r="H29" s="102">
-        <v>0.8</v>
-      </c>
+      <c r="E29" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="103"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="61"/>
       <c r="J29" s="61"/>
       <c r="K29" s="61"/>
@@ -12021,26 +11891,23 @@
       <c r="S29" s="61"/>
       <c r="T29" s="61"/>
       <c r="U29" s="61"/>
-      <c r="V29" s="61"/>
-    </row>
-    <row r="30" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B30" s="132"/>
-      <c r="C30" s="71" t="s">
+    </row>
+    <row r="30" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B30" s="126"/>
+      <c r="C30" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="141" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="127"/>
-      <c r="F30" s="76">
-        <v>3</v>
-      </c>
-      <c r="G30" s="102">
+      <c r="E30" s="131">
         <v>0.8</v>
       </c>
-      <c r="H30" s="102">
-        <v>0.8</v>
-      </c>
+      <c r="F30" s="131" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="103"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="61"/>
       <c r="J30" s="61"/>
       <c r="K30" s="61"/>
@@ -12054,28 +11921,25 @@
       <c r="S30" s="61"/>
       <c r="T30" s="61"/>
       <c r="U30" s="61"/>
-      <c r="V30" s="61"/>
-    </row>
-    <row r="31" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B31" s="130" t="s">
+    </row>
+    <row r="31" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B31" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="127"/>
-      <c r="F31" s="76">
-        <v>4</v>
-      </c>
-      <c r="G31" s="102" t="s">
+      <c r="E31" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="H31" s="102" t="s">
+      <c r="F31" s="80" t="s">
         <v>156</v>
       </c>
+      <c r="G31" s="103"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="61"/>
       <c r="J31" s="61"/>
       <c r="K31" s="61"/>
@@ -12089,26 +11953,23 @@
       <c r="S31" s="61"/>
       <c r="T31" s="61"/>
       <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-    </row>
-    <row r="32" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B32" s="133"/>
-      <c r="C32" s="80" t="s">
+    </row>
+    <row r="32" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B32" s="110"/>
+      <c r="C32" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="E32" s="128"/>
-      <c r="F32" s="82">
-        <v>5</v>
-      </c>
-      <c r="G32" s="103" t="s">
+      <c r="E32" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="103" t="s">
+      <c r="F32" s="114" t="s">
         <v>156</v>
       </c>
+      <c r="G32" s="118"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="61"/>
       <c r="J32" s="61"/>
       <c r="K32" s="61"/>
@@ -12122,24 +11983,23 @@
       <c r="S32" s="61"/>
       <c r="T32" s="61"/>
       <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-    </row>
-    <row r="33" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1" thickTop="1">
-      <c r="B33" s="131" t="s">
+    </row>
+    <row r="33" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B33" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="D33" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="127" t="s">
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="61"/>
       <c r="J33" s="61"/>
       <c r="K33" s="61"/>
@@ -12153,20 +12013,19 @@
       <c r="S33" s="61"/>
       <c r="T33" s="61"/>
       <c r="U33" s="61"/>
-      <c r="V33" s="61"/>
-    </row>
-    <row r="34" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B34" s="131"/>
-      <c r="C34" s="71" t="s">
+    </row>
+    <row r="34" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B34" s="106"/>
+      <c r="C34" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="127"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="61"/>
       <c r="J34" s="61"/>
       <c r="K34" s="61"/>
@@ -12180,20 +12039,19 @@
       <c r="S34" s="61"/>
       <c r="T34" s="61"/>
       <c r="U34" s="61"/>
-      <c r="V34" s="61"/>
-    </row>
-    <row r="35" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B35" s="131"/>
-      <c r="C35" s="71" t="s">
+    </row>
+    <row r="35" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B35" s="106"/>
+      <c r="C35" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="127"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="61"/>
       <c r="J35" s="61"/>
       <c r="K35" s="61"/>
@@ -12207,20 +12065,19 @@
       <c r="S35" s="61"/>
       <c r="T35" s="61"/>
       <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
-    </row>
-    <row r="36" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B36" s="131"/>
-      <c r="C36" s="71" t="s">
+    </row>
+    <row r="36" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B36" s="106"/>
+      <c r="C36" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="127"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="61"/>
       <c r="J36" s="61"/>
       <c r="K36" s="61"/>
@@ -12234,20 +12091,19 @@
       <c r="S36" s="61"/>
       <c r="T36" s="61"/>
       <c r="U36" s="61"/>
-      <c r="V36" s="61"/>
-    </row>
-    <row r="37" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B37" s="131"/>
-      <c r="C37" s="71" t="s">
+    </row>
+    <row r="37" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B37" s="106"/>
+      <c r="C37" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="127"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="61"/>
       <c r="I37" s="61"/>
       <c r="J37" s="61"/>
       <c r="K37" s="61"/>
@@ -12261,20 +12117,19 @@
       <c r="S37" s="61"/>
       <c r="T37" s="61"/>
       <c r="U37" s="61"/>
-      <c r="V37" s="61"/>
-    </row>
-    <row r="38" spans="2:22" s="62" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B38" s="132"/>
-      <c r="C38" s="69" t="s">
+    </row>
+    <row r="38" spans="2:21" s="62" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B38" s="107"/>
+      <c r="C38" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="129"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="61"/>
       <c r="I38" s="61"/>
       <c r="J38" s="61"/>
       <c r="K38" s="61"/>
@@ -12288,15 +12143,14 @@
       <c r="S38" s="61"/>
       <c r="T38" s="61"/>
       <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
-    </row>
-    <row r="39" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="39" spans="2:21" ht="15.75" customHeight="1">
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -12311,15 +12165,14 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="40" spans="2:21" ht="15.75" customHeight="1">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -12334,13 +12187,12 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="41" spans="2:21" ht="15.75" customHeight="1">
       <c r="B41" s="1"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -12355,13 +12207,12 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="2:21" ht="15.75" customHeight="1">
       <c r="B42" s="1"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -12376,13 +12227,12 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-    </row>
-    <row r="43" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="2:21" ht="15.75" customHeight="1">
       <c r="B43" s="1"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -12397,13 +12247,12 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="2:21" ht="15.75" customHeight="1">
       <c r="B44" s="1"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -12418,13 +12267,12 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="2:21" ht="15.75" customHeight="1">
       <c r="B45" s="1"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -12439,15 +12287,14 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-    </row>
-    <row r="46" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" spans="2:21" ht="15.75" customHeight="1">
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -12462,17 +12309,16 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" spans="2:21" ht="15.75" customHeight="1">
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -12487,9 +12333,8 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-    </row>
-    <row r="48" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" spans="2:21" ht="15.75" customHeight="1">
       <c r="B48" s="1"/>
       <c r="C48" s="33" t="s">
         <v>70</v>
@@ -12497,9 +12342,9 @@
       <c r="D48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -12514,9 +12359,8 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="2:21" ht="15.75" customHeight="1">
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
         <v>100</v>
@@ -12524,9 +12368,9 @@
       <c r="D49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -12541,9 +12385,8 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-    </row>
-    <row r="50" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="2:21" ht="15.75" customHeight="1">
       <c r="B50" s="1"/>
       <c r="C50" s="32" t="s">
         <v>101</v>
@@ -12551,9 +12394,9 @@
       <c r="D50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -12568,9 +12411,8 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-    </row>
-    <row r="51" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="51" spans="2:21" ht="15.75" customHeight="1">
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
         <v>92</v>
@@ -12578,9 +12420,9 @@
       <c r="D51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -12595,9 +12437,8 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-    </row>
-    <row r="52" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="52" spans="2:21" ht="15.75" customHeight="1">
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
         <v>93</v>
@@ -12605,9 +12446,9 @@
       <c r="D52" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -12622,15 +12463,14 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="2:21" ht="15.75" customHeight="1">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -12645,15 +12485,14 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-    </row>
-    <row r="54" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="54" spans="2:21" ht="15.75" customHeight="1">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -12668,15 +12507,14 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-    </row>
-    <row r="55" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="55" spans="2:21" ht="15.75" customHeight="1">
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -12691,15 +12529,14 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-    </row>
-    <row r="56" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="56" spans="2:21" ht="15.75" customHeight="1">
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -12714,15 +12551,14 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-    </row>
-    <row r="57" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="57" spans="2:21" ht="15.75" customHeight="1">
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -12737,15 +12573,14 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-    </row>
-    <row r="58" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="58" spans="2:21" ht="15.75" customHeight="1">
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -12760,15 +12595,14 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-    </row>
-    <row r="59" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="59" spans="2:21" ht="15.75" customHeight="1">
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -12783,15 +12617,14 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-    </row>
-    <row r="60" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="60" spans="2:21" ht="15.75" customHeight="1">
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -12806,15 +12639,14 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-    </row>
-    <row r="61" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="61" spans="2:21" ht="15.75" customHeight="1">
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -12829,15 +12661,14 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-    </row>
-    <row r="62" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="62" spans="2:21" ht="15.75" customHeight="1">
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -12852,15 +12683,14 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-    </row>
-    <row r="63" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="63" spans="2:21" ht="15.75" customHeight="1">
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -12875,15 +12705,14 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-    </row>
-    <row r="64" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="2:21" ht="15.75" customHeight="1">
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -12898,15 +12727,14 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-    </row>
-    <row r="65" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="65" spans="2:21" ht="15.75" customHeight="1">
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -12921,15 +12749,14 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-    </row>
-    <row r="66" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="66" spans="2:21" ht="15.75" customHeight="1">
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -12944,15 +12771,14 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-    </row>
-    <row r="67" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="67" spans="2:21" ht="15.75" customHeight="1">
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -12967,15 +12793,14 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-    </row>
-    <row r="68" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="68" spans="2:21" ht="15.75" customHeight="1">
       <c r="B68" s="1"/>
       <c r="C68" s="2"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -12990,15 +12815,14 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-    </row>
-    <row r="69" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="69" spans="2:21" ht="15.75" customHeight="1">
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="2"/>
+      <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -13013,15 +12837,14 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-    </row>
-    <row r="70" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="70" spans="2:21" ht="15.75" customHeight="1">
       <c r="B70" s="1"/>
       <c r="C70" s="2"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -13036,15 +12859,14 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-    </row>
-    <row r="71" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="71" spans="2:21" ht="15.75" customHeight="1">
       <c r="B71" s="1"/>
       <c r="C71" s="2"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="2"/>
+      <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -13059,15 +12881,14 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-    </row>
-    <row r="72" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="72" spans="2:21" ht="15.75" customHeight="1">
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -13082,15 +12903,14 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-    </row>
-    <row r="73" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="73" spans="2:21" ht="15.75" customHeight="1">
       <c r="B73" s="1"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -13105,15 +12925,14 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-    </row>
-    <row r="74" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="2:21" ht="15.75" customHeight="1">
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -13128,15 +12947,14 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-    </row>
-    <row r="75" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="75" spans="2:21" ht="15.75" customHeight="1">
       <c r="B75" s="1"/>
       <c r="C75" s="2"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="2"/>
+      <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -13151,15 +12969,14 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-    </row>
-    <row r="76" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="76" spans="2:21" ht="15.75" customHeight="1">
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -13174,15 +12991,14 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-    </row>
-    <row r="77" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="77" spans="2:21" ht="15.75" customHeight="1">
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -13197,15 +13013,14 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-    </row>
-    <row r="78" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="78" spans="2:21" ht="15.75" customHeight="1">
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -13220,15 +13035,14 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-    </row>
-    <row r="79" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="79" spans="2:21" ht="15.75" customHeight="1">
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="2"/>
+      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -13243,15 +13057,14 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-    </row>
-    <row r="80" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="80" spans="2:21" ht="15.75" customHeight="1">
       <c r="B80" s="1"/>
       <c r="C80" s="2"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -13266,15 +13079,14 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-    </row>
-    <row r="81" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="81" spans="2:21" ht="15.75" customHeight="1">
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -13289,15 +13101,14 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-    </row>
-    <row r="82" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="82" spans="2:21" ht="15.75" customHeight="1">
       <c r="B82" s="1"/>
       <c r="C82" s="2"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -13312,15 +13123,14 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-    </row>
-    <row r="83" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="83" spans="2:21" ht="15.75" customHeight="1">
       <c r="B83" s="1"/>
       <c r="C83" s="2"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -13335,15 +13145,14 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-    </row>
-    <row r="84" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="84" spans="2:21" ht="15.75" customHeight="1">
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="2"/>
+      <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -13358,15 +13167,14 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-    </row>
-    <row r="85" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="85" spans="2:21" ht="15.75" customHeight="1">
       <c r="B85" s="1"/>
       <c r="C85" s="2"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -13381,15 +13189,14 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-    </row>
-    <row r="86" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="86" spans="2:21" ht="15.75" customHeight="1">
       <c r="B86" s="1"/>
       <c r="C86" s="2"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -13404,15 +13211,14 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-    </row>
-    <row r="87" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="87" spans="2:21" ht="15.75" customHeight="1">
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -13427,15 +13233,14 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-    </row>
-    <row r="88" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="88" spans="2:21" ht="15.75" customHeight="1">
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="2"/>
+      <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -13450,15 +13255,14 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-    </row>
-    <row r="89" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="89" spans="2:21" ht="15.75" customHeight="1">
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="2"/>
+      <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -13473,15 +13277,14 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
-    </row>
-    <row r="90" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="90" spans="2:21" ht="15.75" customHeight="1">
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -13496,15 +13299,14 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-    </row>
-    <row r="91" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="91" spans="2:21" ht="15.75" customHeight="1">
       <c r="B91" s="1"/>
       <c r="C91" s="2"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -13519,15 +13321,14 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-    </row>
-    <row r="92" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="92" spans="2:21" ht="15.75" customHeight="1">
       <c r="B92" s="1"/>
       <c r="C92" s="2"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -13542,15 +13343,14 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-    </row>
-    <row r="93" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="93" spans="2:21" ht="15.75" customHeight="1">
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
+      <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -13565,15 +13365,14 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-    </row>
-    <row r="94" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="94" spans="2:21" ht="15.75" customHeight="1">
       <c r="B94" s="1"/>
       <c r="C94" s="2"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -13588,15 +13387,14 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
-    </row>
-    <row r="95" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="95" spans="2:21" ht="15.75" customHeight="1">
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="2"/>
+      <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="G95" s="2"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -13611,15 +13409,14 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-    </row>
-    <row r="96" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="96" spans="2:21" ht="15.75" customHeight="1">
       <c r="B96" s="1"/>
       <c r="C96" s="2"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -13634,15 +13431,14 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-    </row>
-    <row r="97" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="97" spans="2:21" ht="15.75" customHeight="1">
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -13657,15 +13453,14 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-    </row>
-    <row r="98" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="98" spans="2:21" ht="15.75" customHeight="1">
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -13680,15 +13475,14 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-    </row>
-    <row r="99" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="99" spans="2:21" ht="15.75" customHeight="1">
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -13703,15 +13497,14 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-    </row>
-    <row r="100" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="100" spans="2:21" ht="15.75" customHeight="1">
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="2"/>
+      <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -13726,15 +13519,14 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-    </row>
-    <row r="101" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="101" spans="2:21" ht="15.75" customHeight="1">
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="2"/>
+      <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -13749,15 +13541,14 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-    </row>
-    <row r="102" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="102" spans="2:21" ht="15.75" customHeight="1">
       <c r="B102" s="1"/>
       <c r="C102" s="2"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="2"/>
+      <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -13772,15 +13563,14 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-    </row>
-    <row r="103" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="103" spans="2:21" ht="15.75" customHeight="1">
       <c r="B103" s="1"/>
       <c r="C103" s="2"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
+      <c r="G103" s="2"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -13795,15 +13585,14 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-    </row>
-    <row r="104" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="104" spans="2:21" ht="15.75" customHeight="1">
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
+      <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -13818,15 +13607,14 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-    </row>
-    <row r="105" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="105" spans="2:21" ht="15.75" customHeight="1">
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
+      <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="G105" s="2"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -13841,15 +13629,14 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-    </row>
-    <row r="106" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="106" spans="2:21" ht="15.75" customHeight="1">
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
+      <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="G106" s="2"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -13864,15 +13651,14 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-    </row>
-    <row r="107" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="107" spans="2:21" ht="15.75" customHeight="1">
       <c r="B107" s="1"/>
       <c r="C107" s="2"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
+      <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="G107" s="2"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -13887,15 +13673,14 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-    </row>
-    <row r="108" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="108" spans="2:21" ht="15.75" customHeight="1">
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
+      <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="G108" s="2"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -13910,15 +13695,14 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-    </row>
-    <row r="109" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="109" spans="2:21" ht="15.75" customHeight="1">
       <c r="B109" s="1"/>
       <c r="C109" s="2"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
+      <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="G109" s="2"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -13933,15 +13717,14 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-    </row>
-    <row r="110" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="110" spans="2:21" ht="15.75" customHeight="1">
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="2"/>
+      <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="G110" s="2"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -13956,15 +13739,14 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-    </row>
-    <row r="111" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="111" spans="2:21" ht="15.75" customHeight="1">
       <c r="B111" s="1"/>
       <c r="C111" s="2"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="2"/>
+      <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="G111" s="2"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -13979,15 +13761,14 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
-    </row>
-    <row r="112" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="112" spans="2:21" ht="15.75" customHeight="1">
       <c r="B112" s="1"/>
       <c r="C112" s="2"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="2"/>
+      <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="G112" s="2"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -14002,15 +13783,14 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
-      <c r="V112" s="1"/>
-    </row>
-    <row r="113" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="113" spans="2:21" ht="15.75" customHeight="1">
       <c r="B113" s="1"/>
       <c r="C113" s="2"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
+      <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+      <c r="G113" s="2"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -14025,15 +13805,14 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
-    </row>
-    <row r="114" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="114" spans="2:21" ht="15.75" customHeight="1">
       <c r="B114" s="1"/>
       <c r="C114" s="2"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="G114" s="2"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -14048,15 +13827,14 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
-      <c r="V114" s="1"/>
-    </row>
-    <row r="115" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="115" spans="2:21" ht="15.75" customHeight="1">
       <c r="B115" s="1"/>
       <c r="C115" s="2"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="2"/>
+      <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="G115" s="2"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -14071,15 +13849,14 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
-      <c r="V115" s="1"/>
-    </row>
-    <row r="116" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="116" spans="2:21" ht="15.75" customHeight="1">
       <c r="B116" s="1"/>
       <c r="C116" s="2"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="2"/>
+      <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="G116" s="2"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -14094,15 +13871,14 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
-      <c r="V116" s="1"/>
-    </row>
-    <row r="117" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="117" spans="2:21" ht="15.75" customHeight="1">
       <c r="B117" s="1"/>
       <c r="C117" s="2"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="2"/>
+      <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="G117" s="2"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -14117,15 +13893,14 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-    </row>
-    <row r="118" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="118" spans="2:21" ht="15.75" customHeight="1">
       <c r="B118" s="1"/>
       <c r="C118" s="2"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="2"/>
+      <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="G118" s="2"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -14140,15 +13915,14 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
-      <c r="V118" s="1"/>
-    </row>
-    <row r="119" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="119" spans="2:21" ht="15.75" customHeight="1">
       <c r="B119" s="1"/>
       <c r="C119" s="2"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="2"/>
+      <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -14163,15 +13937,14 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
-      <c r="V119" s="1"/>
-    </row>
-    <row r="120" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="120" spans="2:21" ht="15.75" customHeight="1">
       <c r="B120" s="1"/>
       <c r="C120" s="2"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="2"/>
+      <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="G120" s="2"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -14186,15 +13959,14 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
-      <c r="V120" s="1"/>
-    </row>
-    <row r="121" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="121" spans="2:21" ht="15.75" customHeight="1">
       <c r="B121" s="1"/>
       <c r="C121" s="2"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="2"/>
+      <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="G121" s="2"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -14209,15 +13981,14 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
-      <c r="V121" s="1"/>
-    </row>
-    <row r="122" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="122" spans="2:21" ht="15.75" customHeight="1">
       <c r="B122" s="1"/>
       <c r="C122" s="2"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="2"/>
+      <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="G122" s="2"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -14232,15 +14003,14 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
-    </row>
-    <row r="123" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="123" spans="2:21" ht="15.75" customHeight="1">
       <c r="B123" s="1"/>
       <c r="C123" s="2"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="2"/>
+      <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="G123" s="2"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -14255,15 +14025,14 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
-      <c r="V123" s="1"/>
-    </row>
-    <row r="124" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="124" spans="2:21" ht="15.75" customHeight="1">
       <c r="B124" s="1"/>
       <c r="C124" s="2"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="2"/>
+      <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
+      <c r="G124" s="2"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -14278,15 +14047,14 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
-      <c r="V124" s="1"/>
-    </row>
-    <row r="125" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="125" spans="2:21" ht="15.75" customHeight="1">
       <c r="B125" s="1"/>
       <c r="C125" s="2"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="2"/>
+      <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
+      <c r="G125" s="2"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -14301,15 +14069,14 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
-      <c r="V125" s="1"/>
-    </row>
-    <row r="126" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="126" spans="2:21" ht="15.75" customHeight="1">
       <c r="B126" s="1"/>
       <c r="C126" s="2"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="2"/>
+      <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
+      <c r="G126" s="2"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -14324,15 +14091,14 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
-      <c r="V126" s="1"/>
-    </row>
-    <row r="127" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="127" spans="2:21" ht="15.75" customHeight="1">
       <c r="B127" s="1"/>
       <c r="C127" s="2"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="2"/>
+      <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
+      <c r="G127" s="2"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -14347,15 +14113,14 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
-      <c r="V127" s="1"/>
-    </row>
-    <row r="128" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="128" spans="2:21" ht="15.75" customHeight="1">
       <c r="B128" s="1"/>
       <c r="C128" s="2"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="2"/>
+      <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="G128" s="2"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -14370,15 +14135,14 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
-      <c r="V128" s="1"/>
-    </row>
-    <row r="129" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="129" spans="2:21" ht="15.75" customHeight="1">
       <c r="B129" s="1"/>
       <c r="C129" s="2"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
+      <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
+      <c r="G129" s="2"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -14393,15 +14157,14 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
-      <c r="V129" s="1"/>
-    </row>
-    <row r="130" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="130" spans="2:21" ht="15.75" customHeight="1">
       <c r="B130" s="1"/>
       <c r="C130" s="2"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
+      <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
+      <c r="G130" s="2"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -14416,15 +14179,14 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
-      <c r="V130" s="1"/>
-    </row>
-    <row r="131" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="131" spans="2:21" ht="15.75" customHeight="1">
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="2"/>
+      <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
+      <c r="G131" s="2"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -14439,15 +14201,14 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
-      <c r="V131" s="1"/>
-    </row>
-    <row r="132" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="132" spans="2:21" ht="15.75" customHeight="1">
       <c r="B132" s="1"/>
       <c r="C132" s="2"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="2"/>
+      <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
+      <c r="G132" s="2"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -14462,15 +14223,14 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
-      <c r="V132" s="1"/>
-    </row>
-    <row r="133" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="133" spans="2:21" ht="15.75" customHeight="1">
       <c r="B133" s="1"/>
       <c r="C133" s="2"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="2"/>
+      <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
+      <c r="G133" s="2"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -14485,15 +14245,14 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
-      <c r="V133" s="1"/>
-    </row>
-    <row r="134" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="134" spans="2:21" ht="15.75" customHeight="1">
       <c r="B134" s="1"/>
       <c r="C134" s="2"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="2"/>
+      <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
+      <c r="G134" s="2"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -14508,15 +14267,14 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
-      <c r="V134" s="1"/>
-    </row>
-    <row r="135" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="135" spans="2:21" ht="15.75" customHeight="1">
       <c r="B135" s="1"/>
       <c r="C135" s="2"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="2"/>
+      <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
+      <c r="G135" s="2"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -14531,15 +14289,14 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
-      <c r="V135" s="1"/>
-    </row>
-    <row r="136" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="136" spans="2:21" ht="15.75" customHeight="1">
       <c r="B136" s="1"/>
       <c r="C136" s="2"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="2"/>
+      <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="G136" s="2"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -14554,15 +14311,14 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
-      <c r="V136" s="1"/>
-    </row>
-    <row r="137" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="137" spans="2:21" ht="15.75" customHeight="1">
       <c r="B137" s="1"/>
       <c r="C137" s="2"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="2"/>
+      <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
+      <c r="G137" s="2"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -14577,15 +14333,14 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
-      <c r="V137" s="1"/>
-    </row>
-    <row r="138" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="138" spans="2:21" ht="15.75" customHeight="1">
       <c r="B138" s="1"/>
       <c r="C138" s="2"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="2"/>
+      <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
+      <c r="G138" s="2"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -14600,15 +14355,14 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
-      <c r="V138" s="1"/>
-    </row>
-    <row r="139" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="139" spans="2:21" ht="15.75" customHeight="1">
       <c r="B139" s="1"/>
       <c r="C139" s="2"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="2"/>
+      <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+      <c r="G139" s="2"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -14623,15 +14377,14 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
-      <c r="V139" s="1"/>
-    </row>
-    <row r="140" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="140" spans="2:21" ht="15.75" customHeight="1">
       <c r="B140" s="1"/>
       <c r="C140" s="2"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="2"/>
+      <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
+      <c r="G140" s="2"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -14646,15 +14399,14 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
-      <c r="V140" s="1"/>
-    </row>
-    <row r="141" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="141" spans="2:21" ht="15.75" customHeight="1">
       <c r="B141" s="1"/>
       <c r="C141" s="2"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="2"/>
+      <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
+      <c r="G141" s="2"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -14669,15 +14421,14 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
-      <c r="V141" s="1"/>
-    </row>
-    <row r="142" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="142" spans="2:21" ht="15.75" customHeight="1">
       <c r="B142" s="1"/>
       <c r="C142" s="2"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="2"/>
+      <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
+      <c r="G142" s="2"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -14692,15 +14443,14 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
-      <c r="V142" s="1"/>
-    </row>
-    <row r="143" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="143" spans="2:21" ht="15.75" customHeight="1">
       <c r="B143" s="1"/>
       <c r="C143" s="2"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="2"/>
+      <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
+      <c r="G143" s="2"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -14715,15 +14465,14 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
-      <c r="V143" s="1"/>
-    </row>
-    <row r="144" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="144" spans="2:21" ht="15.75" customHeight="1">
       <c r="B144" s="1"/>
       <c r="C144" s="2"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="2"/>
+      <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
+      <c r="G144" s="2"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -14738,15 +14487,14 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
-      <c r="V144" s="1"/>
-    </row>
-    <row r="145" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="145" spans="2:21" ht="15.75" customHeight="1">
       <c r="B145" s="1"/>
       <c r="C145" s="2"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="2"/>
+      <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
+      <c r="G145" s="2"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -14761,15 +14509,14 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
-      <c r="V145" s="1"/>
-    </row>
-    <row r="146" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="146" spans="2:21" ht="15.75" customHeight="1">
       <c r="B146" s="1"/>
       <c r="C146" s="2"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="2"/>
+      <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="G146" s="2"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -14784,15 +14531,14 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
-      <c r="V146" s="1"/>
-    </row>
-    <row r="147" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="147" spans="2:21" ht="15.75" customHeight="1">
       <c r="B147" s="1"/>
       <c r="C147" s="2"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="2"/>
+      <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+      <c r="G147" s="2"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -14807,15 +14553,14 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-    </row>
-    <row r="148" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="148" spans="2:21" ht="15.75" customHeight="1">
       <c r="B148" s="1"/>
       <c r="C148" s="2"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="2"/>
+      <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="G148" s="2"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -14830,15 +14575,14 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
-      <c r="V148" s="1"/>
-    </row>
-    <row r="149" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="149" spans="2:21" ht="15.75" customHeight="1">
       <c r="B149" s="1"/>
       <c r="C149" s="2"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
+      <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="G149" s="2"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -14853,15 +14597,14 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
-      <c r="V149" s="1"/>
-    </row>
-    <row r="150" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="150" spans="2:21" ht="15.75" customHeight="1">
       <c r="B150" s="1"/>
       <c r="C150" s="2"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="2"/>
+      <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="G150" s="2"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -14876,15 +14619,14 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
-      <c r="V150" s="1"/>
-    </row>
-    <row r="151" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="151" spans="2:21" ht="15.75" customHeight="1">
       <c r="B151" s="1"/>
       <c r="C151" s="2"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="2"/>
+      <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+      <c r="G151" s="2"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -14899,15 +14641,14 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
-      <c r="V151" s="1"/>
-    </row>
-    <row r="152" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="152" spans="2:21" ht="15.75" customHeight="1">
       <c r="B152" s="1"/>
       <c r="C152" s="2"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="2"/>
+      <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
+      <c r="G152" s="2"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -14922,15 +14663,14 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
-      <c r="V152" s="1"/>
-    </row>
-    <row r="153" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="153" spans="2:21" ht="15.75" customHeight="1">
       <c r="B153" s="1"/>
       <c r="C153" s="2"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="2"/>
+      <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
+      <c r="G153" s="2"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -14945,15 +14685,14 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
-      <c r="V153" s="1"/>
-    </row>
-    <row r="154" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="154" spans="2:21" ht="15.75" customHeight="1">
       <c r="B154" s="1"/>
       <c r="C154" s="2"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="2"/>
+      <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
+      <c r="G154" s="2"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -14968,15 +14707,14 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
-      <c r="V154" s="1"/>
-    </row>
-    <row r="155" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="155" spans="2:21" ht="15.75" customHeight="1">
       <c r="B155" s="1"/>
       <c r="C155" s="2"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="2"/>
+      <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
+      <c r="G155" s="2"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -14991,15 +14729,14 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
-      <c r="V155" s="1"/>
-    </row>
-    <row r="156" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="156" spans="2:21" ht="15.75" customHeight="1">
       <c r="B156" s="1"/>
       <c r="C156" s="2"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="2"/>
+      <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+      <c r="G156" s="2"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -15014,15 +14751,14 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
-      <c r="V156" s="1"/>
-    </row>
-    <row r="157" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="157" spans="2:21" ht="15.75" customHeight="1">
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="2"/>
+      <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="G157" s="2"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -15037,15 +14773,14 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
-      <c r="V157" s="1"/>
-    </row>
-    <row r="158" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="158" spans="2:21" ht="15.75" customHeight="1">
       <c r="B158" s="1"/>
       <c r="C158" s="2"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="2"/>
+      <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="G158" s="2"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -15060,15 +14795,14 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
-      <c r="V158" s="1"/>
-    </row>
-    <row r="159" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="159" spans="2:21" ht="15.75" customHeight="1">
       <c r="B159" s="1"/>
       <c r="C159" s="2"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="2"/>
+      <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
+      <c r="G159" s="2"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -15083,15 +14817,14 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
-    </row>
-    <row r="160" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="160" spans="2:21" ht="15.75" customHeight="1">
       <c r="B160" s="1"/>
       <c r="C160" s="2"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="2"/>
+      <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+      <c r="G160" s="2"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -15106,15 +14839,14 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
-    </row>
-    <row r="161" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="161" spans="2:21" ht="15.75" customHeight="1">
       <c r="B161" s="1"/>
       <c r="C161" s="2"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="2"/>
+      <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
+      <c r="G161" s="2"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -15129,15 +14861,14 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
-      <c r="V161" s="1"/>
-    </row>
-    <row r="162" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="162" spans="2:21" ht="15.75" customHeight="1">
       <c r="B162" s="1"/>
       <c r="C162" s="2"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="2"/>
+      <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
+      <c r="G162" s="2"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -15152,15 +14883,14 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
-      <c r="V162" s="1"/>
-    </row>
-    <row r="163" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="163" spans="2:21" ht="15.75" customHeight="1">
       <c r="B163" s="1"/>
       <c r="C163" s="2"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="2"/>
+      <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
+      <c r="G163" s="2"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -15175,15 +14905,14 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
-      <c r="V163" s="1"/>
-    </row>
-    <row r="164" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="164" spans="2:21" ht="15.75" customHeight="1">
       <c r="B164" s="1"/>
       <c r="C164" s="2"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="2"/>
+      <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
+      <c r="G164" s="2"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -15198,15 +14927,14 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
-      <c r="V164" s="1"/>
-    </row>
-    <row r="165" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="165" spans="2:21" ht="15.75" customHeight="1">
       <c r="B165" s="1"/>
       <c r="C165" s="2"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="2"/>
+      <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
+      <c r="G165" s="2"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -15221,15 +14949,14 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
-      <c r="V165" s="1"/>
-    </row>
-    <row r="166" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="166" spans="2:21" ht="15.75" customHeight="1">
       <c r="B166" s="1"/>
       <c r="C166" s="2"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="2"/>
+      <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
+      <c r="G166" s="2"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -15244,15 +14971,14 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
-      <c r="V166" s="1"/>
-    </row>
-    <row r="167" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="167" spans="2:21" ht="15.75" customHeight="1">
       <c r="B167" s="1"/>
       <c r="C167" s="2"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="2"/>
+      <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
+      <c r="G167" s="2"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -15267,15 +14993,14 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
-      <c r="V167" s="1"/>
-    </row>
-    <row r="168" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="168" spans="2:21" ht="15.75" customHeight="1">
       <c r="B168" s="1"/>
       <c r="C168" s="2"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="2"/>
+      <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
+      <c r="G168" s="2"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -15290,15 +15015,14 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
-      <c r="V168" s="1"/>
-    </row>
-    <row r="169" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="169" spans="2:21" ht="15.75" customHeight="1">
       <c r="B169" s="1"/>
       <c r="C169" s="2"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
+      <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
+      <c r="G169" s="2"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -15313,15 +15037,14 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
-      <c r="V169" s="1"/>
-    </row>
-    <row r="170" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="170" spans="2:21" ht="15.75" customHeight="1">
       <c r="B170" s="1"/>
       <c r="C170" s="2"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="2"/>
+      <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
+      <c r="G170" s="2"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -15336,15 +15059,14 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
-      <c r="V170" s="1"/>
-    </row>
-    <row r="171" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="171" spans="2:21" ht="15.75" customHeight="1">
       <c r="B171" s="1"/>
       <c r="C171" s="2"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="2"/>
+      <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
+      <c r="G171" s="2"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -15359,15 +15081,14 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
-      <c r="V171" s="1"/>
-    </row>
-    <row r="172" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="172" spans="2:21" ht="15.75" customHeight="1">
       <c r="B172" s="1"/>
       <c r="C172" s="2"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="2"/>
+      <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
+      <c r="G172" s="2"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -15382,15 +15103,14 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
-      <c r="V172" s="1"/>
-    </row>
-    <row r="173" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="173" spans="2:21" ht="15.75" customHeight="1">
       <c r="B173" s="1"/>
       <c r="C173" s="2"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="2"/>
+      <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
+      <c r="G173" s="2"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -15405,15 +15125,14 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
-      <c r="V173" s="1"/>
-    </row>
-    <row r="174" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="174" spans="2:21" ht="15.75" customHeight="1">
       <c r="B174" s="1"/>
       <c r="C174" s="2"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="2"/>
+      <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
+      <c r="G174" s="2"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -15428,15 +15147,14 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
-      <c r="V174" s="1"/>
-    </row>
-    <row r="175" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="175" spans="2:21" ht="15.75" customHeight="1">
       <c r="B175" s="1"/>
       <c r="C175" s="2"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="2"/>
+      <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
+      <c r="G175" s="2"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -15451,15 +15169,14 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
-      <c r="V175" s="1"/>
-    </row>
-    <row r="176" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="176" spans="2:21" ht="15.75" customHeight="1">
       <c r="B176" s="1"/>
       <c r="C176" s="2"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="2"/>
+      <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
+      <c r="G176" s="2"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -15474,15 +15191,14 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
-      <c r="V176" s="1"/>
-    </row>
-    <row r="177" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="177" spans="2:21" ht="15.75" customHeight="1">
       <c r="B177" s="1"/>
       <c r="C177" s="2"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
+      <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
+      <c r="G177" s="2"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -15497,15 +15213,14 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
-      <c r="V177" s="1"/>
-    </row>
-    <row r="178" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="178" spans="2:21" ht="15.75" customHeight="1">
       <c r="B178" s="1"/>
       <c r="C178" s="2"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="2"/>
+      <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
+      <c r="G178" s="2"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -15520,15 +15235,14 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
-      <c r="V178" s="1"/>
-    </row>
-    <row r="179" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="179" spans="2:21" ht="15.75" customHeight="1">
       <c r="B179" s="1"/>
       <c r="C179" s="2"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
+      <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
+      <c r="G179" s="2"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -15543,15 +15257,14 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
-      <c r="V179" s="1"/>
-    </row>
-    <row r="180" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="180" spans="2:21" ht="15.75" customHeight="1">
       <c r="B180" s="1"/>
       <c r="C180" s="2"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="2"/>
+      <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
+      <c r="G180" s="2"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -15566,15 +15279,14 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
-      <c r="V180" s="1"/>
-    </row>
-    <row r="181" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="181" spans="2:21" ht="15.75" customHeight="1">
       <c r="B181" s="1"/>
       <c r="C181" s="2"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="2"/>
+      <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
+      <c r="G181" s="2"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -15589,15 +15301,14 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
-    </row>
-    <row r="182" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="182" spans="2:21" ht="15.75" customHeight="1">
       <c r="B182" s="1"/>
       <c r="C182" s="2"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="2"/>
+      <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
+      <c r="G182" s="2"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -15612,15 +15323,14 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
-      <c r="V182" s="1"/>
-    </row>
-    <row r="183" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="183" spans="2:21" ht="15.75" customHeight="1">
       <c r="B183" s="1"/>
       <c r="C183" s="2"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="2"/>
+      <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
+      <c r="G183" s="2"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -15635,15 +15345,14 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
-      <c r="V183" s="1"/>
-    </row>
-    <row r="184" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="184" spans="2:21" ht="15.75" customHeight="1">
       <c r="B184" s="1"/>
       <c r="C184" s="2"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="2"/>
+      <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
+      <c r="G184" s="2"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -15658,15 +15367,14 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
-      <c r="V184" s="1"/>
-    </row>
-    <row r="185" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="185" spans="2:21" ht="15.75" customHeight="1">
       <c r="B185" s="1"/>
       <c r="C185" s="2"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="2"/>
+      <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
+      <c r="G185" s="2"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -15681,15 +15389,14 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
-      <c r="V185" s="1"/>
-    </row>
-    <row r="186" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="186" spans="2:21" ht="15.75" customHeight="1">
       <c r="B186" s="1"/>
       <c r="C186" s="2"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="2"/>
+      <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
+      <c r="G186" s="2"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -15704,15 +15411,14 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
-      <c r="V186" s="1"/>
-    </row>
-    <row r="187" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="187" spans="2:21" ht="15.75" customHeight="1">
       <c r="B187" s="1"/>
       <c r="C187" s="2"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="2"/>
+      <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
+      <c r="G187" s="2"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -15727,15 +15433,14 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
-      <c r="V187" s="1"/>
-    </row>
-    <row r="188" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="188" spans="2:21" ht="15.75" customHeight="1">
       <c r="B188" s="1"/>
       <c r="C188" s="2"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="2"/>
+      <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="G188" s="2"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -15750,15 +15455,14 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
-      <c r="V188" s="1"/>
-    </row>
-    <row r="189" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="189" spans="2:21" ht="15.75" customHeight="1">
       <c r="B189" s="1"/>
       <c r="C189" s="2"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="2"/>
+      <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
+      <c r="G189" s="2"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -15773,15 +15477,14 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
-      <c r="V189" s="1"/>
-    </row>
-    <row r="190" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="190" spans="2:21" ht="15.75" customHeight="1">
       <c r="B190" s="1"/>
       <c r="C190" s="2"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="2"/>
+      <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
+      <c r="G190" s="2"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -15796,15 +15499,14 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
-      <c r="V190" s="1"/>
-    </row>
-    <row r="191" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="191" spans="2:21" ht="15.75" customHeight="1">
       <c r="B191" s="1"/>
       <c r="C191" s="2"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="2"/>
+      <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
+      <c r="G191" s="2"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -15819,15 +15521,14 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
-      <c r="V191" s="1"/>
-    </row>
-    <row r="192" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="192" spans="2:21" ht="15.75" customHeight="1">
       <c r="B192" s="1"/>
       <c r="C192" s="2"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="2"/>
+      <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
+      <c r="G192" s="2"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -15842,15 +15543,14 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
-      <c r="V192" s="1"/>
-    </row>
-    <row r="193" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="193" spans="2:21" ht="15.75" customHeight="1">
       <c r="B193" s="1"/>
       <c r="C193" s="2"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="2"/>
+      <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
+      <c r="G193" s="2"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -15865,15 +15565,14 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
-      <c r="V193" s="1"/>
-    </row>
-    <row r="194" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="194" spans="2:21" ht="15.75" customHeight="1">
       <c r="B194" s="1"/>
       <c r="C194" s="2"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="2"/>
+      <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
+      <c r="G194" s="2"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -15888,15 +15587,14 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
-      <c r="V194" s="1"/>
-    </row>
-    <row r="195" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="195" spans="2:21" ht="15.75" customHeight="1">
       <c r="B195" s="1"/>
       <c r="C195" s="2"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="2"/>
+      <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
+      <c r="G195" s="2"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -15911,15 +15609,14 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
-      <c r="V195" s="1"/>
-    </row>
-    <row r="196" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="196" spans="2:21" ht="15.75" customHeight="1">
       <c r="B196" s="1"/>
       <c r="C196" s="2"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="2"/>
+      <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
+      <c r="G196" s="2"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -15934,15 +15631,14 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
-      <c r="V196" s="1"/>
-    </row>
-    <row r="197" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="197" spans="2:21" ht="15.75" customHeight="1">
       <c r="B197" s="1"/>
       <c r="C197" s="2"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="2"/>
+      <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
+      <c r="G197" s="2"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -15957,15 +15653,14 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
-      <c r="V197" s="1"/>
-    </row>
-    <row r="198" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="198" spans="2:21" ht="15.75" customHeight="1">
       <c r="B198" s="1"/>
       <c r="C198" s="2"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="2"/>
+      <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
+      <c r="G198" s="2"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -15980,15 +15675,14 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
-      <c r="V198" s="1"/>
-    </row>
-    <row r="199" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="199" spans="2:21" ht="15.75" customHeight="1">
       <c r="B199" s="1"/>
       <c r="C199" s="2"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="2"/>
+      <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
+      <c r="G199" s="2"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -16003,15 +15697,14 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
-      <c r="V199" s="1"/>
-    </row>
-    <row r="200" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="200" spans="2:21" ht="15.75" customHeight="1">
       <c r="B200" s="1"/>
       <c r="C200" s="2"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="2"/>
+      <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
+      <c r="G200" s="2"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -16026,15 +15719,14 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
-      <c r="V200" s="1"/>
-    </row>
-    <row r="201" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="201" spans="2:21" ht="15.75" customHeight="1">
       <c r="B201" s="1"/>
       <c r="C201" s="2"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="2"/>
+      <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
+      <c r="G201" s="2"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -16049,15 +15741,14 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
-      <c r="V201" s="1"/>
-    </row>
-    <row r="202" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="202" spans="2:21" ht="15.75" customHeight="1">
       <c r="B202" s="1"/>
       <c r="C202" s="2"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="2"/>
+      <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
+      <c r="G202" s="2"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -16072,15 +15763,14 @@
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
       <c r="U202" s="1"/>
-      <c r="V202" s="1"/>
-    </row>
-    <row r="203" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="203" spans="2:21" ht="15.75" customHeight="1">
       <c r="B203" s="1"/>
       <c r="C203" s="2"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="2"/>
+      <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
+      <c r="G203" s="2"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -16095,15 +15785,14 @@
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
-      <c r="V203" s="1"/>
-    </row>
-    <row r="204" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="204" spans="2:21" ht="15.75" customHeight="1">
       <c r="B204" s="1"/>
       <c r="C204" s="2"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="2"/>
+      <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
+      <c r="G204" s="2"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -16118,15 +15807,14 @@
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
       <c r="U204" s="1"/>
-      <c r="V204" s="1"/>
-    </row>
-    <row r="205" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="205" spans="2:21" ht="15.75" customHeight="1">
       <c r="B205" s="1"/>
       <c r="C205" s="2"/>
       <c r="D205" s="1"/>
-      <c r="E205" s="2"/>
+      <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
+      <c r="G205" s="2"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -16141,15 +15829,14 @@
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
       <c r="U205" s="1"/>
-      <c r="V205" s="1"/>
-    </row>
-    <row r="206" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="206" spans="2:21" ht="15.75" customHeight="1">
       <c r="B206" s="1"/>
       <c r="C206" s="2"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="2"/>
+      <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
+      <c r="G206" s="2"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -16164,15 +15851,14 @@
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
       <c r="U206" s="1"/>
-      <c r="V206" s="1"/>
-    </row>
-    <row r="207" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="207" spans="2:21" ht="15.75" customHeight="1">
       <c r="B207" s="1"/>
       <c r="C207" s="2"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="2"/>
+      <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
+      <c r="G207" s="2"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -16187,15 +15873,14 @@
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
       <c r="U207" s="1"/>
-      <c r="V207" s="1"/>
-    </row>
-    <row r="208" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="208" spans="2:21" ht="15.75" customHeight="1">
       <c r="B208" s="1"/>
       <c r="C208" s="2"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="2"/>
+      <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
+      <c r="G208" s="2"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -16210,15 +15895,14 @@
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
       <c r="U208" s="1"/>
-      <c r="V208" s="1"/>
-    </row>
-    <row r="209" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="209" spans="2:21" ht="15.75" customHeight="1">
       <c r="B209" s="1"/>
       <c r="C209" s="2"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="2"/>
+      <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
+      <c r="G209" s="2"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -16233,15 +15917,14 @@
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
       <c r="U209" s="1"/>
-      <c r="V209" s="1"/>
-    </row>
-    <row r="210" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="210" spans="2:21" ht="15.75" customHeight="1">
       <c r="B210" s="1"/>
       <c r="C210" s="2"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="2"/>
+      <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
+      <c r="G210" s="2"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -16256,15 +15939,14 @@
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
       <c r="U210" s="1"/>
-      <c r="V210" s="1"/>
-    </row>
-    <row r="211" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="211" spans="2:21" ht="15.75" customHeight="1">
       <c r="B211" s="1"/>
       <c r="C211" s="2"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="2"/>
+      <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
+      <c r="G211" s="2"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -16279,15 +15961,14 @@
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
       <c r="U211" s="1"/>
-      <c r="V211" s="1"/>
-    </row>
-    <row r="212" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="212" spans="2:21" ht="15.75" customHeight="1">
       <c r="B212" s="1"/>
       <c r="C212" s="2"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="2"/>
+      <c r="E212" s="1"/>
       <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
+      <c r="G212" s="2"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -16302,15 +15983,14 @@
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
       <c r="U212" s="1"/>
-      <c r="V212" s="1"/>
-    </row>
-    <row r="213" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="213" spans="2:21" ht="15.75" customHeight="1">
       <c r="B213" s="1"/>
       <c r="C213" s="2"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="2"/>
+      <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
+      <c r="G213" s="2"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -16325,15 +16005,14 @@
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
       <c r="U213" s="1"/>
-      <c r="V213" s="1"/>
-    </row>
-    <row r="214" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="214" spans="2:21" ht="15.75" customHeight="1">
       <c r="B214" s="1"/>
       <c r="C214" s="2"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="2"/>
+      <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
+      <c r="G214" s="2"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -16348,15 +16027,14 @@
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
       <c r="U214" s="1"/>
-      <c r="V214" s="1"/>
-    </row>
-    <row r="215" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="215" spans="2:21" ht="15.75" customHeight="1">
       <c r="B215" s="1"/>
       <c r="C215" s="2"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="2"/>
+      <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
+      <c r="G215" s="2"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -16371,15 +16049,14 @@
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
       <c r="U215" s="1"/>
-      <c r="V215" s="1"/>
-    </row>
-    <row r="216" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="216" spans="2:21" ht="15.75" customHeight="1">
       <c r="B216" s="1"/>
       <c r="C216" s="2"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="2"/>
+      <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
+      <c r="G216" s="2"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -16394,15 +16071,14 @@
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
       <c r="U216" s="1"/>
-      <c r="V216" s="1"/>
-    </row>
-    <row r="217" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="217" spans="2:21" ht="15.75" customHeight="1">
       <c r="B217" s="1"/>
       <c r="C217" s="2"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="2"/>
+      <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
+      <c r="G217" s="2"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -16417,15 +16093,14 @@
       <c r="S217" s="1"/>
       <c r="T217" s="1"/>
       <c r="U217" s="1"/>
-      <c r="V217" s="1"/>
-    </row>
-    <row r="218" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="218" spans="2:21" ht="15.75" customHeight="1">
       <c r="B218" s="1"/>
       <c r="C218" s="2"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="2"/>
+      <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
+      <c r="G218" s="2"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -16440,15 +16115,14 @@
       <c r="S218" s="1"/>
       <c r="T218" s="1"/>
       <c r="U218" s="1"/>
-      <c r="V218" s="1"/>
-    </row>
-    <row r="219" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="219" spans="2:21" ht="15.75" customHeight="1">
       <c r="B219" s="1"/>
       <c r="C219" s="2"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="2"/>
+      <c r="E219" s="1"/>
       <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
+      <c r="G219" s="2"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -16463,15 +16137,14 @@
       <c r="S219" s="1"/>
       <c r="T219" s="1"/>
       <c r="U219" s="1"/>
-      <c r="V219" s="1"/>
-    </row>
-    <row r="220" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="220" spans="2:21" ht="15.75" customHeight="1">
       <c r="B220" s="1"/>
       <c r="C220" s="2"/>
       <c r="D220" s="1"/>
-      <c r="E220" s="2"/>
+      <c r="E220" s="1"/>
       <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
+      <c r="G220" s="2"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -16486,15 +16159,14 @@
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
       <c r="U220" s="1"/>
-      <c r="V220" s="1"/>
-    </row>
-    <row r="221" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="221" spans="2:21" ht="15.75" customHeight="1">
       <c r="B221" s="1"/>
       <c r="C221" s="2"/>
       <c r="D221" s="1"/>
-      <c r="E221" s="2"/>
+      <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
+      <c r="G221" s="2"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -16509,15 +16181,14 @@
       <c r="S221" s="1"/>
       <c r="T221" s="1"/>
       <c r="U221" s="1"/>
-      <c r="V221" s="1"/>
-    </row>
-    <row r="222" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="222" spans="2:21" ht="15.75" customHeight="1">
       <c r="B222" s="1"/>
       <c r="C222" s="2"/>
       <c r="D222" s="1"/>
-      <c r="E222" s="2"/>
+      <c r="E222" s="1"/>
       <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
+      <c r="G222" s="2"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -16532,15 +16203,14 @@
       <c r="S222" s="1"/>
       <c r="T222" s="1"/>
       <c r="U222" s="1"/>
-      <c r="V222" s="1"/>
-    </row>
-    <row r="223" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="223" spans="2:21" ht="15.75" customHeight="1">
       <c r="B223" s="1"/>
       <c r="C223" s="2"/>
       <c r="D223" s="1"/>
-      <c r="E223" s="2"/>
+      <c r="E223" s="1"/>
       <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
+      <c r="G223" s="2"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -16555,15 +16225,14 @@
       <c r="S223" s="1"/>
       <c r="T223" s="1"/>
       <c r="U223" s="1"/>
-      <c r="V223" s="1"/>
-    </row>
-    <row r="224" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="224" spans="2:21" ht="15.75" customHeight="1">
       <c r="B224" s="1"/>
       <c r="C224" s="2"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="2"/>
+      <c r="E224" s="1"/>
       <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
+      <c r="G224" s="2"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -16578,15 +16247,14 @@
       <c r="S224" s="1"/>
       <c r="T224" s="1"/>
       <c r="U224" s="1"/>
-      <c r="V224" s="1"/>
-    </row>
-    <row r="225" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="225" spans="2:21" ht="15.75" customHeight="1">
       <c r="B225" s="1"/>
       <c r="C225" s="2"/>
       <c r="D225" s="1"/>
-      <c r="E225" s="2"/>
+      <c r="E225" s="1"/>
       <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
+      <c r="G225" s="2"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -16601,15 +16269,14 @@
       <c r="S225" s="1"/>
       <c r="T225" s="1"/>
       <c r="U225" s="1"/>
-      <c r="V225" s="1"/>
-    </row>
-    <row r="226" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="226" spans="2:21" ht="15.75" customHeight="1">
       <c r="B226" s="1"/>
       <c r="C226" s="2"/>
       <c r="D226" s="1"/>
-      <c r="E226" s="2"/>
+      <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
+      <c r="G226" s="2"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -16624,15 +16291,14 @@
       <c r="S226" s="1"/>
       <c r="T226" s="1"/>
       <c r="U226" s="1"/>
-      <c r="V226" s="1"/>
-    </row>
-    <row r="227" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="227" spans="2:21" ht="15.75" customHeight="1">
       <c r="B227" s="1"/>
       <c r="C227" s="2"/>
       <c r="D227" s="1"/>
-      <c r="E227" s="2"/>
+      <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
+      <c r="G227" s="2"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -16647,15 +16313,14 @@
       <c r="S227" s="1"/>
       <c r="T227" s="1"/>
       <c r="U227" s="1"/>
-      <c r="V227" s="1"/>
-    </row>
-    <row r="228" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="228" spans="2:21" ht="15.75" customHeight="1">
       <c r="B228" s="1"/>
       <c r="C228" s="2"/>
       <c r="D228" s="1"/>
-      <c r="E228" s="2"/>
+      <c r="E228" s="1"/>
       <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
+      <c r="G228" s="2"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -16670,15 +16335,14 @@
       <c r="S228" s="1"/>
       <c r="T228" s="1"/>
       <c r="U228" s="1"/>
-      <c r="V228" s="1"/>
-    </row>
-    <row r="229" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="229" spans="2:21" ht="15.75" customHeight="1">
       <c r="B229" s="1"/>
       <c r="C229" s="2"/>
       <c r="D229" s="1"/>
-      <c r="E229" s="2"/>
+      <c r="E229" s="1"/>
       <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
+      <c r="G229" s="2"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -16693,15 +16357,14 @@
       <c r="S229" s="1"/>
       <c r="T229" s="1"/>
       <c r="U229" s="1"/>
-      <c r="V229" s="1"/>
-    </row>
-    <row r="230" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="230" spans="2:21" ht="15.75" customHeight="1">
       <c r="B230" s="1"/>
       <c r="C230" s="2"/>
       <c r="D230" s="1"/>
-      <c r="E230" s="2"/>
+      <c r="E230" s="1"/>
       <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
+      <c r="G230" s="2"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -16716,15 +16379,14 @@
       <c r="S230" s="1"/>
       <c r="T230" s="1"/>
       <c r="U230" s="1"/>
-      <c r="V230" s="1"/>
-    </row>
-    <row r="231" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="231" spans="2:21" ht="15.75" customHeight="1">
       <c r="B231" s="1"/>
       <c r="C231" s="2"/>
       <c r="D231" s="1"/>
-      <c r="E231" s="2"/>
+      <c r="E231" s="1"/>
       <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
+      <c r="G231" s="2"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -16739,15 +16401,14 @@
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
       <c r="U231" s="1"/>
-      <c r="V231" s="1"/>
-    </row>
-    <row r="232" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="232" spans="2:21" ht="15.75" customHeight="1">
       <c r="B232" s="1"/>
       <c r="C232" s="2"/>
       <c r="D232" s="1"/>
-      <c r="E232" s="2"/>
+      <c r="E232" s="1"/>
       <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
+      <c r="G232" s="2"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -16762,15 +16423,14 @@
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
       <c r="U232" s="1"/>
-      <c r="V232" s="1"/>
-    </row>
-    <row r="233" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="233" spans="2:21" ht="15.75" customHeight="1">
       <c r="B233" s="1"/>
       <c r="C233" s="2"/>
       <c r="D233" s="1"/>
-      <c r="E233" s="2"/>
+      <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
+      <c r="G233" s="2"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -16785,15 +16445,14 @@
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
       <c r="U233" s="1"/>
-      <c r="V233" s="1"/>
-    </row>
-    <row r="234" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="234" spans="2:21" ht="15.75" customHeight="1">
       <c r="B234" s="1"/>
       <c r="C234" s="2"/>
       <c r="D234" s="1"/>
-      <c r="E234" s="2"/>
+      <c r="E234" s="1"/>
       <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
+      <c r="G234" s="2"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
@@ -16808,15 +16467,14 @@
       <c r="S234" s="1"/>
       <c r="T234" s="1"/>
       <c r="U234" s="1"/>
-      <c r="V234" s="1"/>
-    </row>
-    <row r="235" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="235" spans="2:21" ht="15.75" customHeight="1">
       <c r="B235" s="1"/>
       <c r="C235" s="2"/>
       <c r="D235" s="1"/>
-      <c r="E235" s="2"/>
+      <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
+      <c r="G235" s="2"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -16831,15 +16489,14 @@
       <c r="S235" s="1"/>
       <c r="T235" s="1"/>
       <c r="U235" s="1"/>
-      <c r="V235" s="1"/>
-    </row>
-    <row r="236" spans="2:22" ht="15.75" customHeight="1">
+    </row>
+    <row r="236" spans="2:21" ht="15.75" customHeight="1">
       <c r="B236" s="1"/>
       <c r="C236" s="2"/>
       <c r="D236" s="1"/>
-      <c r="E236" s="2"/>
+      <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
+      <c r="G236" s="2"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
@@ -16854,12 +16511,11 @@
       <c r="S236" s="1"/>
       <c r="T236" s="1"/>
       <c r="U236" s="1"/>
-      <c r="V236" s="1"/>
-    </row>
-    <row r="237" spans="2:22" ht="15.75" customHeight="1"/>
-    <row r="238" spans="2:22" ht="15.75" customHeight="1"/>
-    <row r="239" spans="2:22" ht="15.75" customHeight="1"/>
-    <row r="240" spans="2:22" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="237" spans="2:21" ht="15.75" customHeight="1"/>
+    <row r="238" spans="2:21" ht="15.75" customHeight="1"/>
+    <row r="239" spans="2:21" ht="15.75" customHeight="1"/>
+    <row r="240" spans="2:21" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -17618,16 +17274,8 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sortState ref="B8:G38">
-    <sortCondition ref="E8:E38"/>
-  </sortState>
-  <mergeCells count="19">
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="E25:E32"/>
-    <mergeCell ref="E33:E38"/>
+  <mergeCells count="18">
+    <mergeCell ref="G33:G38"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
@@ -17637,10 +17285,14 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G24"/>
     <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="G25:G32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
